--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Data Validation</t>
   </si>
@@ -45,12 +45,15 @@
   <si>
     <t>Key</t>
   </si>
+  <si>
+    <t>Caption</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +78,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -191,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -210,6 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +572,10 @@
             <v>97000000000030</v>
           </cell>
           <cell r="F31" t="str">
-            <v>Module.MasterData.Person</v>
+            <v>Module.MasterData.Bank</v>
           </cell>
           <cell r="G31" t="str">
-            <v>Person</v>
+            <v>Bank</v>
           </cell>
         </row>
         <row r="32">
@@ -572,10 +583,10 @@
             <v>97000000000031</v>
           </cell>
           <cell r="F32" t="str">
-            <v>Module.MasterData.Person.Report.DataList</v>
+            <v>Module.MasterData.Bank.Report.DataList</v>
           </cell>
           <cell r="G32" t="str">
-            <v>Person Data List</v>
+            <v>Bank Data List</v>
           </cell>
         </row>
         <row r="33">
@@ -583,10 +594,10 @@
             <v>97000000000032</v>
           </cell>
           <cell r="F33" t="str">
-            <v>Module.Finance.Advance.Transaction</v>
+            <v>Module.MasterData.BankAccount</v>
           </cell>
           <cell r="G33" t="str">
-            <v>Advance</v>
+            <v>Bank Account</v>
           </cell>
         </row>
         <row r="34">
@@ -594,10 +605,10 @@
             <v>97000000000033</v>
           </cell>
           <cell r="F34" t="str">
-            <v>Module.Finance.Advance.Report.Form</v>
+            <v>Module.MasterData.BankAccount.Report.DataList</v>
           </cell>
           <cell r="G34" t="str">
-            <v>Advance Form</v>
+            <v>Bank Account Data List</v>
           </cell>
         </row>
         <row r="35">
@@ -605,10 +616,10 @@
             <v>97000000000034</v>
           </cell>
           <cell r="F35" t="str">
-            <v>Module.Finance.Advance.Report.DataList</v>
+            <v>Module.MasterData.BankBranch</v>
           </cell>
           <cell r="G35" t="str">
-            <v>Advance Data List</v>
+            <v>Bank Branch</v>
           </cell>
         </row>
         <row r="36">
@@ -616,10 +627,10 @@
             <v>97000000000035</v>
           </cell>
           <cell r="F36" t="str">
-            <v>Module.Finance.Advance.Report.Resume</v>
+            <v>Module.MasterData.BankBranch.Report.DataList</v>
           </cell>
           <cell r="G36" t="str">
-            <v>Advance Data Resume</v>
+            <v>Bank Branch Data List</v>
           </cell>
         </row>
         <row r="37">
@@ -627,10 +638,10 @@
             <v>97000000000036</v>
           </cell>
           <cell r="F37" t="str">
-            <v>Module.Finance.AdvancePayment.Transaction</v>
+            <v>Module.MasterData.Person</v>
           </cell>
           <cell r="G37" t="str">
-            <v>Advance Payment</v>
+            <v>Person</v>
           </cell>
         </row>
         <row r="38">
@@ -638,10 +649,10 @@
             <v>97000000000037</v>
           </cell>
           <cell r="F38" t="str">
-            <v>Module.Finance.AdvancePayment.Report.Form</v>
+            <v>Module.MasterData.Person.Report.DataList</v>
           </cell>
           <cell r="G38" t="str">
-            <v>Advance Payment Form</v>
+            <v>Person Data List</v>
           </cell>
         </row>
         <row r="39">
@@ -649,10 +660,10 @@
             <v>97000000000038</v>
           </cell>
           <cell r="F39" t="str">
-            <v>Module.Finance.AdvancePayment.Report.DataList</v>
+            <v>Module.Accounting.MasterData.ChartOfAccounting</v>
           </cell>
           <cell r="G39" t="str">
-            <v>Advance Payment Data List</v>
+            <v>Chart Of Accounting</v>
           </cell>
         </row>
         <row r="40">
@@ -660,10 +671,10 @@
             <v>97000000000039</v>
           </cell>
           <cell r="F40" t="str">
-            <v>Module.Finance.AdvancePayment.Report.Resume</v>
+            <v>Module.Accounting.MasterData.ChartOfAccounting.Report.DataList</v>
           </cell>
           <cell r="G40" t="str">
-            <v>Advance Payment Resume</v>
+            <v>Chart Of Accounting Data List</v>
           </cell>
         </row>
         <row r="41">
@@ -671,10 +682,10 @@
             <v>97000000000040</v>
           </cell>
           <cell r="F41" t="str">
-            <v>Module.Finance.AdvanceSettlement.Transaction</v>
+            <v>Module.Finance.Advance.Transaction</v>
           </cell>
           <cell r="G41" t="str">
-            <v>Advance Settlement</v>
+            <v>Advance</v>
           </cell>
         </row>
         <row r="42">
@@ -682,10 +693,10 @@
             <v>97000000000041</v>
           </cell>
           <cell r="F42" t="str">
-            <v>Module.Finance.AdvanceSettlement.Report.Form</v>
+            <v>Module.Finance.Advance.Report.Form</v>
           </cell>
           <cell r="G42" t="str">
-            <v>Advance Settlement Form</v>
+            <v>Advance Form</v>
           </cell>
         </row>
         <row r="43">
@@ -693,10 +704,10 @@
             <v>97000000000042</v>
           </cell>
           <cell r="F43" t="str">
-            <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+            <v>Module.Finance.Advance.Report.DataList</v>
           </cell>
           <cell r="G43" t="str">
-            <v>Advance Settlement Data List</v>
+            <v>Advance Data List</v>
           </cell>
         </row>
         <row r="44">
@@ -704,10 +715,10 @@
             <v>97000000000043</v>
           </cell>
           <cell r="F44" t="str">
-            <v>Module.Finance.AdvanceSettlement.Report.Resume</v>
+            <v>Module.Finance.Advance.Report.Resume</v>
           </cell>
           <cell r="G44" t="str">
-            <v>Advance Settlement Resume</v>
+            <v>Advance Data Resume</v>
           </cell>
         </row>
         <row r="45">
@@ -715,7 +726,7 @@
             <v>97000000000044</v>
           </cell>
           <cell r="F45" t="str">
-            <v>Module.Finance.Payment.Transaction</v>
+            <v>Module.Finance.AdvancePayment.Transaction</v>
           </cell>
           <cell r="G45" t="str">
             <v>Advance Payment</v>
@@ -726,7 +737,7 @@
             <v>97000000000045</v>
           </cell>
           <cell r="F46" t="str">
-            <v>Module.Finance.Payment.Report.Form</v>
+            <v>Module.Finance.AdvancePayment.Report.Form</v>
           </cell>
           <cell r="G46" t="str">
             <v>Advance Payment Form</v>
@@ -737,7 +748,7 @@
             <v>97000000000046</v>
           </cell>
           <cell r="F47" t="str">
-            <v>Module.Finance.Payment.Report.DataList</v>
+            <v>Module.Finance.AdvancePayment.Report.DataList</v>
           </cell>
           <cell r="G47" t="str">
             <v>Advance Payment Data List</v>
@@ -748,7 +759,7 @@
             <v>97000000000047</v>
           </cell>
           <cell r="F48" t="str">
-            <v>Module.Finance.Payment.Report.Resume</v>
+            <v>Module.Finance.AdvancePayment.Report.Resume</v>
           </cell>
           <cell r="G48" t="str">
             <v>Advance Payment Resume</v>
@@ -759,10 +770,10 @@
             <v>97000000000048</v>
           </cell>
           <cell r="F49" t="str">
-            <v>Module.Finance.PaymentInstruction.Transaction</v>
+            <v>Module.Finance.AdvanceSettlement.Transaction</v>
           </cell>
           <cell r="G49" t="str">
-            <v>Advance Payment Instruction</v>
+            <v>Advance Settlement</v>
           </cell>
         </row>
         <row r="50">
@@ -770,10 +781,10 @@
             <v>97000000000049</v>
           </cell>
           <cell r="F50" t="str">
-            <v>Module.Finance.PaymentInstruction.Report.Form</v>
+            <v>Module.Finance.AdvanceSettlement.Report.Form</v>
           </cell>
           <cell r="G50" t="str">
-            <v>Advance Payment Instruction Form</v>
+            <v>Advance Settlement Form</v>
           </cell>
         </row>
         <row r="51">
@@ -781,10 +792,10 @@
             <v>97000000000050</v>
           </cell>
           <cell r="F51" t="str">
-            <v>Module.Finance.PaymentInstruction.Report.DataList</v>
+            <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
           </cell>
           <cell r="G51" t="str">
-            <v>Advance Payment Instruction Data List</v>
+            <v>Advance Settlement Data List</v>
           </cell>
         </row>
         <row r="52">
@@ -792,9 +803,97 @@
             <v>97000000000051</v>
           </cell>
           <cell r="F52" t="str">
+            <v>Module.Finance.AdvanceSettlement.Report.Resume</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>Advance Settlement Resume</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>97000000000052</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>Module.Finance.Payment.Transaction</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>Advance Payment</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>97000000000053</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>Module.Finance.Payment.Report.Form</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>Advance Payment Form</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>97000000000054</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>Module.Finance.Payment.Report.DataList</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>Advance Payment Data List</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>97000000000055</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Module.Finance.Payment.Report.Resume</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>Advance Payment Resume</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>97000000000056</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>Module.Finance.PaymentInstruction.Transaction</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>Advance Payment Instruction</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>97000000000057</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>Module.Finance.PaymentInstruction.Report.Form</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>Advance Payment Instruction Form</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>97000000000058</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>Module.Finance.PaymentInstruction.Report.DataList</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>Advance Payment Instruction Data List</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>97000000000059</v>
+          </cell>
+          <cell r="F60" t="str">
             <v>Module.Finance.PaymentInstruction.Report.Resume</v>
           </cell>
-          <cell r="G52" t="str">
+          <cell r="G60" t="str">
             <v>Advance Payment Instruction Resume</v>
           </cell>
         </row>
@@ -1091,13 +1190,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1108,13 +1207,13 @@
     <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1122,64 +1221,83 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="7">
         <v>97000000000001</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>VLOOKUP($B2, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B2, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>System.Login</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>VLOOKUP($B2, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B2, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>Login</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="str">
+        <f>IF(EXACT(B2, ""), "", IF(EXACT(F2, ""), "Execute", F2))</f>
+        <v>Execute</v>
+      </c>
+      <c r="H2" s="3" t="str">
         <f>IF(EXACT(B2, ""), "", IF(EXACT(F2, ""), "Execute", SUBSTITUTE(F2, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>256000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L2" s="16" t="str">
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B2, ""), "null", CONCATENATE($B2)), ", ", IF(EXACT($B2, ""),"null", CONCATENATE("'", $G2, "'")), ", ", IF(EXACT($B2, ""), "null", CONCATENATE("'", $H2, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000001, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>97000000000002</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>VLOOKUP($B3, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B3, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>System.Logout</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>VLOOKUP($B3, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B3, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>Logout</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G36" si="0">IF(EXACT(B3, ""), "", IF(EXACT(F3, ""), "Execute", SUBSTITUTE(F3, " ", "")))</f>
+        <f t="shared" ref="G3:G36" si="0">IF(EXACT(B3, ""), "", IF(EXACT(F3, ""), "Execute", F3))</f>
         <v>Execute</v>
       </c>
-      <c r="I3" s="6">
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H36" si="1">IF(EXACT(B3, ""), "", IF(EXACT(F3, ""), "Execute", SUBSTITUTE(F3, " ", "")))</f>
+        <v>Execute</v>
+      </c>
+      <c r="J3" s="6">
         <v>256000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L3" s="16" t="str">
+        <f t="shared" ref="L3:L36" si="2">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B3, ""), "null", CONCATENATE($B3)), ", ", IF(EXACT($B3, ""),"null", CONCATENATE("'", $G3, "'")), ", ", IF(EXACT($B3, ""), "null", CONCATENATE("'", $H3, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000002, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>97000000000003</v>
       </c>
       <c r="C4" s="10" t="str">
-        <f>VLOOKUP($B4, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B4, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>System.Lock</v>
       </c>
       <c r="D4" s="11" t="str">
-        <f>VLOOKUP($B4, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B4, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>Lock</v>
       </c>
       <c r="F4" s="15"/>
@@ -1187,20 +1305,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I4" s="6">
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J4" s="6">
         <v>256000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L4" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000003, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="12">
         <v>97000000000004</v>
       </c>
       <c r="C5" s="13" t="str">
-        <f>VLOOKUP($B5, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B5, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Dashboard.DocumentTracking</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f>VLOOKUP($B5, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B5, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>Document Tracking</v>
       </c>
       <c r="F5" s="4"/>
@@ -1208,20 +1334,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I5" s="6">
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J5" s="6">
         <v>256000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L5" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000004, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>97000000000005</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>VLOOKUP($B6, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B6, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Dashboard.DocumentDisposition</v>
       </c>
       <c r="D6" s="11" t="str">
-        <f>VLOOKUP($B6, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B6, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>Document Disposition</v>
       </c>
       <c r="F6" s="15"/>
@@ -1229,20 +1363,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I6" s="6">
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J6" s="6">
         <v>256000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L6" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000005, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>97000000000006</v>
       </c>
       <c r="C7" s="13" t="str">
-        <f>VLOOKUP($B7, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B7, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.User.Transaction</v>
       </c>
       <c r="D7" s="14" t="str">
-        <f>VLOOKUP($B7, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B7, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1250,22 +1392,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>Data Validation</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>DataValidation</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>256000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L7" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'Data Validation', 'DataValidation');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>97000000000006</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>VLOOKUP($B8, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B8, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.User.Transaction</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>VLOOKUP($B8, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B8, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1275,20 +1425,28 @@
         <f t="shared" si="0"/>
         <v>Create</v>
       </c>
-      <c r="I8" s="6">
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Create</v>
+      </c>
+      <c r="J8" s="6">
         <v>256000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L8" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'Create', 'Create');</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>97000000000006</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>VLOOKUP($B9, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B9, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.User.Transaction</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>VLOOKUP($B9, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B9, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1298,20 +1456,28 @@
         <f t="shared" si="0"/>
         <v>Edit</v>
       </c>
-      <c r="I9" s="6">
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Edit</v>
+      </c>
+      <c r="J9" s="6">
         <v>256000000000008</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L9" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'Edit', 'Edit');</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>97000000000006</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>VLOOKUP($B10, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B10, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.User.Transaction</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>VLOOKUP($B10, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B10, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1321,20 +1487,28 @@
         <f t="shared" si="0"/>
         <v>Delete</v>
       </c>
-      <c r="I10" s="6">
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Delete</v>
+      </c>
+      <c r="J10" s="6">
         <v>256000000000009</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'Delete', 'Delete');</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>97000000000006</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>VLOOKUP($B11, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B11, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.User.Transaction</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>VLOOKUP($B11, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B11, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1344,20 +1518,28 @@
         <f t="shared" si="0"/>
         <v>Read</v>
       </c>
-      <c r="I11" s="6">
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Read</v>
+      </c>
+      <c r="J11" s="6">
         <v>256000000000010</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'Read', 'Read');</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>97000000000007</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>VLOOKUP($B12, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B12, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.User.Report.DataList</v>
       </c>
       <c r="D12" s="11" t="str">
-        <f>VLOOKUP($B12, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B12, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Data List</v>
       </c>
       <c r="F12" s="15"/>
@@ -1365,20 +1547,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I12" s="6">
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J12" s="6">
         <v>256000000000011</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L12" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000007, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>97000000000008</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f>VLOOKUP($B13, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B13, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRole.Transaction</v>
       </c>
       <c r="D13" s="14" t="str">
-        <f>VLOOKUP($B13, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B13, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1386,22 +1576,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>Data Validation</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>DataValidation</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>256000000000012</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L13" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000008, 'Data Validation', 'DataValidation');</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>97000000000008</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>VLOOKUP($B14, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B14, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRole.Transaction</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>VLOOKUP($B14, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B14, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1411,20 +1609,28 @@
         <f t="shared" si="0"/>
         <v>Create</v>
       </c>
-      <c r="I14" s="6">
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Create</v>
+      </c>
+      <c r="J14" s="6">
         <v>256000000000013</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L14" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000008, 'Create', 'Create');</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>97000000000008</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>VLOOKUP($B15, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B15, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRole.Transaction</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>VLOOKUP($B15, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B15, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1434,20 +1640,28 @@
         <f t="shared" si="0"/>
         <v>Edit</v>
       </c>
-      <c r="I15" s="6">
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Edit</v>
+      </c>
+      <c r="J15" s="6">
         <v>256000000000014</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000008, 'Edit', 'Edit');</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>97000000000008</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>VLOOKUP($B16, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B16, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRole.Transaction</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>VLOOKUP($B16, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B16, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1457,20 +1671,28 @@
         <f t="shared" si="0"/>
         <v>Delete</v>
       </c>
-      <c r="I16" s="6">
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Delete</v>
+      </c>
+      <c r="J16" s="6">
         <v>256000000000015</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000008, 'Delete', 'Delete');</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>97000000000008</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>VLOOKUP($B17, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B17, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRole.Transaction</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>VLOOKUP($B17, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B17, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1480,20 +1702,28 @@
         <f t="shared" si="0"/>
         <v>Read</v>
       </c>
-      <c r="I17" s="6">
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Read</v>
+      </c>
+      <c r="J17" s="6">
         <v>256000000000016</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000008, 'Read', 'Read');</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>97000000000009</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>VLOOKUP($B18, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B18, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRole.Report.DataList</v>
       </c>
       <c r="D18" s="11" t="str">
-        <f>VLOOKUP($B18, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B18, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Data List</v>
       </c>
       <c r="F18" s="15"/>
@@ -1501,20 +1731,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I18" s="6">
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J18" s="6">
         <v>256000000000017</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000009, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>97000000000010</v>
       </c>
       <c r="C19" s="13" t="str">
-        <f>VLOOKUP($B19, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B19, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroup.Transaction</v>
       </c>
       <c r="D19" s="14" t="str">
-        <f>VLOOKUP($B19, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B19, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1522,22 +1760,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>Data Validation</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>DataValidation</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>256000000000018</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L19" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000010, 'Data Validation', 'DataValidation');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <v>97000000000010</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>VLOOKUP($B20, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B20, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroup.Transaction</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>VLOOKUP($B20, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B20, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1547,20 +1793,28 @@
         <f t="shared" si="0"/>
         <v>Create</v>
       </c>
-      <c r="I20" s="6">
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Create</v>
+      </c>
+      <c r="J20" s="6">
         <v>256000000000019</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000010, 'Create', 'Create');</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
         <v>97000000000010</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>VLOOKUP($B21, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B21, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroup.Transaction</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>VLOOKUP($B21, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B21, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1570,20 +1824,28 @@
         <f t="shared" si="0"/>
         <v>Edit</v>
       </c>
-      <c r="I21" s="6">
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Edit</v>
+      </c>
+      <c r="J21" s="6">
         <v>256000000000020</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L21" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000010, 'Edit', 'Edit');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
         <v>97000000000010</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>VLOOKUP($B22, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B22, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroup.Transaction</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>VLOOKUP($B22, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B22, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1593,20 +1855,28 @@
         <f t="shared" si="0"/>
         <v>Delete</v>
       </c>
-      <c r="I22" s="6">
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Delete</v>
+      </c>
+      <c r="J22" s="6">
         <v>256000000000021</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L22" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000010, 'Delete', 'Delete');</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>97000000000010</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>VLOOKUP($B23, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B23, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroup.Transaction</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>VLOOKUP($B23, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B23, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1616,20 +1886,28 @@
         <f t="shared" si="0"/>
         <v>Read</v>
       </c>
-      <c r="I23" s="6">
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Read</v>
+      </c>
+      <c r="J23" s="6">
         <v>256000000000022</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L23" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000010, 'Read', 'Read');</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>97000000000011</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>VLOOKUP($B24, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B24, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroup.Report.DataList</v>
       </c>
       <c r="D24" s="11" t="str">
-        <f>VLOOKUP($B24, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B24, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Data List</v>
       </c>
       <c r="F24" s="15"/>
@@ -1637,20 +1915,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I24" s="6">
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J24" s="6">
         <v>256000000000023</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000011, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
         <v>97000000000012</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>VLOOKUP($B25, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B25, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroupMember.Transaction</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>VLOOKUP($B25, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B25, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Member</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1658,22 +1944,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>Data Validation</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>DataValidation</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>256000000000024</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L25" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'Data Validation', 'DataValidation');</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
         <v>97000000000012</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>VLOOKUP($B26, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B26, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroupMember.Transaction</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>VLOOKUP($B26, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B26, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Member</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1683,20 +1977,28 @@
         <f t="shared" si="0"/>
         <v>Create</v>
       </c>
-      <c r="I26" s="6">
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Create</v>
+      </c>
+      <c r="J26" s="6">
         <v>256000000000025</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'Create', 'Create');</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>97000000000012</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>VLOOKUP($B27, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B27, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroupMember.Transaction</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>VLOOKUP($B27, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B27, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Member</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1706,20 +2008,28 @@
         <f t="shared" si="0"/>
         <v>Edit</v>
       </c>
-      <c r="I27" s="6">
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Edit</v>
+      </c>
+      <c r="J27" s="6">
         <v>256000000000026</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L27" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'Edit', 'Edit');</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>97000000000012</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>VLOOKUP($B28, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B28, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroupMember.Transaction</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>VLOOKUP($B28, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B28, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Member</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1729,20 +2039,28 @@
         <f t="shared" si="0"/>
         <v>Delete</v>
       </c>
-      <c r="I28" s="6">
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Delete</v>
+      </c>
+      <c r="J28" s="6">
         <v>256000000000027</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L28" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'Delete', 'Delete');</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>97000000000012</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>VLOOKUP($B29, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B29, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroupMember.Transaction</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>VLOOKUP($B29, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B29, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Member</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1752,20 +2070,28 @@
         <f t="shared" si="0"/>
         <v>Read</v>
       </c>
-      <c r="I29" s="6">
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Read</v>
+      </c>
+      <c r="J29" s="6">
         <v>256000000000028</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L29" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'Read', 'Read');</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>97000000000013</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>VLOOKUP($B30, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B30, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleGroupMember.Report.DataList</v>
       </c>
       <c r="D30" s="11" t="str">
-        <f>VLOOKUP($B30, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B30, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Group Member Data List</v>
       </c>
       <c r="F30" s="15"/>
@@ -1773,20 +2099,28 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I30" s="6">
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J30" s="6">
         <v>256000000000029</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L30" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000013, 'Execute', 'Execute');</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>97000000000014</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>VLOOKUP($B31, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B31, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleDelegation</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>VLOOKUP($B31, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B31, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Delegation</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -1794,22 +2128,30 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>Data Validation</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>DataValidation</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <v>256000000000030</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000014, 'Data Validation', 'DataValidation');</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
         <v>97000000000014</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>VLOOKUP($B32, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B32, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleDelegation</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>VLOOKUP($B32, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B32, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Delegation</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -1819,20 +2161,28 @@
         <f t="shared" si="0"/>
         <v>Create</v>
       </c>
-      <c r="I32" s="6">
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Create</v>
+      </c>
+      <c r="J32" s="6">
         <v>256000000000031</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L32" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000014, 'Create', 'Create');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
         <v>97000000000014</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>VLOOKUP($B33, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B33, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleDelegation</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>VLOOKUP($B33, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B33, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Delegation</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -1842,20 +2192,28 @@
         <f t="shared" si="0"/>
         <v>Edit</v>
       </c>
-      <c r="I33" s="6">
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Edit</v>
+      </c>
+      <c r="J33" s="6">
         <v>256000000000032</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L33" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000014, 'Edit', 'Edit');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <v>97000000000014</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>VLOOKUP($B34, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B34, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleDelegation</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>VLOOKUP($B34, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B34, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Delegation</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1865,20 +2223,28 @@
         <f t="shared" si="0"/>
         <v>Delete</v>
       </c>
-      <c r="I34" s="6">
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Delete</v>
+      </c>
+      <c r="J34" s="6">
         <v>256000000000033</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L34" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000014, 'Delete', 'Delete');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <v>97000000000014</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>VLOOKUP($B35, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B35, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleDelegation</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>VLOOKUP($B35, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B35, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Delegation</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1888,20 +2254,28 @@
         <f t="shared" si="0"/>
         <v>Read</v>
       </c>
-      <c r="I35" s="6">
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Read</v>
+      </c>
+      <c r="J35" s="6">
         <v>256000000000034</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L35" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000014, 'Read', 'Read');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="7">
         <v>97000000000015</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>VLOOKUP($B36, [1]MainNEW!$E$2:$G$800, 2, FALSE)</f>
+        <f>VLOOKUP($B36, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
         <v>Module.Administration.UserRoleDelegation.Report.DataList</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>VLOOKUP($B36, [1]MainNEW!$E$2:$G$800, 3, FALSE)</f>
+        <f>VLOOKUP($B36, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
         <v>User Role Delegation Data List</v>
       </c>
       <c r="F36" s="4"/>
@@ -1909,11 +2283,20 @@
         <f t="shared" si="0"/>
         <v>Execute</v>
       </c>
-      <c r="I36" s="6">
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Execute</v>
+      </c>
+      <c r="J36" s="6">
         <v>256000000000035</v>
+      </c>
+      <c r="L36" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000015, 'Execute', 'Execute');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
@@ -5339,10 +5339,10 @@
   <dimension ref="B1:L567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B553" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B549" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I568" sqref="I568"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
@@ -5339,7 +5339,7 @@
   <dimension ref="B1:L567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B549" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2:L567"/>
@@ -5402,7 +5402,7 @@
         <v>256000000000001</v>
       </c>
       <c r="L2" s="16" t="str">
-        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B2, ""), "null", CONCATENATE($B2)), ", ", IF(EXACT($B2, ""),"null", CONCATENATE("'", $G2, "'")), ", ", IF(EXACT($B2, ""), "null", CONCATENATE("'", $H2, "'")), ");")</f>
+        <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B2, ""), "null", CONCATENATE($B2)), ", ", IF(EXACT($B2, ""),"null", CONCATENATE("'", $H2, "'")), ", ", IF(EXACT($B2, ""), "null", CONCATENATE("'", $G2, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000001, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
         <v>256000000000002</v>
       </c>
       <c r="L3" s="16" t="str">
-        <f t="shared" ref="L3:L67" si="2">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B3, ""), "null", CONCATENATE($B3)), ", ", IF(EXACT($B3, ""),"null", CONCATENATE("'", $G3, "'")), ", ", IF(EXACT($B3, ""), "null", CONCATENATE("'", $H3, "'")), ");")</f>
+        <f t="shared" ref="L3:L66" si="2">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B3, ""), "null", CONCATENATE($B3)), ", ", IF(EXACT($B3, ""),"null", CONCATENATE("'", $H3, "'")), ", ", IF(EXACT($B3, ""), "null", CONCATENATE("'", $G3, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000002, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000006, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000009, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000009, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="L15" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000012, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="L19" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000015, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000015, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="L23" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000018, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000018, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="L27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000021, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000021, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="L31" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000024, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000024, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="L35" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000027, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000027, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="L39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000030, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000030, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="L43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000033, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000033, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="L47" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000036, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000036, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="L51" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000039, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000039, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="L55" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000042, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000042, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="L59" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000045, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000045, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="L63" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000048, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000048, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -7477,8 +7477,8 @@
         <v>256000000000066</v>
       </c>
       <c r="L67" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000051, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" ref="L67:L130" si="10">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B67, ""), "null", CONCATENATE($B67)), ", ", IF(EXACT($B67, ""),"null", CONCATENATE("'", $H67, "'")), ", ", IF(EXACT($B67, ""), "null", CONCATENATE("'", $G67, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000051, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -7504,11 +7504,11 @@
         <v>Execute</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" ref="J68:J131" si="10">IF(ISNUMBER(J67), J67+1, 256000000000001)</f>
+        <f t="shared" ref="J68:J131" si="11">IF(ISNUMBER(J67), J67+1, 256000000000001)</f>
         <v>256000000000067</v>
       </c>
       <c r="L68" s="16" t="str">
-        <f t="shared" ref="L68:L131" si="11">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B68, ""), "null", CONCATENATE($B68)), ", ", IF(EXACT($B68, ""),"null", CONCATENATE("'", $G68, "'")), ", ", IF(EXACT($B68, ""), "null", CONCATENATE("'", $H68, "'")), ");")</f>
+        <f t="shared" si="10"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000051, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7536,11 +7536,11 @@
         <v>Execute</v>
       </c>
       <c r="J69" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000068</v>
+      </c>
+      <c r="L69" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000068</v>
-      </c>
-      <c r="L69" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000052, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7568,11 +7568,11 @@
         <v>Execute</v>
       </c>
       <c r="J70" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000069</v>
+      </c>
+      <c r="L70" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000069</v>
-      </c>
-      <c r="L70" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000053, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7601,12 +7601,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J71" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000070</v>
+      </c>
+      <c r="L71" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000070</v>
-      </c>
-      <c r="L71" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000054, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000054, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -7632,11 +7632,11 @@
         <v>Execute</v>
       </c>
       <c r="J72" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000071</v>
+      </c>
+      <c r="L72" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000071</v>
-      </c>
-      <c r="L72" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000054, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7664,11 +7664,11 @@
         <v>Execute</v>
       </c>
       <c r="J73" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000072</v>
+      </c>
+      <c r="L73" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000072</v>
-      </c>
-      <c r="L73" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000055, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7696,11 +7696,11 @@
         <v>Execute</v>
       </c>
       <c r="J74" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000073</v>
+      </c>
+      <c r="L74" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000073</v>
-      </c>
-      <c r="L74" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000056, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J75" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000074</v>
+      </c>
+      <c r="L75" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000074</v>
-      </c>
-      <c r="L75" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000057, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000057, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -7760,11 +7760,11 @@
         <v>Execute</v>
       </c>
       <c r="J76" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000075</v>
+      </c>
+      <c r="L76" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000075</v>
-      </c>
-      <c r="L76" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000057, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7792,11 +7792,11 @@
         <v>Execute</v>
       </c>
       <c r="J77" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000076</v>
+      </c>
+      <c r="L77" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000076</v>
-      </c>
-      <c r="L77" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000058, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7824,11 +7824,11 @@
         <v>Execute</v>
       </c>
       <c r="J78" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000077</v>
+      </c>
+      <c r="L78" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000077</v>
-      </c>
-      <c r="L78" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000059, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7857,12 +7857,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J79" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000078</v>
+      </c>
+      <c r="L79" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000078</v>
-      </c>
-      <c r="L79" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000060, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000060, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -7888,11 +7888,11 @@
         <v>Execute</v>
       </c>
       <c r="J80" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000079</v>
+      </c>
+      <c r="L80" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000079</v>
-      </c>
-      <c r="L80" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000060, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7920,11 +7920,11 @@
         <v>Execute</v>
       </c>
       <c r="J81" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000080</v>
+      </c>
+      <c r="L81" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000080</v>
-      </c>
-      <c r="L81" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000061, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7952,11 +7952,11 @@
         <v>Execute</v>
       </c>
       <c r="J82" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000081</v>
+      </c>
+      <c r="L82" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000081</v>
-      </c>
-      <c r="L82" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000062, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -7985,12 +7985,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J83" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000082</v>
+      </c>
+      <c r="L83" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000082</v>
-      </c>
-      <c r="L83" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000063, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000063, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -8016,11 +8016,11 @@
         <v>Execute</v>
       </c>
       <c r="J84" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000083</v>
+      </c>
+      <c r="L84" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000083</v>
-      </c>
-      <c r="L84" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000063, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8048,11 +8048,11 @@
         <v>Execute</v>
       </c>
       <c r="J85" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000084</v>
+      </c>
+      <c r="L85" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000084</v>
-      </c>
-      <c r="L85" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000064, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8080,11 +8080,11 @@
         <v>Execute</v>
       </c>
       <c r="J86" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000085</v>
+      </c>
+      <c r="L86" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000085</v>
-      </c>
-      <c r="L86" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000065, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8113,12 +8113,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J87" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000086</v>
+      </c>
+      <c r="L87" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000086</v>
-      </c>
-      <c r="L87" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000066, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000066, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -8144,11 +8144,11 @@
         <v>Execute</v>
       </c>
       <c r="J88" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000087</v>
+      </c>
+      <c r="L88" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000087</v>
-      </c>
-      <c r="L88" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000066, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8176,11 +8176,11 @@
         <v>Execute</v>
       </c>
       <c r="J89" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000088</v>
+      </c>
+      <c r="L89" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000088</v>
-      </c>
-      <c r="L89" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000067, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8208,11 +8208,11 @@
         <v>Execute</v>
       </c>
       <c r="J90" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000089</v>
+      </c>
+      <c r="L90" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000089</v>
-      </c>
-      <c r="L90" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000068, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8241,12 +8241,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J91" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000090</v>
+      </c>
+      <c r="L91" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000090</v>
-      </c>
-      <c r="L91" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000069, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000069, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
@@ -8272,11 +8272,11 @@
         <v>Execute</v>
       </c>
       <c r="J92" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000091</v>
+      </c>
+      <c r="L92" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000091</v>
-      </c>
-      <c r="L92" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000069, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8304,11 +8304,11 @@
         <v>Execute</v>
       </c>
       <c r="J93" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000092</v>
+      </c>
+      <c r="L93" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000092</v>
-      </c>
-      <c r="L93" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000070, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8336,11 +8336,11 @@
         <v>Execute</v>
       </c>
       <c r="J94" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000093</v>
+      </c>
+      <c r="L94" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000093</v>
-      </c>
-      <c r="L94" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000071, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8369,12 +8369,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J95" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000094</v>
+      </c>
+      <c r="L95" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000094</v>
-      </c>
-      <c r="L95" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000072, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000072, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
@@ -8400,11 +8400,11 @@
         <v>Execute</v>
       </c>
       <c r="J96" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000095</v>
+      </c>
+      <c r="L96" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000095</v>
-      </c>
-      <c r="L96" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000072, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8432,11 +8432,11 @@
         <v>Execute</v>
       </c>
       <c r="J97" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000096</v>
+      </c>
+      <c r="L97" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000096</v>
-      </c>
-      <c r="L97" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000073, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8464,11 +8464,11 @@
         <v>Execute</v>
       </c>
       <c r="J98" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000097</v>
+      </c>
+      <c r="L98" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000097</v>
-      </c>
-      <c r="L98" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000074, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J99" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000098</v>
+      </c>
+      <c r="L99" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000098</v>
-      </c>
-      <c r="L99" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000075, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000075, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
@@ -8528,11 +8528,11 @@
         <v>Execute</v>
       </c>
       <c r="J100" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000099</v>
+      </c>
+      <c r="L100" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000099</v>
-      </c>
-      <c r="L100" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000075, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8560,11 +8560,11 @@
         <v>Execute</v>
       </c>
       <c r="J101" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000100</v>
+      </c>
+      <c r="L101" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000100</v>
-      </c>
-      <c r="L101" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000076, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8592,11 +8592,11 @@
         <v>Execute</v>
       </c>
       <c r="J102" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000101</v>
+      </c>
+      <c r="L102" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000101</v>
-      </c>
-      <c r="L102" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000077, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J103" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000102</v>
+      </c>
+      <c r="L103" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000102</v>
-      </c>
-      <c r="L103" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000078, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000078, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
@@ -8656,11 +8656,11 @@
         <v>Execute</v>
       </c>
       <c r="J104" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000103</v>
+      </c>
+      <c r="L104" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000103</v>
-      </c>
-      <c r="L104" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000078, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8688,11 +8688,11 @@
         <v>Execute</v>
       </c>
       <c r="J105" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000104</v>
+      </c>
+      <c r="L105" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000104</v>
-      </c>
-      <c r="L105" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000079, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8720,11 +8720,11 @@
         <v>Execute</v>
       </c>
       <c r="J106" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000105</v>
+      </c>
+      <c r="L106" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000105</v>
-      </c>
-      <c r="L106" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000080, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8753,12 +8753,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J107" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000106</v>
+      </c>
+      <c r="L107" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000106</v>
-      </c>
-      <c r="L107" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000081, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000081, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
@@ -8784,11 +8784,11 @@
         <v>Execute</v>
       </c>
       <c r="J108" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000107</v>
+      </c>
+      <c r="L108" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000107</v>
-      </c>
-      <c r="L108" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000081, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8816,11 +8816,11 @@
         <v>Execute</v>
       </c>
       <c r="J109" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000108</v>
+      </c>
+      <c r="L109" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000108</v>
-      </c>
-      <c r="L109" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000082, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8848,11 +8848,11 @@
         <v>Execute</v>
       </c>
       <c r="J110" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000109</v>
+      </c>
+      <c r="L110" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000109</v>
-      </c>
-      <c r="L110" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000083, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J111" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000110</v>
+      </c>
+      <c r="L111" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000110</v>
-      </c>
-      <c r="L111" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000084, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000084, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.2">
@@ -8912,11 +8912,11 @@
         <v>Execute</v>
       </c>
       <c r="J112" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000111</v>
+      </c>
+      <c r="L112" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000111</v>
-      </c>
-      <c r="L112" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000084, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8944,11 +8944,11 @@
         <v>Execute</v>
       </c>
       <c r="J113" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000112</v>
+      </c>
+      <c r="L113" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000112</v>
-      </c>
-      <c r="L113" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000085, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -8976,11 +8976,11 @@
         <v>Execute</v>
       </c>
       <c r="J114" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000113</v>
+      </c>
+      <c r="L114" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000113</v>
-      </c>
-      <c r="L114" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000086, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9009,12 +9009,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J115" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000114</v>
+      </c>
+      <c r="L115" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000114</v>
-      </c>
-      <c r="L115" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000087, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000087, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
@@ -9040,11 +9040,11 @@
         <v>Execute</v>
       </c>
       <c r="J116" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000115</v>
+      </c>
+      <c r="L116" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000115</v>
-      </c>
-      <c r="L116" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000087, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9072,11 +9072,11 @@
         <v>Execute</v>
       </c>
       <c r="J117" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000116</v>
+      </c>
+      <c r="L117" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000116</v>
-      </c>
-      <c r="L117" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000088, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9104,11 +9104,11 @@
         <v>Execute</v>
       </c>
       <c r="J118" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000117</v>
+      </c>
+      <c r="L118" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000117</v>
-      </c>
-      <c r="L118" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000089, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9137,12 +9137,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J119" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000118</v>
+      </c>
+      <c r="L119" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000118</v>
-      </c>
-      <c r="L119" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000090, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000090, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.2">
@@ -9168,11 +9168,11 @@
         <v>Execute</v>
       </c>
       <c r="J120" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000119</v>
+      </c>
+      <c r="L120" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000119</v>
-      </c>
-      <c r="L120" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000090, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9200,11 +9200,11 @@
         <v>Execute</v>
       </c>
       <c r="J121" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000120</v>
+      </c>
+      <c r="L121" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000120</v>
-      </c>
-      <c r="L121" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000091, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9232,11 +9232,11 @@
         <v>Execute</v>
       </c>
       <c r="J122" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000121</v>
+      </c>
+      <c r="L122" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000121</v>
-      </c>
-      <c r="L122" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000092, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9265,12 +9265,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J123" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000122</v>
+      </c>
+      <c r="L123" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000122</v>
-      </c>
-      <c r="L123" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000093, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000093, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.2">
@@ -9296,11 +9296,11 @@
         <v>Execute</v>
       </c>
       <c r="J124" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000123</v>
+      </c>
+      <c r="L124" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000123</v>
-      </c>
-      <c r="L124" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000093, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9328,11 +9328,11 @@
         <v>Execute</v>
       </c>
       <c r="J125" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000124</v>
+      </c>
+      <c r="L125" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000124</v>
-      </c>
-      <c r="L125" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000094, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9360,11 +9360,11 @@
         <v>Execute</v>
       </c>
       <c r="J126" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000125</v>
+      </c>
+      <c r="L126" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000125</v>
-      </c>
-      <c r="L126" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000095, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9393,12 +9393,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J127" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000126</v>
+      </c>
+      <c r="L127" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000126</v>
-      </c>
-      <c r="L127" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000096, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000096, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.2">
@@ -9424,11 +9424,11 @@
         <v>Execute</v>
       </c>
       <c r="J128" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000127</v>
+      </c>
+      <c r="L128" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000127</v>
-      </c>
-      <c r="L128" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000096, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9456,11 +9456,11 @@
         <v>Execute</v>
       </c>
       <c r="J129" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000128</v>
+      </c>
+      <c r="L129" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000128</v>
-      </c>
-      <c r="L129" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000097, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9488,11 +9488,11 @@
         <v>Execute</v>
       </c>
       <c r="J130" s="6">
+        <f t="shared" si="11"/>
+        <v>256000000000129</v>
+      </c>
+      <c r="L130" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>256000000000129</v>
-      </c>
-      <c r="L130" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000098, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9521,12 +9521,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J131" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>256000000000130</v>
       </c>
       <c r="L131" s="16" t="str">
-        <f t="shared" si="11"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000099, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" ref="L131:L194" si="14">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B131, ""), "null", CONCATENATE($B131)), ", ", IF(EXACT($B131, ""),"null", CONCATENATE("'", $H131, "'")), ", ", IF(EXACT($B131, ""), "null", CONCATENATE("'", $G131, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000099, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -9552,11 +9552,11 @@
         <v>Execute</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" ref="J132:J195" si="14">IF(ISNUMBER(J131), J131+1, 256000000000001)</f>
+        <f t="shared" ref="J132:J195" si="15">IF(ISNUMBER(J131), J131+1, 256000000000001)</f>
         <v>256000000000131</v>
       </c>
       <c r="L132" s="16" t="str">
-        <f t="shared" ref="L132:L195" si="15">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B132, ""), "null", CONCATENATE($B132)), ", ", IF(EXACT($B132, ""),"null", CONCATENATE("'", $G132, "'")), ", ", IF(EXACT($B132, ""), "null", CONCATENATE("'", $H132, "'")), ");")</f>
+        <f t="shared" si="14"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000099, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9584,11 +9584,11 @@
         <v>Execute</v>
       </c>
       <c r="J133" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000132</v>
+      </c>
+      <c r="L133" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000132</v>
-      </c>
-      <c r="L133" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000100, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9616,11 +9616,11 @@
         <v>Execute</v>
       </c>
       <c r="J134" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000133</v>
+      </c>
+      <c r="L134" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000133</v>
-      </c>
-      <c r="L134" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000101, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9649,12 +9649,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J135" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000134</v>
+      </c>
+      <c r="L135" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000134</v>
-      </c>
-      <c r="L135" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000102, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000102, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -9680,11 +9680,11 @@
         <v>Execute</v>
       </c>
       <c r="J136" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000135</v>
+      </c>
+      <c r="L136" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000135</v>
-      </c>
-      <c r="L136" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000102, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9712,11 +9712,11 @@
         <v>Execute</v>
       </c>
       <c r="J137" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000136</v>
+      </c>
+      <c r="L137" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000136</v>
-      </c>
-      <c r="L137" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000103, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9744,11 +9744,11 @@
         <v>Execute</v>
       </c>
       <c r="J138" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000137</v>
+      </c>
+      <c r="L138" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000137</v>
-      </c>
-      <c r="L138" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000104, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9777,12 +9777,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J139" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000138</v>
+      </c>
+      <c r="L139" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000138</v>
-      </c>
-      <c r="L139" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000105, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000105, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -9808,11 +9808,11 @@
         <v>Execute</v>
       </c>
       <c r="J140" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000139</v>
+      </c>
+      <c r="L140" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000139</v>
-      </c>
-      <c r="L140" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000105, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9840,11 +9840,11 @@
         <v>Execute</v>
       </c>
       <c r="J141" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000140</v>
+      </c>
+      <c r="L141" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000140</v>
-      </c>
-      <c r="L141" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000106, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9872,11 +9872,11 @@
         <v>Execute</v>
       </c>
       <c r="J142" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000141</v>
+      </c>
+      <c r="L142" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000141</v>
-      </c>
-      <c r="L142" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000107, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9905,12 +9905,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J143" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000142</v>
+      </c>
+      <c r="L143" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000142</v>
-      </c>
-      <c r="L143" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000108, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000108, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -9936,11 +9936,11 @@
         <v>Execute</v>
       </c>
       <c r="J144" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000143</v>
+      </c>
+      <c r="L144" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000143</v>
-      </c>
-      <c r="L144" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000108, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -9968,11 +9968,11 @@
         <v>Execute</v>
       </c>
       <c r="J145" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000144</v>
+      </c>
+      <c r="L145" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000144</v>
-      </c>
-      <c r="L145" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000109, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10000,11 +10000,11 @@
         <v>Execute</v>
       </c>
       <c r="J146" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000145</v>
+      </c>
+      <c r="L146" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000145</v>
-      </c>
-      <c r="L146" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000110, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10033,12 +10033,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J147" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000146</v>
+      </c>
+      <c r="L147" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000146</v>
-      </c>
-      <c r="L147" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000111, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000111, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -10064,11 +10064,11 @@
         <v>Execute</v>
       </c>
       <c r="J148" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000147</v>
+      </c>
+      <c r="L148" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000147</v>
-      </c>
-      <c r="L148" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000111, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10096,11 +10096,11 @@
         <v>Execute</v>
       </c>
       <c r="J149" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000148</v>
+      </c>
+      <c r="L149" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000148</v>
-      </c>
-      <c r="L149" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000112, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
         <v>Execute</v>
       </c>
       <c r="J150" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000149</v>
+      </c>
+      <c r="L150" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000149</v>
-      </c>
-      <c r="L150" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000113, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10161,12 +10161,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J151" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000150</v>
+      </c>
+      <c r="L151" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000150</v>
-      </c>
-      <c r="L151" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000114, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000114, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -10192,11 +10192,11 @@
         <v>Execute</v>
       </c>
       <c r="J152" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000151</v>
+      </c>
+      <c r="L152" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000151</v>
-      </c>
-      <c r="L152" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000114, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10224,11 +10224,11 @@
         <v>Execute</v>
       </c>
       <c r="J153" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000152</v>
+      </c>
+      <c r="L153" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000152</v>
-      </c>
-      <c r="L153" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000115, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10256,11 +10256,11 @@
         <v>Execute</v>
       </c>
       <c r="J154" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000153</v>
+      </c>
+      <c r="L154" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000153</v>
-      </c>
-      <c r="L154" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000116, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10289,12 +10289,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J155" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000154</v>
+      </c>
+      <c r="L155" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000154</v>
-      </c>
-      <c r="L155" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000117, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000117, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -10320,11 +10320,11 @@
         <v>Execute</v>
       </c>
       <c r="J156" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000155</v>
+      </c>
+      <c r="L156" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000155</v>
-      </c>
-      <c r="L156" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000117, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10352,11 +10352,11 @@
         <v>Execute</v>
       </c>
       <c r="J157" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000156</v>
+      </c>
+      <c r="L157" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000156</v>
-      </c>
-      <c r="L157" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000118, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10384,11 +10384,11 @@
         <v>Execute</v>
       </c>
       <c r="J158" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000157</v>
+      </c>
+      <c r="L158" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000157</v>
-      </c>
-      <c r="L158" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000119, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J159" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000158</v>
+      </c>
+      <c r="L159" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000158</v>
-      </c>
-      <c r="L159" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000120, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000120, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -10448,11 +10448,11 @@
         <v>Execute</v>
       </c>
       <c r="J160" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000159</v>
+      </c>
+      <c r="L160" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000159</v>
-      </c>
-      <c r="L160" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000120, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10480,11 +10480,11 @@
         <v>Execute</v>
       </c>
       <c r="J161" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000160</v>
+      </c>
+      <c r="L161" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000160</v>
-      </c>
-      <c r="L161" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000121, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10512,11 +10512,11 @@
         <v>Execute</v>
       </c>
       <c r="J162" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000161</v>
+      </c>
+      <c r="L162" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000161</v>
-      </c>
-      <c r="L162" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000122, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10545,12 +10545,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J163" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000162</v>
+      </c>
+      <c r="L163" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000162</v>
-      </c>
-      <c r="L163" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000123, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000123, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -10576,11 +10576,11 @@
         <v>Execute</v>
       </c>
       <c r="J164" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000163</v>
+      </c>
+      <c r="L164" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000163</v>
-      </c>
-      <c r="L164" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000123, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10608,11 +10608,11 @@
         <v>Execute</v>
       </c>
       <c r="J165" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000164</v>
+      </c>
+      <c r="L165" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000164</v>
-      </c>
-      <c r="L165" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000124, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10640,11 +10640,11 @@
         <v>Execute</v>
       </c>
       <c r="J166" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000165</v>
+      </c>
+      <c r="L166" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000165</v>
-      </c>
-      <c r="L166" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000125, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10673,12 +10673,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J167" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000166</v>
+      </c>
+      <c r="L167" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000166</v>
-      </c>
-      <c r="L167" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000126, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000126, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -10704,11 +10704,11 @@
         <v>Execute</v>
       </c>
       <c r="J168" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000167</v>
+      </c>
+      <c r="L168" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000167</v>
-      </c>
-      <c r="L168" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000126, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10736,11 +10736,11 @@
         <v>Execute</v>
       </c>
       <c r="J169" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000168</v>
+      </c>
+      <c r="L169" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000168</v>
-      </c>
-      <c r="L169" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000127, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10768,11 +10768,11 @@
         <v>Execute</v>
       </c>
       <c r="J170" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000169</v>
+      </c>
+      <c r="L170" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000169</v>
-      </c>
-      <c r="L170" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000128, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10801,12 +10801,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J171" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000170</v>
+      </c>
+      <c r="L171" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000170</v>
-      </c>
-      <c r="L171" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000129, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000129, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.2">
@@ -10832,11 +10832,11 @@
         <v>Execute</v>
       </c>
       <c r="J172" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000171</v>
+      </c>
+      <c r="L172" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000171</v>
-      </c>
-      <c r="L172" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000129, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10864,11 +10864,11 @@
         <v>Execute</v>
       </c>
       <c r="J173" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000172</v>
+      </c>
+      <c r="L173" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000172</v>
-      </c>
-      <c r="L173" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000130, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10896,11 +10896,11 @@
         <v>Execute</v>
       </c>
       <c r="J174" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000173</v>
+      </c>
+      <c r="L174" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000173</v>
-      </c>
-      <c r="L174" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000131, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10929,12 +10929,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J175" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000174</v>
+      </c>
+      <c r="L175" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000174</v>
-      </c>
-      <c r="L175" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000132, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000132, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.2">
@@ -10960,11 +10960,11 @@
         <v>Execute</v>
       </c>
       <c r="J176" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000175</v>
+      </c>
+      <c r="L176" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000175</v>
-      </c>
-      <c r="L176" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000132, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -10992,11 +10992,11 @@
         <v>Execute</v>
       </c>
       <c r="J177" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000176</v>
+      </c>
+      <c r="L177" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000176</v>
-      </c>
-      <c r="L177" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000133, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11024,11 +11024,11 @@
         <v>Execute</v>
       </c>
       <c r="J178" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000177</v>
+      </c>
+      <c r="L178" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000177</v>
-      </c>
-      <c r="L178" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000134, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11057,12 +11057,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J179" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000178</v>
+      </c>
+      <c r="L179" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000178</v>
-      </c>
-      <c r="L179" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000135, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000135, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.2">
@@ -11088,11 +11088,11 @@
         <v>Execute</v>
       </c>
       <c r="J180" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000179</v>
+      </c>
+      <c r="L180" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000179</v>
-      </c>
-      <c r="L180" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000135, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11120,11 +11120,11 @@
         <v>Execute</v>
       </c>
       <c r="J181" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000180</v>
+      </c>
+      <c r="L181" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000180</v>
-      </c>
-      <c r="L181" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000136, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11152,11 +11152,11 @@
         <v>Execute</v>
       </c>
       <c r="J182" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000181</v>
+      </c>
+      <c r="L182" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000181</v>
-      </c>
-      <c r="L182" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000137, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11185,12 +11185,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J183" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000182</v>
+      </c>
+      <c r="L183" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000182</v>
-      </c>
-      <c r="L183" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000138, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000138, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.2">
@@ -11216,11 +11216,11 @@
         <v>Execute</v>
       </c>
       <c r="J184" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000183</v>
+      </c>
+      <c r="L184" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000183</v>
-      </c>
-      <c r="L184" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000138, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11248,11 +11248,11 @@
         <v>Execute</v>
       </c>
       <c r="J185" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000184</v>
+      </c>
+      <c r="L185" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000184</v>
-      </c>
-      <c r="L185" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000139, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11280,11 +11280,11 @@
         <v>Execute</v>
       </c>
       <c r="J186" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000185</v>
+      </c>
+      <c r="L186" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000185</v>
-      </c>
-      <c r="L186" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000140, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11313,12 +11313,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J187" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000186</v>
+      </c>
+      <c r="L187" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000186</v>
-      </c>
-      <c r="L187" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000141, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000141, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.2">
@@ -11344,11 +11344,11 @@
         <v>Execute</v>
       </c>
       <c r="J188" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000187</v>
+      </c>
+      <c r="L188" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000187</v>
-      </c>
-      <c r="L188" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000141, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11376,11 +11376,11 @@
         <v>Execute</v>
       </c>
       <c r="J189" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000188</v>
+      </c>
+      <c r="L189" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000188</v>
-      </c>
-      <c r="L189" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000142, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11408,11 +11408,11 @@
         <v>Execute</v>
       </c>
       <c r="J190" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000189</v>
+      </c>
+      <c r="L190" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000189</v>
-      </c>
-      <c r="L190" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000143, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11441,12 +11441,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J191" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000190</v>
+      </c>
+      <c r="L191" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000190</v>
-      </c>
-      <c r="L191" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000144, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000144, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.2">
@@ -11472,11 +11472,11 @@
         <v>Execute</v>
       </c>
       <c r="J192" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000191</v>
+      </c>
+      <c r="L192" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000191</v>
-      </c>
-      <c r="L192" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000144, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11504,11 +11504,11 @@
         <v>Execute</v>
       </c>
       <c r="J193" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000192</v>
+      </c>
+      <c r="L193" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000192</v>
-      </c>
-      <c r="L193" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000145, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11536,11 +11536,11 @@
         <v>Execute</v>
       </c>
       <c r="J194" s="6">
+        <f t="shared" si="15"/>
+        <v>256000000000193</v>
+      </c>
+      <c r="L194" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>256000000000193</v>
-      </c>
-      <c r="L194" s="16" t="str">
-        <f t="shared" si="15"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000146, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11569,12 +11569,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J195" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>256000000000194</v>
       </c>
       <c r="L195" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000147, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" ref="L195:L258" si="18">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B195, ""), "null", CONCATENATE($B195)), ", ", IF(EXACT($B195, ""),"null", CONCATENATE("'", $H195, "'")), ", ", IF(EXACT($B195, ""), "null", CONCATENATE("'", $G195, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000147, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.2">
@@ -11600,11 +11600,11 @@
         <v>Execute</v>
       </c>
       <c r="J196" s="6">
-        <f t="shared" ref="J196:J259" si="18">IF(ISNUMBER(J195), J195+1, 256000000000001)</f>
+        <f t="shared" ref="J196:J259" si="19">IF(ISNUMBER(J195), J195+1, 256000000000001)</f>
         <v>256000000000195</v>
       </c>
       <c r="L196" s="16" t="str">
-        <f t="shared" ref="L196:L259" si="19">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B196, ""), "null", CONCATENATE($B196)), ", ", IF(EXACT($B196, ""),"null", CONCATENATE("'", $G196, "'")), ", ", IF(EXACT($B196, ""), "null", CONCATENATE("'", $H196, "'")), ");")</f>
+        <f t="shared" si="18"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000147, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11632,11 +11632,11 @@
         <v>Execute</v>
       </c>
       <c r="J197" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000196</v>
+      </c>
+      <c r="L197" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000196</v>
-      </c>
-      <c r="L197" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000148, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11664,11 +11664,11 @@
         <v>Execute</v>
       </c>
       <c r="J198" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000197</v>
+      </c>
+      <c r="L198" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000197</v>
-      </c>
-      <c r="L198" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000149, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J199" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000198</v>
+      </c>
+      <c r="L199" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000198</v>
-      </c>
-      <c r="L199" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000150, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000150, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.2">
@@ -11728,11 +11728,11 @@
         <v>Execute</v>
       </c>
       <c r="J200" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000199</v>
+      </c>
+      <c r="L200" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000199</v>
-      </c>
-      <c r="L200" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000150, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11760,11 +11760,11 @@
         <v>Execute</v>
       </c>
       <c r="J201" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000200</v>
+      </c>
+      <c r="L201" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000200</v>
-      </c>
-      <c r="L201" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000151, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11792,11 +11792,11 @@
         <v>Execute</v>
       </c>
       <c r="J202" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000201</v>
+      </c>
+      <c r="L202" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000201</v>
-      </c>
-      <c r="L202" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000152, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11825,12 +11825,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J203" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000202</v>
+      </c>
+      <c r="L203" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000202</v>
-      </c>
-      <c r="L203" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000153, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000153, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.2">
@@ -11856,11 +11856,11 @@
         <v>Execute</v>
       </c>
       <c r="J204" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000203</v>
+      </c>
+      <c r="L204" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000203</v>
-      </c>
-      <c r="L204" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000153, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11888,11 +11888,11 @@
         <v>Execute</v>
       </c>
       <c r="J205" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000204</v>
+      </c>
+      <c r="L205" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000204</v>
-      </c>
-      <c r="L205" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000154, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11920,11 +11920,11 @@
         <v>Execute</v>
       </c>
       <c r="J206" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000205</v>
+      </c>
+      <c r="L206" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000205</v>
-      </c>
-      <c r="L206" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000155, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -11953,12 +11953,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J207" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000206</v>
+      </c>
+      <c r="L207" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000206</v>
-      </c>
-      <c r="L207" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000156, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000156, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="208" spans="2:12" x14ac:dyDescent="0.2">
@@ -11984,11 +11984,11 @@
         <v>Execute</v>
       </c>
       <c r="J208" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000207</v>
+      </c>
+      <c r="L208" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000207</v>
-      </c>
-      <c r="L208" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000156, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12016,11 +12016,11 @@
         <v>Execute</v>
       </c>
       <c r="J209" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000208</v>
+      </c>
+      <c r="L209" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000208</v>
-      </c>
-      <c r="L209" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000157, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12048,11 +12048,11 @@
         <v>Execute</v>
       </c>
       <c r="J210" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000209</v>
+      </c>
+      <c r="L210" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000209</v>
-      </c>
-      <c r="L210" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000158, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12081,12 +12081,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J211" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000210</v>
+      </c>
+      <c r="L211" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000210</v>
-      </c>
-      <c r="L211" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000159, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000159, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.2">
@@ -12112,11 +12112,11 @@
         <v>Execute</v>
       </c>
       <c r="J212" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000211</v>
+      </c>
+      <c r="L212" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000211</v>
-      </c>
-      <c r="L212" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000159, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12144,11 +12144,11 @@
         <v>Execute</v>
       </c>
       <c r="J213" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000212</v>
+      </c>
+      <c r="L213" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000212</v>
-      </c>
-      <c r="L213" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000160, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12176,11 +12176,11 @@
         <v>Execute</v>
       </c>
       <c r="J214" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000213</v>
+      </c>
+      <c r="L214" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000213</v>
-      </c>
-      <c r="L214" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000161, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12209,12 +12209,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J215" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000214</v>
+      </c>
+      <c r="L215" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000214</v>
-      </c>
-      <c r="L215" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000162, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000162, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.2">
@@ -12240,11 +12240,11 @@
         <v>Execute</v>
       </c>
       <c r="J216" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000215</v>
+      </c>
+      <c r="L216" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000215</v>
-      </c>
-      <c r="L216" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000162, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12272,11 +12272,11 @@
         <v>Execute</v>
       </c>
       <c r="J217" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000216</v>
+      </c>
+      <c r="L217" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000216</v>
-      </c>
-      <c r="L217" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000163, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12304,11 +12304,11 @@
         <v>Execute</v>
       </c>
       <c r="J218" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000217</v>
+      </c>
+      <c r="L218" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000217</v>
-      </c>
-      <c r="L218" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000164, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12337,12 +12337,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J219" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000218</v>
+      </c>
+      <c r="L219" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000218</v>
-      </c>
-      <c r="L219" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000165, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000165, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.2">
@@ -12368,11 +12368,11 @@
         <v>Execute</v>
       </c>
       <c r="J220" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000219</v>
+      </c>
+      <c r="L220" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000219</v>
-      </c>
-      <c r="L220" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000165, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12400,11 +12400,11 @@
         <v>Execute</v>
       </c>
       <c r="J221" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000220</v>
+      </c>
+      <c r="L221" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000220</v>
-      </c>
-      <c r="L221" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000166, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12432,11 +12432,11 @@
         <v>Execute</v>
       </c>
       <c r="J222" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000221</v>
+      </c>
+      <c r="L222" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000221</v>
-      </c>
-      <c r="L222" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000167, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12465,12 +12465,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J223" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000222</v>
+      </c>
+      <c r="L223" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000222</v>
-      </c>
-      <c r="L223" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000168, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000168, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.2">
@@ -12496,11 +12496,11 @@
         <v>Execute</v>
       </c>
       <c r="J224" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000223</v>
+      </c>
+      <c r="L224" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000223</v>
-      </c>
-      <c r="L224" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000168, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12528,11 +12528,11 @@
         <v>Execute</v>
       </c>
       <c r="J225" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000224</v>
+      </c>
+      <c r="L225" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000224</v>
-      </c>
-      <c r="L225" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000169, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12560,11 +12560,11 @@
         <v>Execute</v>
       </c>
       <c r="J226" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000225</v>
+      </c>
+      <c r="L226" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000225</v>
-      </c>
-      <c r="L226" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000170, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12593,12 +12593,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J227" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000226</v>
+      </c>
+      <c r="L227" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000226</v>
-      </c>
-      <c r="L227" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000171, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000171, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.2">
@@ -12624,11 +12624,11 @@
         <v>Execute</v>
       </c>
       <c r="J228" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000227</v>
+      </c>
+      <c r="L228" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000227</v>
-      </c>
-      <c r="L228" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000171, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12656,11 +12656,11 @@
         <v>Execute</v>
       </c>
       <c r="J229" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000228</v>
+      </c>
+      <c r="L229" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000228</v>
-      </c>
-      <c r="L229" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000172, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12688,11 +12688,11 @@
         <v>Execute</v>
       </c>
       <c r="J230" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000229</v>
+      </c>
+      <c r="L230" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000229</v>
-      </c>
-      <c r="L230" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000173, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12721,12 +12721,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J231" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000230</v>
+      </c>
+      <c r="L231" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000230</v>
-      </c>
-      <c r="L231" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000174, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000174, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.2">
@@ -12752,11 +12752,11 @@
         <v>Execute</v>
       </c>
       <c r="J232" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000231</v>
+      </c>
+      <c r="L232" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000231</v>
-      </c>
-      <c r="L232" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000174, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12784,11 +12784,11 @@
         <v>Execute</v>
       </c>
       <c r="J233" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000232</v>
+      </c>
+      <c r="L233" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000232</v>
-      </c>
-      <c r="L233" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000175, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12816,11 +12816,11 @@
         <v>Execute</v>
       </c>
       <c r="J234" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000233</v>
+      </c>
+      <c r="L234" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000233</v>
-      </c>
-      <c r="L234" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000176, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12849,12 +12849,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J235" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000234</v>
+      </c>
+      <c r="L235" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000234</v>
-      </c>
-      <c r="L235" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000177, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000177, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.2">
@@ -12880,11 +12880,11 @@
         <v>Execute</v>
       </c>
       <c r="J236" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000235</v>
+      </c>
+      <c r="L236" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000235</v>
-      </c>
-      <c r="L236" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000177, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12912,11 +12912,11 @@
         <v>Execute</v>
       </c>
       <c r="J237" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000236</v>
+      </c>
+      <c r="L237" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000236</v>
-      </c>
-      <c r="L237" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000178, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12944,11 +12944,11 @@
         <v>Execute</v>
       </c>
       <c r="J238" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000237</v>
+      </c>
+      <c r="L238" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000237</v>
-      </c>
-      <c r="L238" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000179, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -12977,12 +12977,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J239" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000238</v>
+      </c>
+      <c r="L239" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000238</v>
-      </c>
-      <c r="L239" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000180, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000180, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.2">
@@ -13008,11 +13008,11 @@
         <v>Execute</v>
       </c>
       <c r="J240" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000239</v>
+      </c>
+      <c r="L240" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000239</v>
-      </c>
-      <c r="L240" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000180, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13040,11 +13040,11 @@
         <v>Execute</v>
       </c>
       <c r="J241" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000240</v>
+      </c>
+      <c r="L241" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000240</v>
-      </c>
-      <c r="L241" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000181, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13072,11 +13072,11 @@
         <v>Execute</v>
       </c>
       <c r="J242" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000241</v>
+      </c>
+      <c r="L242" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000241</v>
-      </c>
-      <c r="L242" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000182, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13105,12 +13105,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J243" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000242</v>
+      </c>
+      <c r="L243" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000242</v>
-      </c>
-      <c r="L243" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000183, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000183, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="244" spans="2:12" x14ac:dyDescent="0.2">
@@ -13136,11 +13136,11 @@
         <v>Execute</v>
       </c>
       <c r="J244" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000243</v>
+      </c>
+      <c r="L244" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000243</v>
-      </c>
-      <c r="L244" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000183, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13168,11 +13168,11 @@
         <v>Execute</v>
       </c>
       <c r="J245" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000244</v>
+      </c>
+      <c r="L245" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000244</v>
-      </c>
-      <c r="L245" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000184, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13200,11 +13200,11 @@
         <v>Execute</v>
       </c>
       <c r="J246" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000245</v>
+      </c>
+      <c r="L246" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000245</v>
-      </c>
-      <c r="L246" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000185, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13233,12 +13233,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J247" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000246</v>
+      </c>
+      <c r="L247" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000246</v>
-      </c>
-      <c r="L247" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000186, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000186, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="248" spans="2:12" x14ac:dyDescent="0.2">
@@ -13264,11 +13264,11 @@
         <v>Execute</v>
       </c>
       <c r="J248" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000247</v>
+      </c>
+      <c r="L248" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000247</v>
-      </c>
-      <c r="L248" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000186, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13296,11 +13296,11 @@
         <v>Execute</v>
       </c>
       <c r="J249" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000248</v>
+      </c>
+      <c r="L249" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000248</v>
-      </c>
-      <c r="L249" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000187, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13328,11 +13328,11 @@
         <v>Execute</v>
       </c>
       <c r="J250" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000249</v>
+      </c>
+      <c r="L250" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000249</v>
-      </c>
-      <c r="L250" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000188, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13361,12 +13361,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J251" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000250</v>
+      </c>
+      <c r="L251" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000250</v>
-      </c>
-      <c r="L251" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000189, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000189, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.2">
@@ -13392,11 +13392,11 @@
         <v>Execute</v>
       </c>
       <c r="J252" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000251</v>
+      </c>
+      <c r="L252" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000251</v>
-      </c>
-      <c r="L252" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000189, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13424,11 +13424,11 @@
         <v>Execute</v>
       </c>
       <c r="J253" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000252</v>
+      </c>
+      <c r="L253" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000252</v>
-      </c>
-      <c r="L253" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000190, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13456,11 +13456,11 @@
         <v>Execute</v>
       </c>
       <c r="J254" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000253</v>
+      </c>
+      <c r="L254" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000253</v>
-      </c>
-      <c r="L254" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000191, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13489,12 +13489,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J255" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000254</v>
+      </c>
+      <c r="L255" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000254</v>
-      </c>
-      <c r="L255" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000192, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000192, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="256" spans="2:12" x14ac:dyDescent="0.2">
@@ -13520,11 +13520,11 @@
         <v>Execute</v>
       </c>
       <c r="J256" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000255</v>
+      </c>
+      <c r="L256" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000255</v>
-      </c>
-      <c r="L256" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000192, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13552,11 +13552,11 @@
         <v>Execute</v>
       </c>
       <c r="J257" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000256</v>
+      </c>
+      <c r="L257" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000256</v>
-      </c>
-      <c r="L257" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000193, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13584,11 +13584,11 @@
         <v>Execute</v>
       </c>
       <c r="J258" s="6">
+        <f t="shared" si="19"/>
+        <v>256000000000257</v>
+      </c>
+      <c r="L258" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>256000000000257</v>
-      </c>
-      <c r="L258" s="16" t="str">
-        <f t="shared" si="19"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000194, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13617,12 +13617,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J259" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>256000000000258</v>
       </c>
       <c r="L259" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000195, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" ref="L259:L322" si="22">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B259, ""), "null", CONCATENATE($B259)), ", ", IF(EXACT($B259, ""),"null", CONCATENATE("'", $H259, "'")), ", ", IF(EXACT($B259, ""), "null", CONCATENATE("'", $G259, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000195, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="260" spans="2:12" x14ac:dyDescent="0.2">
@@ -13648,11 +13648,11 @@
         <v>Execute</v>
       </c>
       <c r="J260" s="6">
-        <f t="shared" ref="J260:J323" si="22">IF(ISNUMBER(J259), J259+1, 256000000000001)</f>
+        <f t="shared" ref="J260:J323" si="23">IF(ISNUMBER(J259), J259+1, 256000000000001)</f>
         <v>256000000000259</v>
       </c>
       <c r="L260" s="16" t="str">
-        <f t="shared" ref="L260:L323" si="23">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B260, ""), "null", CONCATENATE($B260)), ", ", IF(EXACT($B260, ""),"null", CONCATENATE("'", $G260, "'")), ", ", IF(EXACT($B260, ""), "null", CONCATENATE("'", $H260, "'")), ");")</f>
+        <f t="shared" si="22"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000195, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13680,11 +13680,11 @@
         <v>Execute</v>
       </c>
       <c r="J261" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000260</v>
+      </c>
+      <c r="L261" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000260</v>
-      </c>
-      <c r="L261" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000196, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13712,11 +13712,11 @@
         <v>Execute</v>
       </c>
       <c r="J262" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000261</v>
+      </c>
+      <c r="L262" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000261</v>
-      </c>
-      <c r="L262" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000197, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13745,12 +13745,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J263" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000262</v>
+      </c>
+      <c r="L263" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000262</v>
-      </c>
-      <c r="L263" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000198, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000198, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.2">
@@ -13776,11 +13776,11 @@
         <v>Execute</v>
       </c>
       <c r="J264" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000263</v>
+      </c>
+      <c r="L264" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000263</v>
-      </c>
-      <c r="L264" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000198, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13808,11 +13808,11 @@
         <v>Execute</v>
       </c>
       <c r="J265" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000264</v>
+      </c>
+      <c r="L265" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000264</v>
-      </c>
-      <c r="L265" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000199, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13840,11 +13840,11 @@
         <v>Execute</v>
       </c>
       <c r="J266" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000265</v>
+      </c>
+      <c r="L266" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000265</v>
-      </c>
-      <c r="L266" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000200, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13873,12 +13873,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J267" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000266</v>
+      </c>
+      <c r="L267" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000266</v>
-      </c>
-      <c r="L267" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000201, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000201, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.2">
@@ -13904,11 +13904,11 @@
         <v>Execute</v>
       </c>
       <c r="J268" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000267</v>
+      </c>
+      <c r="L268" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000267</v>
-      </c>
-      <c r="L268" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000201, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13936,11 +13936,11 @@
         <v>Execute</v>
       </c>
       <c r="J269" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000268</v>
+      </c>
+      <c r="L269" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000268</v>
-      </c>
-      <c r="L269" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000202, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -13968,11 +13968,11 @@
         <v>Execute</v>
       </c>
       <c r="J270" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000269</v>
+      </c>
+      <c r="L270" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000269</v>
-      </c>
-      <c r="L270" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000203, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14001,12 +14001,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J271" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000270</v>
+      </c>
+      <c r="L271" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000270</v>
-      </c>
-      <c r="L271" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000204, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000204, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.2">
@@ -14032,11 +14032,11 @@
         <v>Execute</v>
       </c>
       <c r="J272" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000271</v>
+      </c>
+      <c r="L272" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000271</v>
-      </c>
-      <c r="L272" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000204, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14064,11 +14064,11 @@
         <v>Execute</v>
       </c>
       <c r="J273" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000272</v>
+      </c>
+      <c r="L273" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000272</v>
-      </c>
-      <c r="L273" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000205, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14096,11 +14096,11 @@
         <v>Execute</v>
       </c>
       <c r="J274" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000273</v>
+      </c>
+      <c r="L274" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000273</v>
-      </c>
-      <c r="L274" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000206, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14129,12 +14129,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J275" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000274</v>
+      </c>
+      <c r="L275" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000274</v>
-      </c>
-      <c r="L275" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000207, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000207, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.2">
@@ -14160,11 +14160,11 @@
         <v>Execute</v>
       </c>
       <c r="J276" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000275</v>
+      </c>
+      <c r="L276" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000275</v>
-      </c>
-      <c r="L276" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000207, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14192,11 +14192,11 @@
         <v>Execute</v>
       </c>
       <c r="J277" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000276</v>
+      </c>
+      <c r="L277" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000276</v>
-      </c>
-      <c r="L277" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000208, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14224,11 +14224,11 @@
         <v>Execute</v>
       </c>
       <c r="J278" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000277</v>
+      </c>
+      <c r="L278" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000277</v>
-      </c>
-      <c r="L278" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000209, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14257,12 +14257,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J279" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000278</v>
+      </c>
+      <c r="L279" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000278</v>
-      </c>
-      <c r="L279" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000210, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000210, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="280" spans="2:12" x14ac:dyDescent="0.2">
@@ -14288,11 +14288,11 @@
         <v>Execute</v>
       </c>
       <c r="J280" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000279</v>
+      </c>
+      <c r="L280" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000279</v>
-      </c>
-      <c r="L280" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000210, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14320,11 +14320,11 @@
         <v>Execute</v>
       </c>
       <c r="J281" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000280</v>
+      </c>
+      <c r="L281" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000280</v>
-      </c>
-      <c r="L281" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000211, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14352,11 +14352,11 @@
         <v>Execute</v>
       </c>
       <c r="J282" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000281</v>
+      </c>
+      <c r="L282" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000281</v>
-      </c>
-      <c r="L282" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000212, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14385,12 +14385,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J283" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000282</v>
+      </c>
+      <c r="L283" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000282</v>
-      </c>
-      <c r="L283" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000213, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000213, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="284" spans="2:12" x14ac:dyDescent="0.2">
@@ -14416,11 +14416,11 @@
         <v>Execute</v>
       </c>
       <c r="J284" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000283</v>
+      </c>
+      <c r="L284" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000283</v>
-      </c>
-      <c r="L284" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000213, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14448,11 +14448,11 @@
         <v>Execute</v>
       </c>
       <c r="J285" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000284</v>
+      </c>
+      <c r="L285" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000284</v>
-      </c>
-      <c r="L285" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000214, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14480,11 +14480,11 @@
         <v>Execute</v>
       </c>
       <c r="J286" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000285</v>
+      </c>
+      <c r="L286" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000285</v>
-      </c>
-      <c r="L286" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000215, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14512,11 +14512,11 @@
         <v>Execute</v>
       </c>
       <c r="J287" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000286</v>
+      </c>
+      <c r="L287" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000286</v>
-      </c>
-      <c r="L287" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000216, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14545,12 +14545,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J288" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000287</v>
+      </c>
+      <c r="L288" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000287</v>
-      </c>
-      <c r="L288" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000217, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000217, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="289" spans="2:12" x14ac:dyDescent="0.2">
@@ -14576,11 +14576,11 @@
         <v>Execute</v>
       </c>
       <c r="J289" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000288</v>
+      </c>
+      <c r="L289" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000288</v>
-      </c>
-      <c r="L289" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000217, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14608,11 +14608,11 @@
         <v>Execute</v>
       </c>
       <c r="J290" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000289</v>
+      </c>
+      <c r="L290" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000289</v>
-      </c>
-      <c r="L290" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000218, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14640,11 +14640,11 @@
         <v>Execute</v>
       </c>
       <c r="J291" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000290</v>
+      </c>
+      <c r="L291" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000290</v>
-      </c>
-      <c r="L291" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000219, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14672,11 +14672,11 @@
         <v>Execute</v>
       </c>
       <c r="J292" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000291</v>
+      </c>
+      <c r="L292" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000291</v>
-      </c>
-      <c r="L292" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000220, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14705,12 +14705,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J293" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000292</v>
+      </c>
+      <c r="L293" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000292</v>
-      </c>
-      <c r="L293" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000221, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000221, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.2">
@@ -14736,11 +14736,11 @@
         <v>Execute</v>
       </c>
       <c r="J294" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000293</v>
+      </c>
+      <c r="L294" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000293</v>
-      </c>
-      <c r="L294" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000221, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14768,11 +14768,11 @@
         <v>Execute</v>
       </c>
       <c r="J295" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000294</v>
+      </c>
+      <c r="L295" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000294</v>
-      </c>
-      <c r="L295" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000222, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14800,11 +14800,11 @@
         <v>Execute</v>
       </c>
       <c r="J296" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000295</v>
+      </c>
+      <c r="L296" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000295</v>
-      </c>
-      <c r="L296" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000223, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14832,11 +14832,11 @@
         <v>Execute</v>
       </c>
       <c r="J297" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000296</v>
+      </c>
+      <c r="L297" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000296</v>
-      </c>
-      <c r="L297" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000224, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14865,12 +14865,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J298" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000297</v>
+      </c>
+      <c r="L298" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000297</v>
-      </c>
-      <c r="L298" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000225, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000225, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.2">
@@ -14896,11 +14896,11 @@
         <v>Execute</v>
       </c>
       <c r="J299" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000298</v>
+      </c>
+      <c r="L299" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000298</v>
-      </c>
-      <c r="L299" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000225, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14928,11 +14928,11 @@
         <v>Execute</v>
       </c>
       <c r="J300" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000299</v>
+      </c>
+      <c r="L300" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000299</v>
-      </c>
-      <c r="L300" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000226, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14960,11 +14960,11 @@
         <v>Execute</v>
       </c>
       <c r="J301" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000300</v>
+      </c>
+      <c r="L301" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000300</v>
-      </c>
-      <c r="L301" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000227, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -14992,11 +14992,11 @@
         <v>Execute</v>
       </c>
       <c r="J302" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000301</v>
+      </c>
+      <c r="L302" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000301</v>
-      </c>
-      <c r="L302" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000228, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15025,12 +15025,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J303" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000302</v>
+      </c>
+      <c r="L303" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000302</v>
-      </c>
-      <c r="L303" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000229, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000229, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.2">
@@ -15056,11 +15056,11 @@
         <v>Execute</v>
       </c>
       <c r="J304" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000303</v>
+      </c>
+      <c r="L304" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000303</v>
-      </c>
-      <c r="L304" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000229, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15088,11 +15088,11 @@
         <v>Execute</v>
       </c>
       <c r="J305" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000304</v>
+      </c>
+      <c r="L305" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000304</v>
-      </c>
-      <c r="L305" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000230, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15120,11 +15120,11 @@
         <v>Execute</v>
       </c>
       <c r="J306" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000305</v>
+      </c>
+      <c r="L306" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000305</v>
-      </c>
-      <c r="L306" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000231, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15152,11 +15152,11 @@
         <v>Execute</v>
       </c>
       <c r="J307" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000306</v>
+      </c>
+      <c r="L307" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000306</v>
-      </c>
-      <c r="L307" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000232, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15185,12 +15185,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J308" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000307</v>
+      </c>
+      <c r="L308" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000307</v>
-      </c>
-      <c r="L308" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000233, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000233, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.2">
@@ -15216,11 +15216,11 @@
         <v>Execute</v>
       </c>
       <c r="J309" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000308</v>
+      </c>
+      <c r="L309" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000308</v>
-      </c>
-      <c r="L309" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000233, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15248,11 +15248,11 @@
         <v>Execute</v>
       </c>
       <c r="J310" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000309</v>
+      </c>
+      <c r="L310" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000309</v>
-      </c>
-      <c r="L310" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000234, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15280,11 +15280,11 @@
         <v>Execute</v>
       </c>
       <c r="J311" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000310</v>
+      </c>
+      <c r="L311" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000310</v>
-      </c>
-      <c r="L311" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000235, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15312,11 +15312,11 @@
         <v>Execute</v>
       </c>
       <c r="J312" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000311</v>
+      </c>
+      <c r="L312" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000311</v>
-      </c>
-      <c r="L312" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000236, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15345,12 +15345,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J313" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000312</v>
+      </c>
+      <c r="L313" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000312</v>
-      </c>
-      <c r="L313" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000237, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000237, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="314" spans="2:12" x14ac:dyDescent="0.2">
@@ -15376,11 +15376,11 @@
         <v>Execute</v>
       </c>
       <c r="J314" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000313</v>
+      </c>
+      <c r="L314" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000313</v>
-      </c>
-      <c r="L314" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000237, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15408,11 +15408,11 @@
         <v>Execute</v>
       </c>
       <c r="J315" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000314</v>
+      </c>
+      <c r="L315" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000314</v>
-      </c>
-      <c r="L315" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000238, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15440,11 +15440,11 @@
         <v>Execute</v>
       </c>
       <c r="J316" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000315</v>
+      </c>
+      <c r="L316" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000315</v>
-      </c>
-      <c r="L316" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000239, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15473,12 +15473,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J317" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000316</v>
+      </c>
+      <c r="L317" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000316</v>
-      </c>
-      <c r="L317" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000240, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000240, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.2">
@@ -15504,11 +15504,11 @@
         <v>Execute</v>
       </c>
       <c r="J318" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000317</v>
+      </c>
+      <c r="L318" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000317</v>
-      </c>
-      <c r="L318" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000240, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15536,11 +15536,11 @@
         <v>Execute</v>
       </c>
       <c r="J319" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000318</v>
+      </c>
+      <c r="L319" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000318</v>
-      </c>
-      <c r="L319" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000241, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15568,11 +15568,11 @@
         <v>Execute</v>
       </c>
       <c r="J320" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000319</v>
+      </c>
+      <c r="L320" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000319</v>
-      </c>
-      <c r="L320" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000242, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15600,11 +15600,11 @@
         <v>Execute</v>
       </c>
       <c r="J321" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000320</v>
+      </c>
+      <c r="L321" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000320</v>
-      </c>
-      <c r="L321" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000243, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15633,12 +15633,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J322" s="6">
+        <f t="shared" si="23"/>
+        <v>256000000000321</v>
+      </c>
+      <c r="L322" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>256000000000321</v>
-      </c>
-      <c r="L322" s="16" t="str">
-        <f t="shared" si="23"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000244, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000244, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="323" spans="2:12" x14ac:dyDescent="0.2">
@@ -15664,11 +15664,11 @@
         <v>Execute</v>
       </c>
       <c r="J323" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>256000000000322</v>
       </c>
       <c r="L323" s="16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="L323:L386" si="34">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B323, ""), "null", CONCATENATE($B323)), ", ", IF(EXACT($B323, ""),"null", CONCATENATE("'", $H323, "'")), ", ", IF(EXACT($B323, ""), "null", CONCATENATE("'", $G323, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000244, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15696,11 +15696,11 @@
         <v>Execute</v>
       </c>
       <c r="J324" s="6">
-        <f t="shared" ref="J324:J387" si="34">IF(ISNUMBER(J323), J323+1, 256000000000001)</f>
+        <f t="shared" ref="J324:J387" si="35">IF(ISNUMBER(J323), J323+1, 256000000000001)</f>
         <v>256000000000323</v>
       </c>
       <c r="L324" s="16" t="str">
-        <f t="shared" ref="L324:L387" si="35">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B324, ""), "null", CONCATENATE($B324)), ", ", IF(EXACT($B324, ""),"null", CONCATENATE("'", $G324, "'")), ", ", IF(EXACT($B324, ""), "null", CONCATENATE("'", $H324, "'")), ");")</f>
+        <f t="shared" si="34"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000245, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15728,11 +15728,11 @@
         <v>Execute</v>
       </c>
       <c r="J325" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000324</v>
+      </c>
+      <c r="L325" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000324</v>
-      </c>
-      <c r="L325" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000246, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15760,11 +15760,11 @@
         <v>Execute</v>
       </c>
       <c r="J326" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000325</v>
+      </c>
+      <c r="L326" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000325</v>
-      </c>
-      <c r="L326" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000247, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15793,12 +15793,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J327" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000326</v>
+      </c>
+      <c r="L327" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000326</v>
-      </c>
-      <c r="L327" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000248, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000248, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="328" spans="2:12" x14ac:dyDescent="0.2">
@@ -15824,11 +15824,11 @@
         <v>Execute</v>
       </c>
       <c r="J328" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000327</v>
+      </c>
+      <c r="L328" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000327</v>
-      </c>
-      <c r="L328" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000248, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15856,11 +15856,11 @@
         <v>Execute</v>
       </c>
       <c r="J329" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000328</v>
+      </c>
+      <c r="L329" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000328</v>
-      </c>
-      <c r="L329" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000249, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15888,11 +15888,11 @@
         <v>Execute</v>
       </c>
       <c r="J330" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000329</v>
+      </c>
+      <c r="L330" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000329</v>
-      </c>
-      <c r="L330" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000250, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15920,11 +15920,11 @@
         <v>Execute</v>
       </c>
       <c r="J331" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000330</v>
+      </c>
+      <c r="L331" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000330</v>
-      </c>
-      <c r="L331" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000251, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -15953,12 +15953,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J332" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000331</v>
+      </c>
+      <c r="L332" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000331</v>
-      </c>
-      <c r="L332" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000252, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000252, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="333" spans="2:12" x14ac:dyDescent="0.2">
@@ -15984,11 +15984,11 @@
         <v>Execute</v>
       </c>
       <c r="J333" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000332</v>
+      </c>
+      <c r="L333" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000332</v>
-      </c>
-      <c r="L333" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000252, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16016,11 +16016,11 @@
         <v>Execute</v>
       </c>
       <c r="J334" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000333</v>
+      </c>
+      <c r="L334" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000333</v>
-      </c>
-      <c r="L334" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000253, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16048,11 +16048,11 @@
         <v>Execute</v>
       </c>
       <c r="J335" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000334</v>
+      </c>
+      <c r="L335" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000334</v>
-      </c>
-      <c r="L335" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000254, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16080,11 +16080,11 @@
         <v>Execute</v>
       </c>
       <c r="J336" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000335</v>
+      </c>
+      <c r="L336" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000335</v>
-      </c>
-      <c r="L336" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000255, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16113,12 +16113,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J337" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000336</v>
+      </c>
+      <c r="L337" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000336</v>
-      </c>
-      <c r="L337" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000256, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000256, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="338" spans="2:12" x14ac:dyDescent="0.2">
@@ -16144,11 +16144,11 @@
         <v>Execute</v>
       </c>
       <c r="J338" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000337</v>
+      </c>
+      <c r="L338" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000337</v>
-      </c>
-      <c r="L338" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000256, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16176,11 +16176,11 @@
         <v>Execute</v>
       </c>
       <c r="J339" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000338</v>
+      </c>
+      <c r="L339" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000338</v>
-      </c>
-      <c r="L339" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000257, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16208,11 +16208,11 @@
         <v>Execute</v>
       </c>
       <c r="J340" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000339</v>
+      </c>
+      <c r="L340" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000339</v>
-      </c>
-      <c r="L340" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000258, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16240,11 +16240,11 @@
         <v>Execute</v>
       </c>
       <c r="J341" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000340</v>
+      </c>
+      <c r="L341" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000340</v>
-      </c>
-      <c r="L341" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000259, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16273,12 +16273,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J342" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000341</v>
+      </c>
+      <c r="L342" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000341</v>
-      </c>
-      <c r="L342" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000260, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000260, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="343" spans="2:12" x14ac:dyDescent="0.2">
@@ -16304,11 +16304,11 @@
         <v>Execute</v>
       </c>
       <c r="J343" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000342</v>
+      </c>
+      <c r="L343" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000342</v>
-      </c>
-      <c r="L343" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000260, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16336,11 +16336,11 @@
         <v>Execute</v>
       </c>
       <c r="J344" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000343</v>
+      </c>
+      <c r="L344" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000343</v>
-      </c>
-      <c r="L344" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000261, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16368,11 +16368,11 @@
         <v>Execute</v>
       </c>
       <c r="J345" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000344</v>
+      </c>
+      <c r="L345" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000344</v>
-      </c>
-      <c r="L345" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000262, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16400,11 +16400,11 @@
         <v>Execute</v>
       </c>
       <c r="J346" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000345</v>
+      </c>
+      <c r="L346" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000345</v>
-      </c>
-      <c r="L346" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000263, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16433,12 +16433,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J347" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000346</v>
+      </c>
+      <c r="L347" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000346</v>
-      </c>
-      <c r="L347" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000264, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000264, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.2">
@@ -16464,11 +16464,11 @@
         <v>Execute</v>
       </c>
       <c r="J348" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000347</v>
+      </c>
+      <c r="L348" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000347</v>
-      </c>
-      <c r="L348" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000264, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16496,11 +16496,11 @@
         <v>Execute</v>
       </c>
       <c r="J349" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000348</v>
+      </c>
+      <c r="L349" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000348</v>
-      </c>
-      <c r="L349" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000265, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16528,11 +16528,11 @@
         <v>Execute</v>
       </c>
       <c r="J350" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000349</v>
+      </c>
+      <c r="L350" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000349</v>
-      </c>
-      <c r="L350" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000266, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16560,11 +16560,11 @@
         <v>Execute</v>
       </c>
       <c r="J351" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000350</v>
+      </c>
+      <c r="L351" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000350</v>
-      </c>
-      <c r="L351" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000267, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16593,12 +16593,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J352" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000351</v>
+      </c>
+      <c r="L352" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000351</v>
-      </c>
-      <c r="L352" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000268, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000268, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="353" spans="2:12" x14ac:dyDescent="0.2">
@@ -16624,11 +16624,11 @@
         <v>Execute</v>
       </c>
       <c r="J353" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000352</v>
+      </c>
+      <c r="L353" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000352</v>
-      </c>
-      <c r="L353" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000268, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16656,11 +16656,11 @@
         <v>Execute</v>
       </c>
       <c r="J354" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000353</v>
+      </c>
+      <c r="L354" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000353</v>
-      </c>
-      <c r="L354" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000269, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16688,11 +16688,11 @@
         <v>Execute</v>
       </c>
       <c r="J355" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000354</v>
+      </c>
+      <c r="L355" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000354</v>
-      </c>
-      <c r="L355" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000270, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16720,11 +16720,11 @@
         <v>Execute</v>
       </c>
       <c r="J356" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000355</v>
+      </c>
+      <c r="L356" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000355</v>
-      </c>
-      <c r="L356" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000271, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16753,12 +16753,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J357" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000356</v>
+      </c>
+      <c r="L357" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000356</v>
-      </c>
-      <c r="L357" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000272, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000272, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="358" spans="2:12" x14ac:dyDescent="0.2">
@@ -16784,11 +16784,11 @@
         <v>Execute</v>
       </c>
       <c r="J358" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000357</v>
+      </c>
+      <c r="L358" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000357</v>
-      </c>
-      <c r="L358" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000272, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16816,11 +16816,11 @@
         <v>Execute</v>
       </c>
       <c r="J359" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000358</v>
+      </c>
+      <c r="L359" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000358</v>
-      </c>
-      <c r="L359" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000273, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16848,11 +16848,11 @@
         <v>Execute</v>
       </c>
       <c r="J360" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000359</v>
+      </c>
+      <c r="L360" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000359</v>
-      </c>
-      <c r="L360" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000274, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16880,11 +16880,11 @@
         <v>Execute</v>
       </c>
       <c r="J361" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000360</v>
+      </c>
+      <c r="L361" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000360</v>
-      </c>
-      <c r="L361" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000275, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16913,12 +16913,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J362" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000361</v>
+      </c>
+      <c r="L362" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000361</v>
-      </c>
-      <c r="L362" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000276, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000276, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.2">
@@ -16944,11 +16944,11 @@
         <v>Execute</v>
       </c>
       <c r="J363" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000362</v>
+      </c>
+      <c r="L363" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000362</v>
-      </c>
-      <c r="L363" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000276, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -16976,11 +16976,11 @@
         <v>Execute</v>
       </c>
       <c r="J364" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000363</v>
+      </c>
+      <c r="L364" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000363</v>
-      </c>
-      <c r="L364" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000277, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17008,11 +17008,11 @@
         <v>Execute</v>
       </c>
       <c r="J365" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000364</v>
+      </c>
+      <c r="L365" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000364</v>
-      </c>
-      <c r="L365" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000278, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17040,11 +17040,11 @@
         <v>Execute</v>
       </c>
       <c r="J366" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000365</v>
+      </c>
+      <c r="L366" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000365</v>
-      </c>
-      <c r="L366" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000279, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17073,12 +17073,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J367" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000366</v>
+      </c>
+      <c r="L367" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000366</v>
-      </c>
-      <c r="L367" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000280, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000280, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="368" spans="2:12" x14ac:dyDescent="0.2">
@@ -17104,11 +17104,11 @@
         <v>Execute</v>
       </c>
       <c r="J368" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000367</v>
+      </c>
+      <c r="L368" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000367</v>
-      </c>
-      <c r="L368" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000280, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17136,11 +17136,11 @@
         <v>Execute</v>
       </c>
       <c r="J369" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000368</v>
+      </c>
+      <c r="L369" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000368</v>
-      </c>
-      <c r="L369" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000281, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17168,11 +17168,11 @@
         <v>Execute</v>
       </c>
       <c r="J370" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000369</v>
+      </c>
+      <c r="L370" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000369</v>
-      </c>
-      <c r="L370" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000282, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17200,11 +17200,11 @@
         <v>Execute</v>
       </c>
       <c r="J371" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000370</v>
+      </c>
+      <c r="L371" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000370</v>
-      </c>
-      <c r="L371" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000283, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17233,12 +17233,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J372" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000371</v>
+      </c>
+      <c r="L372" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000371</v>
-      </c>
-      <c r="L372" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000284, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000284, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.2">
@@ -17264,11 +17264,11 @@
         <v>Execute</v>
       </c>
       <c r="J373" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000372</v>
+      </c>
+      <c r="L373" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000372</v>
-      </c>
-      <c r="L373" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000284, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17296,11 +17296,11 @@
         <v>Execute</v>
       </c>
       <c r="J374" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000373</v>
+      </c>
+      <c r="L374" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000373</v>
-      </c>
-      <c r="L374" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000285, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17328,11 +17328,11 @@
         <v>Execute</v>
       </c>
       <c r="J375" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000374</v>
+      </c>
+      <c r="L375" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000374</v>
-      </c>
-      <c r="L375" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000286, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17360,11 +17360,11 @@
         <v>Execute</v>
       </c>
       <c r="J376" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000375</v>
+      </c>
+      <c r="L376" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000375</v>
-      </c>
-      <c r="L376" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000287, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17393,12 +17393,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J377" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000376</v>
+      </c>
+      <c r="L377" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000376</v>
-      </c>
-      <c r="L377" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000288, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000288, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="378" spans="2:12" x14ac:dyDescent="0.2">
@@ -17424,11 +17424,11 @@
         <v>Execute</v>
       </c>
       <c r="J378" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000377</v>
+      </c>
+      <c r="L378" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000377</v>
-      </c>
-      <c r="L378" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000288, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17456,11 +17456,11 @@
         <v>Execute</v>
       </c>
       <c r="J379" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000378</v>
+      </c>
+      <c r="L379" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000378</v>
-      </c>
-      <c r="L379" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000289, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17488,11 +17488,11 @@
         <v>Execute</v>
       </c>
       <c r="J380" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000379</v>
+      </c>
+      <c r="L380" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000379</v>
-      </c>
-      <c r="L380" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000290, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17520,11 +17520,11 @@
         <v>Execute</v>
       </c>
       <c r="J381" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000380</v>
+      </c>
+      <c r="L381" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000380</v>
-      </c>
-      <c r="L381" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000291, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17553,12 +17553,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J382" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000381</v>
+      </c>
+      <c r="L382" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000381</v>
-      </c>
-      <c r="L382" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000292, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000292, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="383" spans="2:12" x14ac:dyDescent="0.2">
@@ -17584,11 +17584,11 @@
         <v>Execute</v>
       </c>
       <c r="J383" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000382</v>
+      </c>
+      <c r="L383" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000382</v>
-      </c>
-      <c r="L383" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000292, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17616,11 +17616,11 @@
         <v>Execute</v>
       </c>
       <c r="J384" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000383</v>
+      </c>
+      <c r="L384" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000383</v>
-      </c>
-      <c r="L384" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000293, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17648,11 +17648,11 @@
         <v>Execute</v>
       </c>
       <c r="J385" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000384</v>
+      </c>
+      <c r="L385" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000384</v>
-      </c>
-      <c r="L385" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000294, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17680,11 +17680,11 @@
         <v>Execute</v>
       </c>
       <c r="J386" s="6">
+        <f t="shared" si="35"/>
+        <v>256000000000385</v>
+      </c>
+      <c r="L386" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>256000000000385</v>
-      </c>
-      <c r="L386" s="16" t="str">
-        <f t="shared" si="35"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000295, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17713,12 +17713,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J387" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>256000000000386</v>
       </c>
       <c r="L387" s="16" t="str">
-        <f t="shared" si="35"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000296, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" ref="L387:L450" si="38">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B387, ""), "null", CONCATENATE($B387)), ", ", IF(EXACT($B387, ""),"null", CONCATENATE("'", $H387, "'")), ", ", IF(EXACT($B387, ""), "null", CONCATENATE("'", $G387, "'")), ");")</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000296, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="388" spans="2:12" x14ac:dyDescent="0.2">
@@ -17744,11 +17744,11 @@
         <v>Execute</v>
       </c>
       <c r="J388" s="6">
-        <f t="shared" ref="J388:J451" si="38">IF(ISNUMBER(J387), J387+1, 256000000000001)</f>
+        <f t="shared" ref="J388:J451" si="39">IF(ISNUMBER(J387), J387+1, 256000000000001)</f>
         <v>256000000000387</v>
       </c>
       <c r="L388" s="16" t="str">
-        <f t="shared" ref="L388:L451" si="39">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B388, ""), "null", CONCATENATE($B388)), ", ", IF(EXACT($B388, ""),"null", CONCATENATE("'", $G388, "'")), ", ", IF(EXACT($B388, ""), "null", CONCATENATE("'", $H388, "'")), ");")</f>
+        <f t="shared" si="38"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000296, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17776,11 +17776,11 @@
         <v>Execute</v>
       </c>
       <c r="J389" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000388</v>
+      </c>
+      <c r="L389" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000388</v>
-      </c>
-      <c r="L389" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000297, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17808,11 +17808,11 @@
         <v>Execute</v>
       </c>
       <c r="J390" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000389</v>
+      </c>
+      <c r="L390" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000389</v>
-      </c>
-      <c r="L390" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000298, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17840,11 +17840,11 @@
         <v>Execute</v>
       </c>
       <c r="J391" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000390</v>
+      </c>
+      <c r="L391" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000390</v>
-      </c>
-      <c r="L391" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000299, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17873,12 +17873,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J392" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000391</v>
+      </c>
+      <c r="L392" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000391</v>
-      </c>
-      <c r="L392" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000300, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000300, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="393" spans="2:12" x14ac:dyDescent="0.2">
@@ -17904,11 +17904,11 @@
         <v>Execute</v>
       </c>
       <c r="J393" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000392</v>
+      </c>
+      <c r="L393" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000392</v>
-      </c>
-      <c r="L393" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000300, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17936,11 +17936,11 @@
         <v>Execute</v>
       </c>
       <c r="J394" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000393</v>
+      </c>
+      <c r="L394" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000393</v>
-      </c>
-      <c r="L394" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000301, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -17968,11 +17968,11 @@
         <v>Execute</v>
       </c>
       <c r="J395" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000394</v>
+      </c>
+      <c r="L395" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000394</v>
-      </c>
-      <c r="L395" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000302, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18001,12 +18001,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J396" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000395</v>
+      </c>
+      <c r="L396" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000395</v>
-      </c>
-      <c r="L396" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000303, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000303, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.2">
@@ -18032,11 +18032,11 @@
         <v>Execute</v>
       </c>
       <c r="J397" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000396</v>
+      </c>
+      <c r="L397" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000396</v>
-      </c>
-      <c r="L397" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000303, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18064,11 +18064,11 @@
         <v>Execute</v>
       </c>
       <c r="J398" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000397</v>
+      </c>
+      <c r="L398" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000397</v>
-      </c>
-      <c r="L398" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000304, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18096,11 +18096,11 @@
         <v>Execute</v>
       </c>
       <c r="J399" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000398</v>
+      </c>
+      <c r="L399" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000398</v>
-      </c>
-      <c r="L399" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000305, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18129,12 +18129,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J400" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000399</v>
+      </c>
+      <c r="L400" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000399</v>
-      </c>
-      <c r="L400" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000306, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000306, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="401" spans="2:12" x14ac:dyDescent="0.2">
@@ -18160,11 +18160,11 @@
         <v>Execute</v>
       </c>
       <c r="J401" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000400</v>
+      </c>
+      <c r="L401" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000400</v>
-      </c>
-      <c r="L401" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000306, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18192,11 +18192,11 @@
         <v>Execute</v>
       </c>
       <c r="J402" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000401</v>
+      </c>
+      <c r="L402" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000401</v>
-      </c>
-      <c r="L402" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000307, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18224,11 +18224,11 @@
         <v>Execute</v>
       </c>
       <c r="J403" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000402</v>
+      </c>
+      <c r="L403" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000402</v>
-      </c>
-      <c r="L403" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000308, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18257,12 +18257,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J404" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000403</v>
+      </c>
+      <c r="L404" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000403</v>
-      </c>
-      <c r="L404" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000309, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000309, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="405" spans="2:12" x14ac:dyDescent="0.2">
@@ -18288,11 +18288,11 @@
         <v>Execute</v>
       </c>
       <c r="J405" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000404</v>
+      </c>
+      <c r="L405" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000404</v>
-      </c>
-      <c r="L405" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000309, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18320,11 +18320,11 @@
         <v>Execute</v>
       </c>
       <c r="J406" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000405</v>
+      </c>
+      <c r="L406" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000405</v>
-      </c>
-      <c r="L406" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000310, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18352,11 +18352,11 @@
         <v>Execute</v>
       </c>
       <c r="J407" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000406</v>
+      </c>
+      <c r="L407" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000406</v>
-      </c>
-      <c r="L407" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000311, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18385,12 +18385,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J408" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000407</v>
+      </c>
+      <c r="L408" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000407</v>
-      </c>
-      <c r="L408" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000312, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000312, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="409" spans="2:12" x14ac:dyDescent="0.2">
@@ -18416,11 +18416,11 @@
         <v>Execute</v>
       </c>
       <c r="J409" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000408</v>
+      </c>
+      <c r="L409" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000408</v>
-      </c>
-      <c r="L409" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000312, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18448,11 +18448,11 @@
         <v>Execute</v>
       </c>
       <c r="J410" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000409</v>
+      </c>
+      <c r="L410" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000409</v>
-      </c>
-      <c r="L410" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000313, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18480,11 +18480,11 @@
         <v>Execute</v>
       </c>
       <c r="J411" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000410</v>
+      </c>
+      <c r="L411" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000410</v>
-      </c>
-      <c r="L411" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000314, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18513,12 +18513,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J412" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000411</v>
+      </c>
+      <c r="L412" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000411</v>
-      </c>
-      <c r="L412" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000315, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000315, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="413" spans="2:12" x14ac:dyDescent="0.2">
@@ -18544,11 +18544,11 @@
         <v>Execute</v>
       </c>
       <c r="J413" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000412</v>
+      </c>
+      <c r="L413" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000412</v>
-      </c>
-      <c r="L413" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000315, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18576,11 +18576,11 @@
         <v>Execute</v>
       </c>
       <c r="J414" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000413</v>
+      </c>
+      <c r="L414" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000413</v>
-      </c>
-      <c r="L414" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000316, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18608,11 +18608,11 @@
         <v>Execute</v>
       </c>
       <c r="J415" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000414</v>
+      </c>
+      <c r="L415" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000414</v>
-      </c>
-      <c r="L415" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000317, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18641,12 +18641,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J416" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000415</v>
+      </c>
+      <c r="L416" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000415</v>
-      </c>
-      <c r="L416" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000318, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000318, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="417" spans="2:12" x14ac:dyDescent="0.2">
@@ -18672,11 +18672,11 @@
         <v>Execute</v>
       </c>
       <c r="J417" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000416</v>
+      </c>
+      <c r="L417" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000416</v>
-      </c>
-      <c r="L417" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000318, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18704,11 +18704,11 @@
         <v>Execute</v>
       </c>
       <c r="J418" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000417</v>
+      </c>
+      <c r="L418" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000417</v>
-      </c>
-      <c r="L418" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000319, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18736,11 +18736,11 @@
         <v>Execute</v>
       </c>
       <c r="J419" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000418</v>
+      </c>
+      <c r="L419" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000418</v>
-      </c>
-      <c r="L419" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000320, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18769,12 +18769,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J420" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000419</v>
+      </c>
+      <c r="L420" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000419</v>
-      </c>
-      <c r="L420" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000321, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000321, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="421" spans="2:12" x14ac:dyDescent="0.2">
@@ -18800,11 +18800,11 @@
         <v>Execute</v>
       </c>
       <c r="J421" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000420</v>
+      </c>
+      <c r="L421" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000420</v>
-      </c>
-      <c r="L421" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000321, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18832,11 +18832,11 @@
         <v>Execute</v>
       </c>
       <c r="J422" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000421</v>
+      </c>
+      <c r="L422" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000421</v>
-      </c>
-      <c r="L422" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000322, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18864,11 +18864,11 @@
         <v>Execute</v>
       </c>
       <c r="J423" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000422</v>
+      </c>
+      <c r="L423" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000422</v>
-      </c>
-      <c r="L423" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000323, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18897,12 +18897,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J424" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000423</v>
+      </c>
+      <c r="L424" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000423</v>
-      </c>
-      <c r="L424" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000324, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000324, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="425" spans="2:12" x14ac:dyDescent="0.2">
@@ -18928,11 +18928,11 @@
         <v>Execute</v>
       </c>
       <c r="J425" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000424</v>
+      </c>
+      <c r="L425" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000424</v>
-      </c>
-      <c r="L425" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000324, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18960,11 +18960,11 @@
         <v>Execute</v>
       </c>
       <c r="J426" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000425</v>
+      </c>
+      <c r="L426" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000425</v>
-      </c>
-      <c r="L426" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000325, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -18992,11 +18992,11 @@
         <v>Execute</v>
       </c>
       <c r="J427" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000426</v>
+      </c>
+      <c r="L427" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000426</v>
-      </c>
-      <c r="L427" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000326, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19025,12 +19025,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J428" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000427</v>
+      </c>
+      <c r="L428" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000427</v>
-      </c>
-      <c r="L428" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000327, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000327, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="429" spans="2:12" x14ac:dyDescent="0.2">
@@ -19056,11 +19056,11 @@
         <v>Execute</v>
       </c>
       <c r="J429" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000428</v>
+      </c>
+      <c r="L429" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000428</v>
-      </c>
-      <c r="L429" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000327, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19088,11 +19088,11 @@
         <v>Execute</v>
       </c>
       <c r="J430" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000429</v>
+      </c>
+      <c r="L430" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000429</v>
-      </c>
-      <c r="L430" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000328, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19120,11 +19120,11 @@
         <v>Execute</v>
       </c>
       <c r="J431" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000430</v>
+      </c>
+      <c r="L431" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000430</v>
-      </c>
-      <c r="L431" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000329, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19153,12 +19153,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J432" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000431</v>
+      </c>
+      <c r="L432" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000431</v>
-      </c>
-      <c r="L432" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000330, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000330, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="433" spans="2:12" x14ac:dyDescent="0.2">
@@ -19184,11 +19184,11 @@
         <v>Execute</v>
       </c>
       <c r="J433" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000432</v>
+      </c>
+      <c r="L433" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000432</v>
-      </c>
-      <c r="L433" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000330, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19216,11 +19216,11 @@
         <v>Execute</v>
       </c>
       <c r="J434" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000433</v>
+      </c>
+      <c r="L434" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000433</v>
-      </c>
-      <c r="L434" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000331, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19248,11 +19248,11 @@
         <v>Execute</v>
       </c>
       <c r="J435" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000434</v>
+      </c>
+      <c r="L435" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000434</v>
-      </c>
-      <c r="L435" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000332, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19281,12 +19281,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J436" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000435</v>
+      </c>
+      <c r="L436" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000435</v>
-      </c>
-      <c r="L436" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000333, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000333, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="437" spans="2:12" x14ac:dyDescent="0.2">
@@ -19312,11 +19312,11 @@
         <v>Execute</v>
       </c>
       <c r="J437" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000436</v>
+      </c>
+      <c r="L437" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000436</v>
-      </c>
-      <c r="L437" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000333, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19344,11 +19344,11 @@
         <v>Execute</v>
       </c>
       <c r="J438" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000437</v>
+      </c>
+      <c r="L438" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000437</v>
-      </c>
-      <c r="L438" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000334, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19376,11 +19376,11 @@
         <v>Execute</v>
       </c>
       <c r="J439" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000438</v>
+      </c>
+      <c r="L439" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000438</v>
-      </c>
-      <c r="L439" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000335, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19409,12 +19409,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J440" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000439</v>
+      </c>
+      <c r="L440" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000439</v>
-      </c>
-      <c r="L440" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000336, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000336, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="441" spans="2:12" x14ac:dyDescent="0.2">
@@ -19440,11 +19440,11 @@
         <v>Execute</v>
       </c>
       <c r="J441" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000440</v>
+      </c>
+      <c r="L441" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000440</v>
-      </c>
-      <c r="L441" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000336, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19472,11 +19472,11 @@
         <v>Execute</v>
       </c>
       <c r="J442" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000441</v>
+      </c>
+      <c r="L442" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000441</v>
-      </c>
-      <c r="L442" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000337, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19504,11 +19504,11 @@
         <v>Execute</v>
       </c>
       <c r="J443" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000442</v>
+      </c>
+      <c r="L443" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000442</v>
-      </c>
-      <c r="L443" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000338, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19537,12 +19537,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J444" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000443</v>
+      </c>
+      <c r="L444" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000443</v>
-      </c>
-      <c r="L444" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000339, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000339, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="445" spans="2:12" x14ac:dyDescent="0.2">
@@ -19568,11 +19568,11 @@
         <v>Execute</v>
       </c>
       <c r="J445" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000444</v>
+      </c>
+      <c r="L445" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000444</v>
-      </c>
-      <c r="L445" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000339, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19600,11 +19600,11 @@
         <v>Execute</v>
       </c>
       <c r="J446" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000445</v>
+      </c>
+      <c r="L446" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000445</v>
-      </c>
-      <c r="L446" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000340, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19632,11 +19632,11 @@
         <v>Execute</v>
       </c>
       <c r="J447" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000446</v>
+      </c>
+      <c r="L447" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000446</v>
-      </c>
-      <c r="L447" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000341, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19665,12 +19665,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J448" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000447</v>
+      </c>
+      <c r="L448" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000447</v>
-      </c>
-      <c r="L448" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000342, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000342, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="449" spans="2:12" x14ac:dyDescent="0.2">
@@ -19696,11 +19696,11 @@
         <v>Execute</v>
       </c>
       <c r="J449" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000448</v>
+      </c>
+      <c r="L449" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000448</v>
-      </c>
-      <c r="L449" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000342, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19728,11 +19728,11 @@
         <v>Execute</v>
       </c>
       <c r="J450" s="6">
+        <f t="shared" si="39"/>
+        <v>256000000000449</v>
+      </c>
+      <c r="L450" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>256000000000449</v>
-      </c>
-      <c r="L450" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000343, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19760,11 +19760,11 @@
         <v>Execute</v>
       </c>
       <c r="J451" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>256000000000450</v>
       </c>
       <c r="L451" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="L451:L514" si="44">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B451, ""), "null", CONCATENATE($B451)), ", ", IF(EXACT($B451, ""),"null", CONCATENATE("'", $H451, "'")), ", ", IF(EXACT($B451, ""), "null", CONCATENATE("'", $G451, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000344, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19793,12 +19793,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J452" s="6">
-        <f t="shared" ref="J452:J515" si="44">IF(ISNUMBER(J451), J451+1, 256000000000001)</f>
+        <f t="shared" ref="J452:J515" si="45">IF(ISNUMBER(J451), J451+1, 256000000000001)</f>
         <v>256000000000451</v>
       </c>
       <c r="L452" s="16" t="str">
-        <f t="shared" ref="L452:L515" si="45">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B452, ""), "null", CONCATENATE($B452)), ", ", IF(EXACT($B452, ""),"null", CONCATENATE("'", $G452, "'")), ", ", IF(EXACT($B452, ""), "null", CONCATENATE("'", $H452, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000345, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" si="44"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000345, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="453" spans="2:12" x14ac:dyDescent="0.2">
@@ -19824,11 +19824,11 @@
         <v>Execute</v>
       </c>
       <c r="J453" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000452</v>
+      </c>
+      <c r="L453" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000452</v>
-      </c>
-      <c r="L453" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000345, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19856,11 +19856,11 @@
         <v>Execute</v>
       </c>
       <c r="J454" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000453</v>
+      </c>
+      <c r="L454" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000453</v>
-      </c>
-      <c r="L454" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000346, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19888,11 +19888,11 @@
         <v>Execute</v>
       </c>
       <c r="J455" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000454</v>
+      </c>
+      <c r="L455" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000454</v>
-      </c>
-      <c r="L455" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000347, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19921,12 +19921,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J456" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000455</v>
+      </c>
+      <c r="L456" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000455</v>
-      </c>
-      <c r="L456" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000348, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000348, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="457" spans="2:12" x14ac:dyDescent="0.2">
@@ -19952,11 +19952,11 @@
         <v>Execute</v>
       </c>
       <c r="J457" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000456</v>
+      </c>
+      <c r="L457" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000456</v>
-      </c>
-      <c r="L457" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000348, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -19984,11 +19984,11 @@
         <v>Execute</v>
       </c>
       <c r="J458" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000457</v>
+      </c>
+      <c r="L458" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000457</v>
-      </c>
-      <c r="L458" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000349, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20016,11 +20016,11 @@
         <v>Execute</v>
       </c>
       <c r="J459" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000458</v>
+      </c>
+      <c r="L459" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000458</v>
-      </c>
-      <c r="L459" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000350, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20048,11 +20048,11 @@
         <v>Execute</v>
       </c>
       <c r="J460" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000459</v>
+      </c>
+      <c r="L460" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000459</v>
-      </c>
-      <c r="L460" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000351, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20081,12 +20081,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J461" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000460</v>
+      </c>
+      <c r="L461" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000460</v>
-      </c>
-      <c r="L461" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000352, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000352, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="462" spans="2:12" x14ac:dyDescent="0.2">
@@ -20112,11 +20112,11 @@
         <v>Execute</v>
       </c>
       <c r="J462" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000461</v>
+      </c>
+      <c r="L462" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000461</v>
-      </c>
-      <c r="L462" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000352, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20144,11 +20144,11 @@
         <v>Execute</v>
       </c>
       <c r="J463" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000462</v>
+      </c>
+      <c r="L463" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000462</v>
-      </c>
-      <c r="L463" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000353, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20176,11 +20176,11 @@
         <v>Execute</v>
       </c>
       <c r="J464" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000463</v>
+      </c>
+      <c r="L464" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000463</v>
-      </c>
-      <c r="L464" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000354, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20208,11 +20208,11 @@
         <v>Execute</v>
       </c>
       <c r="J465" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000464</v>
+      </c>
+      <c r="L465" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000464</v>
-      </c>
-      <c r="L465" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000355, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20241,12 +20241,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J466" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000465</v>
+      </c>
+      <c r="L466" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000465</v>
-      </c>
-      <c r="L466" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000356, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000356, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="467" spans="2:12" x14ac:dyDescent="0.2">
@@ -20272,11 +20272,11 @@
         <v>Execute</v>
       </c>
       <c r="J467" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000466</v>
+      </c>
+      <c r="L467" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000466</v>
-      </c>
-      <c r="L467" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000356, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20304,11 +20304,11 @@
         <v>Execute</v>
       </c>
       <c r="J468" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000467</v>
+      </c>
+      <c r="L468" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000467</v>
-      </c>
-      <c r="L468" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000357, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20336,11 +20336,11 @@
         <v>Execute</v>
       </c>
       <c r="J469" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000468</v>
+      </c>
+      <c r="L469" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000468</v>
-      </c>
-      <c r="L469" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000358, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20368,11 +20368,11 @@
         <v>Execute</v>
       </c>
       <c r="J470" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000469</v>
+      </c>
+      <c r="L470" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000469</v>
-      </c>
-      <c r="L470" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000359, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20401,12 +20401,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J471" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000470</v>
+      </c>
+      <c r="L471" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000470</v>
-      </c>
-      <c r="L471" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000360, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000360, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="472" spans="2:12" x14ac:dyDescent="0.2">
@@ -20432,11 +20432,11 @@
         <v>Execute</v>
       </c>
       <c r="J472" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000471</v>
+      </c>
+      <c r="L472" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000471</v>
-      </c>
-      <c r="L472" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000360, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20464,11 +20464,11 @@
         <v>Execute</v>
       </c>
       <c r="J473" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000472</v>
+      </c>
+      <c r="L473" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000472</v>
-      </c>
-      <c r="L473" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000361, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20496,11 +20496,11 @@
         <v>Execute</v>
       </c>
       <c r="J474" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000473</v>
+      </c>
+      <c r="L474" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000473</v>
-      </c>
-      <c r="L474" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000362, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20528,11 +20528,11 @@
         <v>Execute</v>
       </c>
       <c r="J475" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000474</v>
+      </c>
+      <c r="L475" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000474</v>
-      </c>
-      <c r="L475" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000363, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20561,12 +20561,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J476" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000475</v>
+      </c>
+      <c r="L476" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000475</v>
-      </c>
-      <c r="L476" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000364, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000364, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="477" spans="2:12" x14ac:dyDescent="0.2">
@@ -20592,11 +20592,11 @@
         <v>Execute</v>
       </c>
       <c r="J477" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000476</v>
+      </c>
+      <c r="L477" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000476</v>
-      </c>
-      <c r="L477" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000364, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20624,11 +20624,11 @@
         <v>Execute</v>
       </c>
       <c r="J478" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000477</v>
+      </c>
+      <c r="L478" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000477</v>
-      </c>
-      <c r="L478" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000365, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20656,11 +20656,11 @@
         <v>Execute</v>
       </c>
       <c r="J479" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000478</v>
+      </c>
+      <c r="L479" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000478</v>
-      </c>
-      <c r="L479" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000366, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20688,11 +20688,11 @@
         <v>Execute</v>
       </c>
       <c r="J480" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000479</v>
+      </c>
+      <c r="L480" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000479</v>
-      </c>
-      <c r="L480" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000367, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20721,12 +20721,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J481" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000480</v>
+      </c>
+      <c r="L481" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000480</v>
-      </c>
-      <c r="L481" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000368, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000368, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.2">
@@ -20752,11 +20752,11 @@
         <v>Execute</v>
       </c>
       <c r="J482" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000481</v>
+      </c>
+      <c r="L482" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000481</v>
-      </c>
-      <c r="L482" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000368, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20784,11 +20784,11 @@
         <v>Execute</v>
       </c>
       <c r="J483" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000482</v>
+      </c>
+      <c r="L483" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000482</v>
-      </c>
-      <c r="L483" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000369, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20816,11 +20816,11 @@
         <v>Execute</v>
       </c>
       <c r="J484" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000483</v>
+      </c>
+      <c r="L484" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000483</v>
-      </c>
-      <c r="L484" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000370, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20848,11 +20848,11 @@
         <v>Execute</v>
       </c>
       <c r="J485" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000484</v>
+      </c>
+      <c r="L485" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000484</v>
-      </c>
-      <c r="L485" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000371, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20881,12 +20881,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J486" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000485</v>
+      </c>
+      <c r="L486" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000485</v>
-      </c>
-      <c r="L486" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000372, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000372, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.2">
@@ -20912,11 +20912,11 @@
         <v>Execute</v>
       </c>
       <c r="J487" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000486</v>
+      </c>
+      <c r="L487" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000486</v>
-      </c>
-      <c r="L487" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000372, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20944,11 +20944,11 @@
         <v>Execute</v>
       </c>
       <c r="J488" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000487</v>
+      </c>
+      <c r="L488" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000487</v>
-      </c>
-      <c r="L488" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000373, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -20976,11 +20976,11 @@
         <v>Execute</v>
       </c>
       <c r="J489" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000488</v>
+      </c>
+      <c r="L489" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000488</v>
-      </c>
-      <c r="L489" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000374, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21008,11 +21008,11 @@
         <v>Execute</v>
       </c>
       <c r="J490" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000489</v>
+      </c>
+      <c r="L490" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000489</v>
-      </c>
-      <c r="L490" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000375, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21041,12 +21041,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J491" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000490</v>
+      </c>
+      <c r="L491" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000490</v>
-      </c>
-      <c r="L491" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000376, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000376, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="492" spans="2:12" x14ac:dyDescent="0.2">
@@ -21072,11 +21072,11 @@
         <v>Execute</v>
       </c>
       <c r="J492" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000491</v>
+      </c>
+      <c r="L492" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000491</v>
-      </c>
-      <c r="L492" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000376, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21104,11 +21104,11 @@
         <v>Execute</v>
       </c>
       <c r="J493" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000492</v>
+      </c>
+      <c r="L493" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000492</v>
-      </c>
-      <c r="L493" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000377, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21136,11 +21136,11 @@
         <v>Execute</v>
       </c>
       <c r="J494" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000493</v>
+      </c>
+      <c r="L494" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000493</v>
-      </c>
-      <c r="L494" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000378, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21168,11 +21168,11 @@
         <v>Execute</v>
       </c>
       <c r="J495" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000494</v>
+      </c>
+      <c r="L495" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000494</v>
-      </c>
-      <c r="L495" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000379, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21201,12 +21201,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J496" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000495</v>
+      </c>
+      <c r="L496" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000495</v>
-      </c>
-      <c r="L496" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000380, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000380, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="497" spans="2:12" x14ac:dyDescent="0.2">
@@ -21232,11 +21232,11 @@
         <v>Execute</v>
       </c>
       <c r="J497" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000496</v>
+      </c>
+      <c r="L497" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000496</v>
-      </c>
-      <c r="L497" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000380, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21264,11 +21264,11 @@
         <v>Execute</v>
       </c>
       <c r="J498" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000497</v>
+      </c>
+      <c r="L498" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000497</v>
-      </c>
-      <c r="L498" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000381, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21296,11 +21296,11 @@
         <v>Execute</v>
       </c>
       <c r="J499" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000498</v>
+      </c>
+      <c r="L499" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000498</v>
-      </c>
-      <c r="L499" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000382, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21328,11 +21328,11 @@
         <v>Execute</v>
       </c>
       <c r="J500" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000499</v>
+      </c>
+      <c r="L500" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000499</v>
-      </c>
-      <c r="L500" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000383, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21361,12 +21361,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J501" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000500</v>
+      </c>
+      <c r="L501" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000500</v>
-      </c>
-      <c r="L501" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000384, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000384, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="502" spans="2:12" x14ac:dyDescent="0.2">
@@ -21392,11 +21392,11 @@
         <v>Execute</v>
       </c>
       <c r="J502" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000501</v>
+      </c>
+      <c r="L502" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000501</v>
-      </c>
-      <c r="L502" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000384, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21424,11 +21424,11 @@
         <v>Execute</v>
       </c>
       <c r="J503" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000502</v>
+      </c>
+      <c r="L503" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000502</v>
-      </c>
-      <c r="L503" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000385, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21456,11 +21456,11 @@
         <v>Execute</v>
       </c>
       <c r="J504" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000503</v>
+      </c>
+      <c r="L504" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000503</v>
-      </c>
-      <c r="L504" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000386, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21488,11 +21488,11 @@
         <v>Execute</v>
       </c>
       <c r="J505" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000504</v>
+      </c>
+      <c r="L505" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000504</v>
-      </c>
-      <c r="L505" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000387, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21521,12 +21521,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J506" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000505</v>
+      </c>
+      <c r="L506" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000505</v>
-      </c>
-      <c r="L506" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000388, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000388, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="507" spans="2:12" x14ac:dyDescent="0.2">
@@ -21552,11 +21552,11 @@
         <v>Execute</v>
       </c>
       <c r="J507" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000506</v>
+      </c>
+      <c r="L507" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000506</v>
-      </c>
-      <c r="L507" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000388, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21584,11 +21584,11 @@
         <v>Execute</v>
       </c>
       <c r="J508" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000507</v>
+      </c>
+      <c r="L508" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000507</v>
-      </c>
-      <c r="L508" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000389, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21616,11 +21616,11 @@
         <v>Execute</v>
       </c>
       <c r="J509" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000508</v>
+      </c>
+      <c r="L509" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000508</v>
-      </c>
-      <c r="L509" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000390, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21648,11 +21648,11 @@
         <v>Execute</v>
       </c>
       <c r="J510" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000509</v>
+      </c>
+      <c r="L510" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000509</v>
-      </c>
-      <c r="L510" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000391, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21681,12 +21681,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J511" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000510</v>
+      </c>
+      <c r="L511" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000510</v>
-      </c>
-      <c r="L511" s="16" t="str">
-        <f t="shared" si="45"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000392, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000392, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="512" spans="2:12" x14ac:dyDescent="0.2">
@@ -21712,11 +21712,11 @@
         <v>Execute</v>
       </c>
       <c r="J512" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000511</v>
+      </c>
+      <c r="L512" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000511</v>
-      </c>
-      <c r="L512" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000392, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21744,11 +21744,11 @@
         <v>Execute</v>
       </c>
       <c r="J513" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000512</v>
+      </c>
+      <c r="L513" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000512</v>
-      </c>
-      <c r="L513" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000393, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21776,11 +21776,11 @@
         <v>Execute</v>
       </c>
       <c r="J514" s="6">
+        <f t="shared" si="45"/>
+        <v>256000000000513</v>
+      </c>
+      <c r="L514" s="16" t="str">
         <f t="shared" si="44"/>
-        <v>256000000000513</v>
-      </c>
-      <c r="L514" s="16" t="str">
-        <f t="shared" si="45"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000394, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21808,11 +21808,11 @@
         <v>Execute</v>
       </c>
       <c r="J515" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>256000000000514</v>
       </c>
       <c r="L515" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="L515:L567" si="50">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B515, ""), "null", CONCATENATE($B515)), ", ", IF(EXACT($B515, ""),"null", CONCATENATE("'", $H515, "'")), ", ", IF(EXACT($B515, ""), "null", CONCATENATE("'", $G515, "'")), ");")</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000395, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21841,12 +21841,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J516" s="6">
-        <f t="shared" ref="J516:J567" si="50">IF(ISNUMBER(J515), J515+1, 256000000000001)</f>
+        <f t="shared" ref="J516:J567" si="51">IF(ISNUMBER(J515), J515+1, 256000000000001)</f>
         <v>256000000000515</v>
       </c>
       <c r="L516" s="16" t="str">
-        <f t="shared" ref="L516:L567" si="51">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B516, ""), "null", CONCATENATE($B516)), ", ", IF(EXACT($B516, ""),"null", CONCATENATE("'", $G516, "'")), ", ", IF(EXACT($B516, ""), "null", CONCATENATE("'", $H516, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000396, 'Data Validation', 'DataValidation');</v>
+        <f t="shared" si="50"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000396, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="517" spans="2:12" x14ac:dyDescent="0.2">
@@ -21872,11 +21872,11 @@
         <v>Execute</v>
       </c>
       <c r="J517" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000516</v>
+      </c>
+      <c r="L517" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000516</v>
-      </c>
-      <c r="L517" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000396, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21904,11 +21904,11 @@
         <v>Execute</v>
       </c>
       <c r="J518" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000517</v>
+      </c>
+      <c r="L518" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000517</v>
-      </c>
-      <c r="L518" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000397, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21936,11 +21936,11 @@
         <v>Execute</v>
       </c>
       <c r="J519" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000518</v>
+      </c>
+      <c r="L519" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000518</v>
-      </c>
-      <c r="L519" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000398, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -21968,11 +21968,11 @@
         <v>Execute</v>
       </c>
       <c r="J520" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000519</v>
+      </c>
+      <c r="L520" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000519</v>
-      </c>
-      <c r="L520" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000399, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22001,12 +22001,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J521" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000520</v>
+      </c>
+      <c r="L521" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000520</v>
-      </c>
-      <c r="L521" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000400, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000400, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="522" spans="2:12" x14ac:dyDescent="0.2">
@@ -22032,11 +22032,11 @@
         <v>Execute</v>
       </c>
       <c r="J522" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000521</v>
+      </c>
+      <c r="L522" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000521</v>
-      </c>
-      <c r="L522" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000400, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22064,11 +22064,11 @@
         <v>Execute</v>
       </c>
       <c r="J523" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000522</v>
+      </c>
+      <c r="L523" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000522</v>
-      </c>
-      <c r="L523" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000401, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22096,11 +22096,11 @@
         <v>Execute</v>
       </c>
       <c r="J524" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000523</v>
+      </c>
+      <c r="L524" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000523</v>
-      </c>
-      <c r="L524" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000402, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22128,11 +22128,11 @@
         <v>Execute</v>
       </c>
       <c r="J525" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000524</v>
+      </c>
+      <c r="L525" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000524</v>
-      </c>
-      <c r="L525" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000403, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22161,12 +22161,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J526" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000525</v>
+      </c>
+      <c r="L526" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000525</v>
-      </c>
-      <c r="L526" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000404, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000404, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="527" spans="2:12" x14ac:dyDescent="0.2">
@@ -22192,11 +22192,11 @@
         <v>Execute</v>
       </c>
       <c r="J527" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000526</v>
+      </c>
+      <c r="L527" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000526</v>
-      </c>
-      <c r="L527" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000404, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22224,11 +22224,11 @@
         <v>Execute</v>
       </c>
       <c r="J528" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000527</v>
+      </c>
+      <c r="L528" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000527</v>
-      </c>
-      <c r="L528" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000405, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22256,11 +22256,11 @@
         <v>Execute</v>
       </c>
       <c r="J529" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000528</v>
+      </c>
+      <c r="L529" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000528</v>
-      </c>
-      <c r="L529" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000406, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22289,12 +22289,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J530" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000529</v>
+      </c>
+      <c r="L530" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000529</v>
-      </c>
-      <c r="L530" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000407, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000407, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="531" spans="2:12" x14ac:dyDescent="0.2">
@@ -22320,11 +22320,11 @@
         <v>Execute</v>
       </c>
       <c r="J531" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000530</v>
+      </c>
+      <c r="L531" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000530</v>
-      </c>
-      <c r="L531" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000407, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22352,11 +22352,11 @@
         <v>Execute</v>
       </c>
       <c r="J532" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000531</v>
+      </c>
+      <c r="L532" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000531</v>
-      </c>
-      <c r="L532" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000408, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22384,11 +22384,11 @@
         <v>Execute</v>
       </c>
       <c r="J533" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000532</v>
+      </c>
+      <c r="L533" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000532</v>
-      </c>
-      <c r="L533" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000409, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22416,11 +22416,11 @@
         <v>Execute</v>
       </c>
       <c r="J534" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000533</v>
+      </c>
+      <c r="L534" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000533</v>
-      </c>
-      <c r="L534" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000410, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22449,12 +22449,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J535" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000534</v>
+      </c>
+      <c r="L535" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000534</v>
-      </c>
-      <c r="L535" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000411, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000411, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="536" spans="2:12" x14ac:dyDescent="0.2">
@@ -22480,11 +22480,11 @@
         <v>Execute</v>
       </c>
       <c r="J536" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000535</v>
+      </c>
+      <c r="L536" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000535</v>
-      </c>
-      <c r="L536" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000411, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22512,11 +22512,11 @@
         <v>Execute</v>
       </c>
       <c r="J537" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000536</v>
+      </c>
+      <c r="L537" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000536</v>
-      </c>
-      <c r="L537" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000412, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22544,11 +22544,11 @@
         <v>Execute</v>
       </c>
       <c r="J538" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000537</v>
+      </c>
+      <c r="L538" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000537</v>
-      </c>
-      <c r="L538" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000413, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22576,11 +22576,11 @@
         <v>Execute</v>
       </c>
       <c r="J539" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000538</v>
+      </c>
+      <c r="L539" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000538</v>
-      </c>
-      <c r="L539" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000414, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22609,12 +22609,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J540" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000539</v>
+      </c>
+      <c r="L540" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000539</v>
-      </c>
-      <c r="L540" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000415, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000415, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="541" spans="2:12" x14ac:dyDescent="0.2">
@@ -22640,11 +22640,11 @@
         <v>Execute</v>
       </c>
       <c r="J541" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000540</v>
+      </c>
+      <c r="L541" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000540</v>
-      </c>
-      <c r="L541" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000415, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22672,11 +22672,11 @@
         <v>Execute</v>
       </c>
       <c r="J542" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000541</v>
+      </c>
+      <c r="L542" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000541</v>
-      </c>
-      <c r="L542" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000416, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22704,11 +22704,11 @@
         <v>Execute</v>
       </c>
       <c r="J543" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000542</v>
+      </c>
+      <c r="L543" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000542</v>
-      </c>
-      <c r="L543" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000417, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22736,11 +22736,11 @@
         <v>Execute</v>
       </c>
       <c r="J544" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000543</v>
+      </c>
+      <c r="L544" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000543</v>
-      </c>
-      <c r="L544" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000418, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22769,12 +22769,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J545" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000544</v>
+      </c>
+      <c r="L545" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000544</v>
-      </c>
-      <c r="L545" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000419, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000419, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="546" spans="2:12" x14ac:dyDescent="0.2">
@@ -22800,11 +22800,11 @@
         <v>Execute</v>
       </c>
       <c r="J546" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000545</v>
+      </c>
+      <c r="L546" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000545</v>
-      </c>
-      <c r="L546" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000419, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22832,11 +22832,11 @@
         <v>Execute</v>
       </c>
       <c r="J547" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000546</v>
+      </c>
+      <c r="L547" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000546</v>
-      </c>
-      <c r="L547" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000420, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22864,11 +22864,11 @@
         <v>Execute</v>
       </c>
       <c r="J548" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000547</v>
+      </c>
+      <c r="L548" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000547</v>
-      </c>
-      <c r="L548" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000421, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22896,11 +22896,11 @@
         <v>Execute</v>
       </c>
       <c r="J549" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000548</v>
+      </c>
+      <c r="L549" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000548</v>
-      </c>
-      <c r="L549" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000422, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22929,12 +22929,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J550" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000549</v>
+      </c>
+      <c r="L550" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000549</v>
-      </c>
-      <c r="L550" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000423, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000423, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="551" spans="2:12" x14ac:dyDescent="0.2">
@@ -22960,11 +22960,11 @@
         <v>Execute</v>
       </c>
       <c r="J551" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000550</v>
+      </c>
+      <c r="L551" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000550</v>
-      </c>
-      <c r="L551" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000423, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -22992,11 +22992,11 @@
         <v>Execute</v>
       </c>
       <c r="J552" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000551</v>
+      </c>
+      <c r="L552" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000551</v>
-      </c>
-      <c r="L552" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000424, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23024,11 +23024,11 @@
         <v>Execute</v>
       </c>
       <c r="J553" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000552</v>
+      </c>
+      <c r="L553" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000552</v>
-      </c>
-      <c r="L553" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000425, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23056,11 +23056,11 @@
         <v>Execute</v>
       </c>
       <c r="J554" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000553</v>
+      </c>
+      <c r="L554" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000553</v>
-      </c>
-      <c r="L554" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000426, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23089,12 +23089,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J555" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000554</v>
+      </c>
+      <c r="L555" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000554</v>
-      </c>
-      <c r="L555" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000427, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000427, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="556" spans="2:12" x14ac:dyDescent="0.2">
@@ -23120,11 +23120,11 @@
         <v>Execute</v>
       </c>
       <c r="J556" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000555</v>
+      </c>
+      <c r="L556" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000555</v>
-      </c>
-      <c r="L556" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000427, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23152,11 +23152,11 @@
         <v>Execute</v>
       </c>
       <c r="J557" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000556</v>
+      </c>
+      <c r="L557" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000556</v>
-      </c>
-      <c r="L557" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000428, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23184,11 +23184,11 @@
         <v>Execute</v>
       </c>
       <c r="J558" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000557</v>
+      </c>
+      <c r="L558" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000557</v>
-      </c>
-      <c r="L558" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000429, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23217,12 +23217,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J559" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000558</v>
+      </c>
+      <c r="L559" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000558</v>
-      </c>
-      <c r="L559" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000430, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000430, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="560" spans="2:12" x14ac:dyDescent="0.2">
@@ -23248,11 +23248,11 @@
         <v>Execute</v>
       </c>
       <c r="J560" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000559</v>
+      </c>
+      <c r="L560" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000559</v>
-      </c>
-      <c r="L560" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000430, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23280,11 +23280,11 @@
         <v>Execute</v>
       </c>
       <c r="J561" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000560</v>
+      </c>
+      <c r="L561" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000560</v>
-      </c>
-      <c r="L561" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000431, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23312,11 +23312,11 @@
         <v>Execute</v>
       </c>
       <c r="J562" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000561</v>
+      </c>
+      <c r="L562" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000561</v>
-      </c>
-      <c r="L562" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000432, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23345,12 +23345,12 @@
         <v>DataValidation</v>
       </c>
       <c r="J563" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000562</v>
+      </c>
+      <c r="L563" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000562</v>
-      </c>
-      <c r="L563" s="16" t="str">
-        <f t="shared" si="51"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000433, 'Data Validation', 'DataValidation');</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000433, 'DataValidation', 'Data Validation');</v>
       </c>
     </row>
     <row r="564" spans="2:12" x14ac:dyDescent="0.2">
@@ -23376,11 +23376,11 @@
         <v>Execute</v>
       </c>
       <c r="J564" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000563</v>
+      </c>
+      <c r="L564" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000563</v>
-      </c>
-      <c r="L564" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000433, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23408,11 +23408,11 @@
         <v>Execute</v>
       </c>
       <c r="J565" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000564</v>
+      </c>
+      <c r="L565" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000564</v>
-      </c>
-      <c r="L565" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000434, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23440,11 +23440,11 @@
         <v>Execute</v>
       </c>
       <c r="J566" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000565</v>
+      </c>
+      <c r="L566" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000565</v>
-      </c>
-      <c r="L566" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000435, 'Execute', 'Execute');</v>
       </c>
     </row>
@@ -23472,11 +23472,11 @@
         <v>Execute</v>
       </c>
       <c r="J567" s="6">
+        <f t="shared" si="51"/>
+        <v>256000000000566</v>
+      </c>
+      <c r="L567" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>256000000000566</v>
-      </c>
-      <c r="L567" s="16" t="str">
-        <f t="shared" si="51"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000436, 'Execute', 'Execute');</v>
       </c>
     </row>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Action</t>
   </si>
@@ -144,6 +144,15 @@
   <si>
     <t>BalanceSheet</t>
   </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>dashboard.index</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +162,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +204,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +241,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,6 +385,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7562,10 +7587,10 @@
   <dimension ref="B1:O629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N346" sqref="N346"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7633,14 +7658,16 @@
         <f>IF(EXACT(F2, ""), "", IF(EXACT(H2, ""), "Execute", SUBSTITUTE(H2, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="M2" s="6">
         <f>IF(ISNUMBER(M1), M1+1, 256000000000001)</f>
         <v>256000000000001</v>
       </c>
       <c r="O2" s="16" t="str">
         <f>CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B2, ""), "null", CONCATENATE($B2)), ", ", IF(EXACT($B2, ""),"null", CONCATENATE("'", $J2, "'")), ", ", IF(EXACT($B2, ""), "null", CONCATENATE("'", $I2, "'")), ", ", IF(EXACT($K2, ""), "null", CONCATENATE("'", $K2, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000001, 'Execute', 'Execute', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000001, 'Execute', 'Execute', 'login');</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
@@ -7668,14 +7695,16 @@
         <f t="shared" ref="J3:J66" si="2">IF(EXACT(F3, ""), "", IF(EXACT(H3, ""), "Execute", SUBSTITUTE(H3, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="M3" s="6">
         <f>IF(ISNUMBER(M2), M2+1, 256000000000001)</f>
         <v>256000000000002</v>
       </c>
       <c r="O3" s="16" t="str">
         <f t="shared" ref="O3:O66" si="3">CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuAction_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, ", IF(EXACT($B3, ""), "null", CONCATENATE($B3)), ", ", IF(EXACT($B3, ""),"null", CONCATENATE("'", $J3, "'")), ", ", IF(EXACT($B3, ""), "null", CONCATENATE("'", $I3, "'")), ", ", IF(EXACT($K3, ""), "null", CONCATENATE("'", $K3, "'")), ");")</f>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000002, 'Execute', 'Execute', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000002, 'Execute', 'Execute', 'logout');</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -7704,7 +7733,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="24"/>
       <c r="M4" s="6">
         <f t="shared" ref="M4:M67" si="4">IF(ISNUMBER(M3), M3+1, 256000000000001)</f>
         <v>256000000000003</v>
@@ -7740,7 +7769,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="6">
@@ -7778,7 +7807,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="6">
@@ -7816,7 +7845,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="24"/>
       <c r="M7" s="6">
         <f t="shared" si="4"/>
         <v>256000000000006</v>
@@ -7854,7 +7883,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="23"/>
       <c r="M8" s="6">
         <f t="shared" si="4"/>
         <v>256000000000007</v>
@@ -7892,7 +7921,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="23"/>
       <c r="M9" s="6">
         <f t="shared" si="4"/>
         <v>256000000000008</v>
@@ -7930,7 +7959,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="23"/>
       <c r="M10" s="6">
         <f t="shared" si="4"/>
         <v>256000000000009</v>
@@ -7968,7 +7997,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="24"/>
       <c r="M11" s="6">
         <f t="shared" si="4"/>
         <v>256000000000010</v>
@@ -8006,14 +8035,16 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="M12" s="6">
         <f t="shared" si="4"/>
         <v>256000000000011</v>
       </c>
       <c r="O12" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000011, 'Execute', 'Execute', null);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuAction_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, null, 97000000000011, 'Execute', 'Execute', 'dashboard.index');</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -8044,7 +8075,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="23"/>
       <c r="M13" s="6">
         <f t="shared" si="4"/>
         <v>256000000000012</v>
@@ -8082,7 +8113,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="23"/>
       <c r="M14" s="6">
         <f t="shared" si="4"/>
         <v>256000000000013</v>
@@ -8120,7 +8151,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="24"/>
       <c r="M15" s="6">
         <f t="shared" si="4"/>
         <v>256000000000014</v>
@@ -8158,7 +8189,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="23"/>
       <c r="M16" s="6">
         <f t="shared" si="4"/>
         <v>256000000000015</v>
@@ -8196,7 +8227,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="23"/>
       <c r="M17" s="6">
         <f t="shared" si="4"/>
         <v>256000000000016</v>
@@ -8234,7 +8265,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="23"/>
       <c r="M18" s="6">
         <f t="shared" si="4"/>
         <v>256000000000017</v>
@@ -8272,7 +8303,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="24"/>
       <c r="M19" s="6">
         <f t="shared" si="4"/>
         <v>256000000000018</v>
@@ -8310,7 +8341,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="23"/>
       <c r="M20" s="6">
         <f t="shared" si="4"/>
         <v>256000000000019</v>
@@ -8348,7 +8379,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="23"/>
       <c r="M21" s="6">
         <f t="shared" si="4"/>
         <v>256000000000020</v>
@@ -8386,7 +8417,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="23"/>
       <c r="M22" s="6">
         <f t="shared" si="4"/>
         <v>256000000000021</v>
@@ -8424,7 +8455,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="24"/>
       <c r="M23" s="6">
         <f t="shared" si="4"/>
         <v>256000000000022</v>
@@ -8462,7 +8493,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="23"/>
       <c r="M24" s="6">
         <f t="shared" si="4"/>
         <v>256000000000023</v>
@@ -8500,7 +8531,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="23"/>
       <c r="M25" s="6">
         <f t="shared" si="4"/>
         <v>256000000000024</v>
@@ -8538,7 +8569,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="23"/>
       <c r="M26" s="6">
         <f t="shared" si="4"/>
         <v>256000000000025</v>
@@ -8576,7 +8607,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="24"/>
       <c r="M27" s="6">
         <f t="shared" si="4"/>
         <v>256000000000026</v>
@@ -8614,7 +8645,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="6">
@@ -8654,7 +8685,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="23"/>
       <c r="M29" s="6">
         <f t="shared" si="4"/>
         <v>256000000000028</v>
@@ -8692,7 +8723,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="23"/>
       <c r="M30" s="6">
         <f t="shared" si="4"/>
         <v>256000000000029</v>
@@ -8730,7 +8761,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="24"/>
       <c r="M31" s="6">
         <f t="shared" si="4"/>
         <v>256000000000030</v>
@@ -8768,7 +8799,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="23"/>
       <c r="M32" s="6">
         <f t="shared" si="4"/>
         <v>256000000000031</v>
@@ -8806,7 +8837,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="23"/>
       <c r="M33" s="6">
         <f t="shared" si="4"/>
         <v>256000000000032</v>
@@ -8844,7 +8875,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34" s="23"/>
       <c r="M34" s="6">
         <f t="shared" si="4"/>
         <v>256000000000033</v>
@@ -8882,7 +8913,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="24"/>
       <c r="M35" s="6">
         <f t="shared" si="4"/>
         <v>256000000000034</v>
@@ -8920,7 +8951,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36" s="23"/>
       <c r="M36" s="6">
         <f t="shared" si="4"/>
         <v>256000000000035</v>
@@ -8958,7 +8989,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K37" s="4"/>
+      <c r="K37" s="23"/>
       <c r="M37" s="6">
         <f t="shared" si="4"/>
         <v>256000000000036</v>
@@ -8996,7 +9027,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="23"/>
       <c r="M38" s="6">
         <f t="shared" si="4"/>
         <v>256000000000037</v>
@@ -9034,7 +9065,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="24"/>
       <c r="M39" s="6">
         <f t="shared" si="4"/>
         <v>256000000000038</v>
@@ -9072,7 +9103,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K40" s="4"/>
+      <c r="K40" s="23"/>
       <c r="M40" s="6">
         <f t="shared" si="4"/>
         <v>256000000000039</v>
@@ -9110,7 +9141,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41" s="23"/>
       <c r="M41" s="6">
         <f t="shared" si="4"/>
         <v>256000000000040</v>
@@ -9148,7 +9179,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K42" s="4"/>
+      <c r="K42" s="23"/>
       <c r="M42" s="6">
         <f t="shared" si="4"/>
         <v>256000000000041</v>
@@ -9186,7 +9217,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="24"/>
       <c r="M43" s="6">
         <f t="shared" si="4"/>
         <v>256000000000042</v>
@@ -9224,7 +9255,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K44" s="4"/>
+      <c r="K44" s="23"/>
       <c r="M44" s="6">
         <f t="shared" si="4"/>
         <v>256000000000043</v>
@@ -9262,7 +9293,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K45" s="4"/>
+      <c r="K45" s="23"/>
       <c r="M45" s="6">
         <f t="shared" si="4"/>
         <v>256000000000044</v>
@@ -9300,7 +9331,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="23"/>
       <c r="M46" s="6">
         <f t="shared" si="4"/>
         <v>256000000000045</v>
@@ -9338,7 +9369,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="24"/>
       <c r="M47" s="6">
         <f t="shared" si="4"/>
         <v>256000000000046</v>
@@ -9376,7 +9407,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K48" s="4"/>
+      <c r="K48" s="23"/>
       <c r="M48" s="6">
         <f t="shared" si="4"/>
         <v>256000000000047</v>
@@ -9414,7 +9445,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K49" s="4"/>
+      <c r="K49" s="23"/>
       <c r="M49" s="6">
         <f t="shared" si="4"/>
         <v>256000000000048</v>
@@ -9452,7 +9483,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K50" s="4"/>
+      <c r="K50" s="23"/>
       <c r="M50" s="6">
         <f t="shared" si="4"/>
         <v>256000000000049</v>
@@ -9490,7 +9521,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K51" s="15"/>
+      <c r="K51" s="24"/>
       <c r="M51" s="6">
         <f t="shared" si="4"/>
         <v>256000000000050</v>
@@ -9528,7 +9559,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K52" s="4"/>
+      <c r="K52" s="23"/>
       <c r="M52" s="6">
         <f t="shared" si="4"/>
         <v>256000000000051</v>
@@ -9566,7 +9597,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K53" s="4"/>
+      <c r="K53" s="23"/>
       <c r="M53" s="6">
         <f t="shared" si="4"/>
         <v>256000000000052</v>
@@ -9604,7 +9635,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K54" s="4"/>
+      <c r="K54" s="23"/>
       <c r="M54" s="6">
         <f t="shared" si="4"/>
         <v>256000000000053</v>
@@ -9642,7 +9673,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="24"/>
       <c r="M55" s="6">
         <f t="shared" si="4"/>
         <v>256000000000054</v>
@@ -9680,7 +9711,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K56" s="4"/>
+      <c r="K56" s="23"/>
       <c r="M56" s="6">
         <f t="shared" si="4"/>
         <v>256000000000055</v>
@@ -9718,7 +9749,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K57" s="4"/>
+      <c r="K57" s="23"/>
       <c r="M57" s="6">
         <f t="shared" si="4"/>
         <v>256000000000056</v>
@@ -9756,7 +9787,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K58" s="4"/>
+      <c r="K58" s="23"/>
       <c r="M58" s="6">
         <f t="shared" si="4"/>
         <v>256000000000057</v>
@@ -9794,7 +9825,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K59" s="15"/>
+      <c r="K59" s="24"/>
       <c r="M59" s="6">
         <f t="shared" si="4"/>
         <v>256000000000058</v>
@@ -9832,7 +9863,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K60" s="4"/>
+      <c r="K60" s="23"/>
       <c r="M60" s="6">
         <f t="shared" si="4"/>
         <v>256000000000059</v>
@@ -9870,7 +9901,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K61" s="4"/>
+      <c r="K61" s="23"/>
       <c r="M61" s="6">
         <f t="shared" si="4"/>
         <v>256000000000060</v>
@@ -9908,7 +9939,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K62" s="4"/>
+      <c r="K62" s="23"/>
       <c r="M62" s="6">
         <f t="shared" si="4"/>
         <v>256000000000061</v>
@@ -9946,7 +9977,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K63" s="15"/>
+      <c r="K63" s="24"/>
       <c r="M63" s="6">
         <f t="shared" si="4"/>
         <v>256000000000062</v>
@@ -9984,7 +10015,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K64" s="4"/>
+      <c r="K64" s="23"/>
       <c r="M64" s="6">
         <f t="shared" si="4"/>
         <v>256000000000063</v>
@@ -10022,7 +10053,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65" s="23"/>
       <c r="M65" s="6">
         <f t="shared" si="4"/>
         <v>256000000000064</v>
@@ -10060,7 +10091,7 @@
         <f t="shared" si="2"/>
         <v>Execute</v>
       </c>
-      <c r="K66" s="4"/>
+      <c r="K66" s="23"/>
       <c r="M66" s="6">
         <f t="shared" si="4"/>
         <v>256000000000065</v>
@@ -10098,7 +10129,7 @@
         <f t="shared" ref="J67:J130" si="8">IF(EXACT(F67, ""), "", IF(EXACT(H67, ""), "Execute", SUBSTITUTE(H67, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="24"/>
       <c r="M67" s="6">
         <f t="shared" si="4"/>
         <v>256000000000066</v>
@@ -10136,7 +10167,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K68" s="4"/>
+      <c r="K68" s="23"/>
       <c r="M68" s="6">
         <f t="shared" ref="M68:M131" si="10">IF(ISNUMBER(M67), M67+1, 256000000000001)</f>
         <v>256000000000067</v>
@@ -10174,7 +10205,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K69" s="4"/>
+      <c r="K69" s="23"/>
       <c r="M69" s="6">
         <f t="shared" si="10"/>
         <v>256000000000068</v>
@@ -10212,7 +10243,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K70" s="4"/>
+      <c r="K70" s="23"/>
       <c r="M70" s="6">
         <f t="shared" si="10"/>
         <v>256000000000069</v>
@@ -10250,7 +10281,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K71" s="15"/>
+      <c r="K71" s="24"/>
       <c r="M71" s="6">
         <f t="shared" si="10"/>
         <v>256000000000070</v>
@@ -10288,7 +10319,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K72" s="4"/>
+      <c r="K72" s="23"/>
       <c r="M72" s="6">
         <f t="shared" si="10"/>
         <v>256000000000071</v>
@@ -10326,7 +10357,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K73" s="4"/>
+      <c r="K73" s="23"/>
       <c r="M73" s="6">
         <f t="shared" si="10"/>
         <v>256000000000072</v>
@@ -10364,7 +10395,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="K74" s="23"/>
       <c r="M74" s="6">
         <f t="shared" si="10"/>
         <v>256000000000073</v>
@@ -10402,7 +10433,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="24"/>
       <c r="M75" s="6">
         <f t="shared" si="10"/>
         <v>256000000000074</v>
@@ -10440,7 +10471,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K76" s="4"/>
+      <c r="K76" s="23"/>
       <c r="M76" s="6">
         <f t="shared" si="10"/>
         <v>256000000000075</v>
@@ -10478,7 +10509,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K77" s="4"/>
+      <c r="K77" s="23"/>
       <c r="M77" s="6">
         <f t="shared" si="10"/>
         <v>256000000000076</v>
@@ -10516,7 +10547,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K78" s="4"/>
+      <c r="K78" s="23"/>
       <c r="M78" s="6">
         <f t="shared" si="10"/>
         <v>256000000000077</v>
@@ -10554,7 +10585,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K79" s="15"/>
+      <c r="K79" s="24"/>
       <c r="M79" s="6">
         <f t="shared" si="10"/>
         <v>256000000000078</v>
@@ -10592,7 +10623,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K80" s="4"/>
+      <c r="K80" s="23"/>
       <c r="M80" s="6">
         <f t="shared" si="10"/>
         <v>256000000000079</v>
@@ -10630,7 +10661,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K81" s="4"/>
+      <c r="K81" s="23"/>
       <c r="M81" s="6">
         <f t="shared" si="10"/>
         <v>256000000000080</v>
@@ -10668,7 +10699,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K82" s="4"/>
+      <c r="K82" s="23"/>
       <c r="M82" s="6">
         <f t="shared" si="10"/>
         <v>256000000000081</v>
@@ -10706,7 +10737,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="24"/>
       <c r="M83" s="6">
         <f t="shared" si="10"/>
         <v>256000000000082</v>
@@ -10744,7 +10775,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K84" s="4"/>
+      <c r="K84" s="23"/>
       <c r="M84" s="6">
         <f t="shared" si="10"/>
         <v>256000000000083</v>
@@ -10782,7 +10813,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K85" s="4"/>
+      <c r="K85" s="23"/>
       <c r="M85" s="6">
         <f t="shared" si="10"/>
         <v>256000000000084</v>
@@ -10820,7 +10851,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K86" s="4"/>
+      <c r="K86" s="23"/>
       <c r="M86" s="6">
         <f t="shared" si="10"/>
         <v>256000000000085</v>
@@ -10858,7 +10889,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K87" s="15"/>
+      <c r="K87" s="24"/>
       <c r="M87" s="6">
         <f t="shared" si="10"/>
         <v>256000000000086</v>
@@ -10896,7 +10927,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="K88" s="23"/>
       <c r="M88" s="6">
         <f t="shared" si="10"/>
         <v>256000000000087</v>
@@ -10934,7 +10965,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K89" s="4"/>
+      <c r="K89" s="23"/>
       <c r="M89" s="6">
         <f t="shared" si="10"/>
         <v>256000000000088</v>
@@ -10972,7 +11003,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K90" s="4"/>
+      <c r="K90" s="23"/>
       <c r="M90" s="6">
         <f t="shared" si="10"/>
         <v>256000000000089</v>
@@ -11010,7 +11041,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K91" s="15"/>
+      <c r="K91" s="24"/>
       <c r="M91" s="6">
         <f t="shared" si="10"/>
         <v>256000000000090</v>
@@ -11048,7 +11079,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="23"/>
       <c r="M92" s="6">
         <f t="shared" si="10"/>
         <v>256000000000091</v>
@@ -11086,7 +11117,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K93" s="4"/>
+      <c r="K93" s="23"/>
       <c r="M93" s="6">
         <f t="shared" si="10"/>
         <v>256000000000092</v>
@@ -11124,7 +11155,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K94" s="4"/>
+      <c r="K94" s="23"/>
       <c r="M94" s="6">
         <f t="shared" si="10"/>
         <v>256000000000093</v>
@@ -11162,7 +11193,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K95" s="15"/>
+      <c r="K95" s="24"/>
       <c r="M95" s="6">
         <f t="shared" si="10"/>
         <v>256000000000094</v>
@@ -11200,7 +11231,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K96" s="4"/>
+      <c r="K96" s="23"/>
       <c r="M96" s="6">
         <f t="shared" si="10"/>
         <v>256000000000095</v>
@@ -11238,7 +11269,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K97" s="4"/>
+      <c r="K97" s="23"/>
       <c r="M97" s="6">
         <f t="shared" si="10"/>
         <v>256000000000096</v>
@@ -11276,7 +11307,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K98" s="4"/>
+      <c r="K98" s="23"/>
       <c r="M98" s="6">
         <f t="shared" si="10"/>
         <v>256000000000097</v>
@@ -11314,7 +11345,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K99" s="15"/>
+      <c r="K99" s="24"/>
       <c r="M99" s="6">
         <f t="shared" si="10"/>
         <v>256000000000098</v>
@@ -11352,7 +11383,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K100" s="4"/>
+      <c r="K100" s="23"/>
       <c r="M100" s="6">
         <f t="shared" si="10"/>
         <v>256000000000099</v>
@@ -11390,7 +11421,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K101" s="4"/>
+      <c r="K101" s="23"/>
       <c r="M101" s="6">
         <f t="shared" si="10"/>
         <v>256000000000100</v>
@@ -11428,7 +11459,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K102" s="4"/>
+      <c r="K102" s="23"/>
       <c r="M102" s="6">
         <f t="shared" si="10"/>
         <v>256000000000101</v>
@@ -11466,7 +11497,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K103" s="15"/>
+      <c r="K103" s="24"/>
       <c r="M103" s="6">
         <f t="shared" si="10"/>
         <v>256000000000102</v>
@@ -11504,7 +11535,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K104" s="4"/>
+      <c r="K104" s="23"/>
       <c r="M104" s="6">
         <f t="shared" si="10"/>
         <v>256000000000103</v>
@@ -11542,7 +11573,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K105" s="4"/>
+      <c r="K105" s="23"/>
       <c r="M105" s="6">
         <f t="shared" si="10"/>
         <v>256000000000104</v>
@@ -11580,7 +11611,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K106" s="4"/>
+      <c r="K106" s="23"/>
       <c r="M106" s="6">
         <f t="shared" si="10"/>
         <v>256000000000105</v>
@@ -11618,7 +11649,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K107" s="15"/>
+      <c r="K107" s="24"/>
       <c r="M107" s="6">
         <f t="shared" si="10"/>
         <v>256000000000106</v>
@@ -11656,7 +11687,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K108" s="4"/>
+      <c r="K108" s="23"/>
       <c r="M108" s="6">
         <f t="shared" si="10"/>
         <v>256000000000107</v>
@@ -11694,7 +11725,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K109" s="4"/>
+      <c r="K109" s="23"/>
       <c r="M109" s="6">
         <f t="shared" si="10"/>
         <v>256000000000108</v>
@@ -11732,7 +11763,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K110" s="4"/>
+      <c r="K110" s="23"/>
       <c r="M110" s="6">
         <f t="shared" si="10"/>
         <v>256000000000109</v>
@@ -11770,7 +11801,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K111" s="15"/>
+      <c r="K111" s="24"/>
       <c r="M111" s="6">
         <f t="shared" si="10"/>
         <v>256000000000110</v>
@@ -11808,7 +11839,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K112" s="4"/>
+      <c r="K112" s="23"/>
       <c r="M112" s="6">
         <f t="shared" si="10"/>
         <v>256000000000111</v>
@@ -11846,7 +11877,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K113" s="4"/>
+      <c r="K113" s="23"/>
       <c r="M113" s="6">
         <f t="shared" si="10"/>
         <v>256000000000112</v>
@@ -11884,7 +11915,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K114" s="4"/>
+      <c r="K114" s="23"/>
       <c r="M114" s="6">
         <f t="shared" si="10"/>
         <v>256000000000113</v>
@@ -11922,7 +11953,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K115" s="15"/>
+      <c r="K115" s="24"/>
       <c r="M115" s="6">
         <f t="shared" si="10"/>
         <v>256000000000114</v>
@@ -11960,7 +11991,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K116" s="4"/>
+      <c r="K116" s="23"/>
       <c r="M116" s="6">
         <f t="shared" si="10"/>
         <v>256000000000115</v>
@@ -11998,7 +12029,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K117" s="4"/>
+      <c r="K117" s="23"/>
       <c r="M117" s="6">
         <f t="shared" si="10"/>
         <v>256000000000116</v>
@@ -12036,7 +12067,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K118" s="4"/>
+      <c r="K118" s="23"/>
       <c r="M118" s="6">
         <f t="shared" si="10"/>
         <v>256000000000117</v>
@@ -12074,7 +12105,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K119" s="15"/>
+      <c r="K119" s="24"/>
       <c r="M119" s="6">
         <f t="shared" si="10"/>
         <v>256000000000118</v>
@@ -12112,7 +12143,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K120" s="4"/>
+      <c r="K120" s="23"/>
       <c r="M120" s="6">
         <f t="shared" si="10"/>
         <v>256000000000119</v>
@@ -12150,7 +12181,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K121" s="4"/>
+      <c r="K121" s="23"/>
       <c r="M121" s="6">
         <f t="shared" si="10"/>
         <v>256000000000120</v>
@@ -12188,7 +12219,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K122" s="4"/>
+      <c r="K122" s="23"/>
       <c r="M122" s="6">
         <f t="shared" si="10"/>
         <v>256000000000121</v>
@@ -12226,7 +12257,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K123" s="15"/>
+      <c r="K123" s="24"/>
       <c r="M123" s="6">
         <f t="shared" si="10"/>
         <v>256000000000122</v>
@@ -12264,7 +12295,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K124" s="4"/>
+      <c r="K124" s="23"/>
       <c r="M124" s="6">
         <f t="shared" si="10"/>
         <v>256000000000123</v>
@@ -12302,7 +12333,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K125" s="4"/>
+      <c r="K125" s="23"/>
       <c r="M125" s="6">
         <f t="shared" si="10"/>
         <v>256000000000124</v>
@@ -12340,7 +12371,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K126" s="4"/>
+      <c r="K126" s="23"/>
       <c r="M126" s="6">
         <f t="shared" si="10"/>
         <v>256000000000125</v>
@@ -12378,7 +12409,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K127" s="15"/>
+      <c r="K127" s="24"/>
       <c r="M127" s="6">
         <f t="shared" si="10"/>
         <v>256000000000126</v>
@@ -12416,7 +12447,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K128" s="4"/>
+      <c r="K128" s="23"/>
       <c r="M128" s="6">
         <f t="shared" si="10"/>
         <v>256000000000127</v>
@@ -12454,7 +12485,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K129" s="4"/>
+      <c r="K129" s="23"/>
       <c r="M129" s="6">
         <f t="shared" si="10"/>
         <v>256000000000128</v>
@@ -12492,7 +12523,7 @@
         <f t="shared" si="8"/>
         <v>Execute</v>
       </c>
-      <c r="K130" s="4"/>
+      <c r="K130" s="23"/>
       <c r="M130" s="6">
         <f t="shared" si="10"/>
         <v>256000000000129</v>
@@ -12530,7 +12561,7 @@
         <f t="shared" ref="J131:J194" si="14">IF(EXACT(F131, ""), "", IF(EXACT(H131, ""), "Execute", SUBSTITUTE(H131, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K131" s="15"/>
+      <c r="K131" s="24"/>
       <c r="M131" s="6">
         <f t="shared" si="10"/>
         <v>256000000000130</v>
@@ -12568,7 +12599,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K132" s="4"/>
+      <c r="K132" s="23"/>
       <c r="M132" s="6">
         <f t="shared" ref="M132:M195" si="16">IF(ISNUMBER(M131), M131+1, 256000000000001)</f>
         <v>256000000000131</v>
@@ -12606,7 +12637,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K133" s="4"/>
+      <c r="K133" s="23"/>
       <c r="M133" s="6">
         <f t="shared" si="16"/>
         <v>256000000000132</v>
@@ -12644,7 +12675,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K134" s="4"/>
+      <c r="K134" s="23"/>
       <c r="M134" s="6">
         <f t="shared" si="16"/>
         <v>256000000000133</v>
@@ -12682,7 +12713,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K135" s="15"/>
+      <c r="K135" s="24"/>
       <c r="M135" s="6">
         <f t="shared" si="16"/>
         <v>256000000000134</v>
@@ -12720,7 +12751,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K136" s="4"/>
+      <c r="K136" s="23"/>
       <c r="M136" s="6">
         <f t="shared" si="16"/>
         <v>256000000000135</v>
@@ -12758,7 +12789,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K137" s="4"/>
+      <c r="K137" s="23"/>
       <c r="M137" s="6">
         <f t="shared" si="16"/>
         <v>256000000000136</v>
@@ -12796,7 +12827,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K138" s="4"/>
+      <c r="K138" s="23"/>
       <c r="M138" s="6">
         <f t="shared" si="16"/>
         <v>256000000000137</v>
@@ -12834,7 +12865,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K139" s="15"/>
+      <c r="K139" s="24"/>
       <c r="M139" s="6">
         <f t="shared" si="16"/>
         <v>256000000000138</v>
@@ -12872,7 +12903,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K140" s="4"/>
+      <c r="K140" s="23"/>
       <c r="M140" s="6">
         <f t="shared" si="16"/>
         <v>256000000000139</v>
@@ -12910,7 +12941,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K141" s="4"/>
+      <c r="K141" s="23"/>
       <c r="M141" s="6">
         <f t="shared" si="16"/>
         <v>256000000000140</v>
@@ -12948,7 +12979,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K142" s="4"/>
+      <c r="K142" s="23"/>
       <c r="M142" s="6">
         <f t="shared" si="16"/>
         <v>256000000000141</v>
@@ -12986,7 +13017,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K143" s="15"/>
+      <c r="K143" s="24"/>
       <c r="M143" s="6">
         <f t="shared" si="16"/>
         <v>256000000000142</v>
@@ -13024,7 +13055,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K144" s="4"/>
+      <c r="K144" s="23"/>
       <c r="M144" s="6">
         <f t="shared" si="16"/>
         <v>256000000000143</v>
@@ -13062,7 +13093,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K145" s="4"/>
+      <c r="K145" s="23"/>
       <c r="M145" s="6">
         <f t="shared" si="16"/>
         <v>256000000000144</v>
@@ -13100,7 +13131,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K146" s="4"/>
+      <c r="K146" s="23"/>
       <c r="M146" s="6">
         <f t="shared" si="16"/>
         <v>256000000000145</v>
@@ -13138,7 +13169,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K147" s="15"/>
+      <c r="K147" s="24"/>
       <c r="M147" s="6">
         <f t="shared" si="16"/>
         <v>256000000000146</v>
@@ -13176,7 +13207,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K148" s="4"/>
+      <c r="K148" s="23"/>
       <c r="M148" s="6">
         <f t="shared" si="16"/>
         <v>256000000000147</v>
@@ -13214,7 +13245,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K149" s="4"/>
+      <c r="K149" s="23"/>
       <c r="M149" s="6">
         <f t="shared" si="16"/>
         <v>256000000000148</v>
@@ -13252,7 +13283,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K150" s="4"/>
+      <c r="K150" s="23"/>
       <c r="M150" s="6">
         <f t="shared" si="16"/>
         <v>256000000000149</v>
@@ -13290,7 +13321,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K151" s="15"/>
+      <c r="K151" s="24"/>
       <c r="M151" s="6">
         <f t="shared" si="16"/>
         <v>256000000000150</v>
@@ -13328,7 +13359,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K152" s="4"/>
+      <c r="K152" s="23"/>
       <c r="M152" s="6">
         <f t="shared" si="16"/>
         <v>256000000000151</v>
@@ -13366,7 +13397,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K153" s="4"/>
+      <c r="K153" s="23"/>
       <c r="M153" s="6">
         <f t="shared" si="16"/>
         <v>256000000000152</v>
@@ -13404,7 +13435,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K154" s="4"/>
+      <c r="K154" s="23"/>
       <c r="M154" s="6">
         <f t="shared" si="16"/>
         <v>256000000000153</v>
@@ -13442,7 +13473,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K155" s="15"/>
+      <c r="K155" s="24"/>
       <c r="M155" s="6">
         <f t="shared" si="16"/>
         <v>256000000000154</v>
@@ -13480,7 +13511,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K156" s="4"/>
+      <c r="K156" s="23"/>
       <c r="M156" s="6">
         <f t="shared" si="16"/>
         <v>256000000000155</v>
@@ -13518,7 +13549,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K157" s="4"/>
+      <c r="K157" s="23"/>
       <c r="M157" s="6">
         <f t="shared" si="16"/>
         <v>256000000000156</v>
@@ -13556,7 +13587,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K158" s="4"/>
+      <c r="K158" s="23"/>
       <c r="M158" s="6">
         <f t="shared" si="16"/>
         <v>256000000000157</v>
@@ -13594,7 +13625,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K159" s="15"/>
+      <c r="K159" s="24"/>
       <c r="M159" s="6">
         <f t="shared" si="16"/>
         <v>256000000000158</v>
@@ -13632,7 +13663,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K160" s="4"/>
+      <c r="K160" s="23"/>
       <c r="M160" s="6">
         <f t="shared" si="16"/>
         <v>256000000000159</v>
@@ -13670,7 +13701,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K161" s="4"/>
+      <c r="K161" s="23"/>
       <c r="M161" s="6">
         <f t="shared" si="16"/>
         <v>256000000000160</v>
@@ -13708,7 +13739,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K162" s="4"/>
+      <c r="K162" s="23"/>
       <c r="M162" s="6">
         <f t="shared" si="16"/>
         <v>256000000000161</v>
@@ -13746,7 +13777,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K163" s="15"/>
+      <c r="K163" s="24"/>
       <c r="M163" s="6">
         <f t="shared" si="16"/>
         <v>256000000000162</v>
@@ -13784,7 +13815,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K164" s="4"/>
+      <c r="K164" s="23"/>
       <c r="M164" s="6">
         <f t="shared" si="16"/>
         <v>256000000000163</v>
@@ -13822,7 +13853,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K165" s="4"/>
+      <c r="K165" s="23"/>
       <c r="M165" s="6">
         <f t="shared" si="16"/>
         <v>256000000000164</v>
@@ -13860,7 +13891,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K166" s="4"/>
+      <c r="K166" s="23"/>
       <c r="M166" s="6">
         <f t="shared" si="16"/>
         <v>256000000000165</v>
@@ -13898,7 +13929,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K167" s="15"/>
+      <c r="K167" s="24"/>
       <c r="M167" s="6">
         <f t="shared" si="16"/>
         <v>256000000000166</v>
@@ -13936,7 +13967,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K168" s="4"/>
+      <c r="K168" s="23"/>
       <c r="M168" s="6">
         <f t="shared" si="16"/>
         <v>256000000000167</v>
@@ -13974,7 +14005,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K169" s="4"/>
+      <c r="K169" s="23"/>
       <c r="M169" s="6">
         <f t="shared" si="16"/>
         <v>256000000000168</v>
@@ -14012,7 +14043,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K170" s="4"/>
+      <c r="K170" s="23"/>
       <c r="M170" s="6">
         <f t="shared" si="16"/>
         <v>256000000000169</v>
@@ -14050,7 +14081,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K171" s="15"/>
+      <c r="K171" s="24"/>
       <c r="M171" s="6">
         <f t="shared" si="16"/>
         <v>256000000000170</v>
@@ -14088,7 +14119,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K172" s="4"/>
+      <c r="K172" s="23"/>
       <c r="M172" s="6">
         <f t="shared" si="16"/>
         <v>256000000000171</v>
@@ -14126,7 +14157,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K173" s="4"/>
+      <c r="K173" s="23"/>
       <c r="M173" s="6">
         <f t="shared" si="16"/>
         <v>256000000000172</v>
@@ -14164,7 +14195,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K174" s="4"/>
+      <c r="K174" s="23"/>
       <c r="M174" s="6">
         <f t="shared" si="16"/>
         <v>256000000000173</v>
@@ -14202,7 +14233,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K175" s="15"/>
+      <c r="K175" s="24"/>
       <c r="M175" s="6">
         <f t="shared" si="16"/>
         <v>256000000000174</v>
@@ -14240,7 +14271,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K176" s="4"/>
+      <c r="K176" s="23"/>
       <c r="M176" s="6">
         <f t="shared" si="16"/>
         <v>256000000000175</v>
@@ -14278,7 +14309,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K177" s="4"/>
+      <c r="K177" s="23"/>
       <c r="M177" s="6">
         <f t="shared" si="16"/>
         <v>256000000000176</v>
@@ -14316,7 +14347,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K178" s="4"/>
+      <c r="K178" s="23"/>
       <c r="M178" s="6">
         <f t="shared" si="16"/>
         <v>256000000000177</v>
@@ -14354,7 +14385,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K179" s="15"/>
+      <c r="K179" s="24"/>
       <c r="M179" s="6">
         <f t="shared" si="16"/>
         <v>256000000000178</v>
@@ -14392,7 +14423,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K180" s="4"/>
+      <c r="K180" s="23"/>
       <c r="M180" s="6">
         <f t="shared" si="16"/>
         <v>256000000000179</v>
@@ -14430,7 +14461,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K181" s="4"/>
+      <c r="K181" s="23"/>
       <c r="M181" s="6">
         <f t="shared" si="16"/>
         <v>256000000000180</v>
@@ -14468,7 +14499,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K182" s="4"/>
+      <c r="K182" s="23"/>
       <c r="M182" s="6">
         <f t="shared" si="16"/>
         <v>256000000000181</v>
@@ -14506,7 +14537,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K183" s="15"/>
+      <c r="K183" s="24"/>
       <c r="M183" s="6">
         <f t="shared" si="16"/>
         <v>256000000000182</v>
@@ -14544,7 +14575,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K184" s="4"/>
+      <c r="K184" s="23"/>
       <c r="M184" s="6">
         <f t="shared" si="16"/>
         <v>256000000000183</v>
@@ -14582,7 +14613,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K185" s="4"/>
+      <c r="K185" s="23"/>
       <c r="M185" s="6">
         <f t="shared" si="16"/>
         <v>256000000000184</v>
@@ -14620,7 +14651,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K186" s="4"/>
+      <c r="K186" s="23"/>
       <c r="M186" s="6">
         <f t="shared" si="16"/>
         <v>256000000000185</v>
@@ -14658,7 +14689,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K187" s="15"/>
+      <c r="K187" s="24"/>
       <c r="M187" s="6">
         <f t="shared" si="16"/>
         <v>256000000000186</v>
@@ -14696,7 +14727,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K188" s="4"/>
+      <c r="K188" s="23"/>
       <c r="M188" s="6">
         <f t="shared" si="16"/>
         <v>256000000000187</v>
@@ -14734,7 +14765,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K189" s="4"/>
+      <c r="K189" s="23"/>
       <c r="M189" s="6">
         <f t="shared" si="16"/>
         <v>256000000000188</v>
@@ -14772,7 +14803,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K190" s="4"/>
+      <c r="K190" s="23"/>
       <c r="M190" s="6">
         <f t="shared" si="16"/>
         <v>256000000000189</v>
@@ -14810,7 +14841,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K191" s="15"/>
+      <c r="K191" s="24"/>
       <c r="M191" s="6">
         <f t="shared" si="16"/>
         <v>256000000000190</v>
@@ -14848,7 +14879,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K192" s="4"/>
+      <c r="K192" s="23"/>
       <c r="M192" s="6">
         <f t="shared" si="16"/>
         <v>256000000000191</v>
@@ -14886,7 +14917,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K193" s="4"/>
+      <c r="K193" s="23"/>
       <c r="M193" s="6">
         <f t="shared" si="16"/>
         <v>256000000000192</v>
@@ -14924,7 +14955,7 @@
         <f t="shared" si="14"/>
         <v>Execute</v>
       </c>
-      <c r="K194" s="4"/>
+      <c r="K194" s="23"/>
       <c r="M194" s="6">
         <f t="shared" si="16"/>
         <v>256000000000193</v>
@@ -14962,7 +14993,7 @@
         <f t="shared" ref="J195:J258" si="20">IF(EXACT(F195, ""), "", IF(EXACT(H195, ""), "Execute", SUBSTITUTE(H195, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K195" s="15"/>
+      <c r="K195" s="24"/>
       <c r="M195" s="6">
         <f t="shared" si="16"/>
         <v>256000000000194</v>
@@ -15000,7 +15031,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K196" s="4"/>
+      <c r="K196" s="23"/>
       <c r="M196" s="6">
         <f t="shared" ref="M196:M259" si="22">IF(ISNUMBER(M195), M195+1, 256000000000001)</f>
         <v>256000000000195</v>
@@ -15038,7 +15069,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K197" s="4"/>
+      <c r="K197" s="23"/>
       <c r="M197" s="6">
         <f t="shared" si="22"/>
         <v>256000000000196</v>
@@ -15076,7 +15107,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K198" s="4"/>
+      <c r="K198" s="23"/>
       <c r="M198" s="6">
         <f t="shared" si="22"/>
         <v>256000000000197</v>
@@ -15114,7 +15145,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K199" s="15"/>
+      <c r="K199" s="24"/>
       <c r="M199" s="6">
         <f t="shared" si="22"/>
         <v>256000000000198</v>
@@ -15152,7 +15183,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K200" s="4"/>
+      <c r="K200" s="23"/>
       <c r="M200" s="6">
         <f t="shared" si="22"/>
         <v>256000000000199</v>
@@ -15190,7 +15221,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K201" s="4"/>
+      <c r="K201" s="23"/>
       <c r="M201" s="6">
         <f t="shared" si="22"/>
         <v>256000000000200</v>
@@ -15228,7 +15259,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K202" s="4"/>
+      <c r="K202" s="23"/>
       <c r="M202" s="6">
         <f t="shared" si="22"/>
         <v>256000000000201</v>
@@ -15266,7 +15297,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K203" s="15"/>
+      <c r="K203" s="24"/>
       <c r="M203" s="6">
         <f t="shared" si="22"/>
         <v>256000000000202</v>
@@ -15304,7 +15335,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K204" s="4"/>
+      <c r="K204" s="23"/>
       <c r="M204" s="6">
         <f t="shared" si="22"/>
         <v>256000000000203</v>
@@ -15342,7 +15373,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K205" s="4"/>
+      <c r="K205" s="23"/>
       <c r="M205" s="6">
         <f t="shared" si="22"/>
         <v>256000000000204</v>
@@ -15380,7 +15411,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K206" s="4"/>
+      <c r="K206" s="23"/>
       <c r="M206" s="6">
         <f t="shared" si="22"/>
         <v>256000000000205</v>
@@ -15418,7 +15449,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K207" s="15"/>
+      <c r="K207" s="24"/>
       <c r="M207" s="6">
         <f t="shared" si="22"/>
         <v>256000000000206</v>
@@ -15456,7 +15487,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K208" s="4"/>
+      <c r="K208" s="23"/>
       <c r="M208" s="6">
         <f t="shared" si="22"/>
         <v>256000000000207</v>
@@ -15494,7 +15525,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K209" s="4"/>
+      <c r="K209" s="23"/>
       <c r="M209" s="6">
         <f t="shared" si="22"/>
         <v>256000000000208</v>
@@ -15532,7 +15563,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K210" s="4"/>
+      <c r="K210" s="23"/>
       <c r="M210" s="6">
         <f t="shared" si="22"/>
         <v>256000000000209</v>
@@ -15570,7 +15601,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K211" s="15"/>
+      <c r="K211" s="24"/>
       <c r="M211" s="6">
         <f t="shared" si="22"/>
         <v>256000000000210</v>
@@ -15608,7 +15639,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K212" s="4"/>
+      <c r="K212" s="23"/>
       <c r="M212" s="6">
         <f t="shared" si="22"/>
         <v>256000000000211</v>
@@ -15646,7 +15677,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K213" s="4"/>
+      <c r="K213" s="23"/>
       <c r="M213" s="6">
         <f t="shared" si="22"/>
         <v>256000000000212</v>
@@ -15684,7 +15715,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K214" s="4"/>
+      <c r="K214" s="23"/>
       <c r="M214" s="6">
         <f t="shared" si="22"/>
         <v>256000000000213</v>
@@ -15722,7 +15753,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K215" s="15"/>
+      <c r="K215" s="24"/>
       <c r="M215" s="6">
         <f t="shared" si="22"/>
         <v>256000000000214</v>
@@ -15760,7 +15791,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K216" s="4"/>
+      <c r="K216" s="23"/>
       <c r="M216" s="6">
         <f t="shared" si="22"/>
         <v>256000000000215</v>
@@ -15798,7 +15829,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K217" s="4"/>
+      <c r="K217" s="23"/>
       <c r="M217" s="6">
         <f t="shared" si="22"/>
         <v>256000000000216</v>
@@ -15836,7 +15867,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K218" s="4"/>
+      <c r="K218" s="23"/>
       <c r="M218" s="6">
         <f t="shared" si="22"/>
         <v>256000000000217</v>
@@ -15874,7 +15905,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K219" s="15"/>
+      <c r="K219" s="24"/>
       <c r="M219" s="6">
         <f t="shared" si="22"/>
         <v>256000000000218</v>
@@ -15912,7 +15943,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K220" s="4"/>
+      <c r="K220" s="23"/>
       <c r="M220" s="6">
         <f t="shared" si="22"/>
         <v>256000000000219</v>
@@ -15950,7 +15981,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K221" s="4"/>
+      <c r="K221" s="23"/>
       <c r="M221" s="6">
         <f t="shared" si="22"/>
         <v>256000000000220</v>
@@ -15988,7 +16019,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K222" s="4"/>
+      <c r="K222" s="23"/>
       <c r="M222" s="6">
         <f t="shared" si="22"/>
         <v>256000000000221</v>
@@ -16026,7 +16057,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K223" s="15"/>
+      <c r="K223" s="24"/>
       <c r="M223" s="6">
         <f t="shared" si="22"/>
         <v>256000000000222</v>
@@ -16064,7 +16095,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K224" s="4"/>
+      <c r="K224" s="23"/>
       <c r="M224" s="6">
         <f t="shared" si="22"/>
         <v>256000000000223</v>
@@ -16102,7 +16133,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K225" s="4"/>
+      <c r="K225" s="23"/>
       <c r="M225" s="6">
         <f t="shared" si="22"/>
         <v>256000000000224</v>
@@ -16140,7 +16171,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K226" s="4"/>
+      <c r="K226" s="23"/>
       <c r="M226" s="6">
         <f t="shared" si="22"/>
         <v>256000000000225</v>
@@ -16178,7 +16209,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K227" s="15"/>
+      <c r="K227" s="24"/>
       <c r="M227" s="6">
         <f t="shared" si="22"/>
         <v>256000000000226</v>
@@ -16216,7 +16247,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K228" s="4"/>
+      <c r="K228" s="23"/>
       <c r="M228" s="6">
         <f t="shared" si="22"/>
         <v>256000000000227</v>
@@ -16254,7 +16285,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K229" s="4"/>
+      <c r="K229" s="23"/>
       <c r="M229" s="6">
         <f t="shared" si="22"/>
         <v>256000000000228</v>
@@ -16292,7 +16323,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K230" s="4"/>
+      <c r="K230" s="23"/>
       <c r="M230" s="6">
         <f t="shared" si="22"/>
         <v>256000000000229</v>
@@ -16330,7 +16361,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K231" s="15"/>
+      <c r="K231" s="24"/>
       <c r="M231" s="6">
         <f t="shared" si="22"/>
         <v>256000000000230</v>
@@ -16368,7 +16399,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K232" s="4"/>
+      <c r="K232" s="23"/>
       <c r="M232" s="6">
         <f t="shared" si="22"/>
         <v>256000000000231</v>
@@ -16406,7 +16437,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K233" s="4"/>
+      <c r="K233" s="23"/>
       <c r="M233" s="6">
         <f t="shared" si="22"/>
         <v>256000000000232</v>
@@ -16444,7 +16475,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K234" s="4"/>
+      <c r="K234" s="23"/>
       <c r="M234" s="6">
         <f t="shared" si="22"/>
         <v>256000000000233</v>
@@ -16482,7 +16513,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K235" s="15"/>
+      <c r="K235" s="24"/>
       <c r="M235" s="6">
         <f t="shared" si="22"/>
         <v>256000000000234</v>
@@ -16520,7 +16551,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K236" s="4"/>
+      <c r="K236" s="23"/>
       <c r="M236" s="6">
         <f t="shared" si="22"/>
         <v>256000000000235</v>
@@ -16558,7 +16589,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K237" s="4"/>
+      <c r="K237" s="23"/>
       <c r="M237" s="6">
         <f t="shared" si="22"/>
         <v>256000000000236</v>
@@ -16596,7 +16627,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K238" s="4"/>
+      <c r="K238" s="23"/>
       <c r="M238" s="6">
         <f t="shared" si="22"/>
         <v>256000000000237</v>
@@ -16634,7 +16665,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K239" s="15"/>
+      <c r="K239" s="24"/>
       <c r="M239" s="6">
         <f t="shared" si="22"/>
         <v>256000000000238</v>
@@ -16672,7 +16703,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K240" s="4"/>
+      <c r="K240" s="23"/>
       <c r="M240" s="6">
         <f t="shared" si="22"/>
         <v>256000000000239</v>
@@ -16710,7 +16741,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K241" s="4"/>
+      <c r="K241" s="23"/>
       <c r="M241" s="6">
         <f t="shared" si="22"/>
         <v>256000000000240</v>
@@ -16748,7 +16779,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K242" s="4"/>
+      <c r="K242" s="23"/>
       <c r="M242" s="6">
         <f t="shared" si="22"/>
         <v>256000000000241</v>
@@ -16786,7 +16817,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K243" s="15"/>
+      <c r="K243" s="24"/>
       <c r="M243" s="6">
         <f t="shared" si="22"/>
         <v>256000000000242</v>
@@ -16824,7 +16855,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K244" s="4"/>
+      <c r="K244" s="23"/>
       <c r="M244" s="6">
         <f t="shared" si="22"/>
         <v>256000000000243</v>
@@ -16862,7 +16893,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K245" s="4"/>
+      <c r="K245" s="23"/>
       <c r="M245" s="6">
         <f t="shared" si="22"/>
         <v>256000000000244</v>
@@ -16900,7 +16931,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K246" s="4"/>
+      <c r="K246" s="23"/>
       <c r="M246" s="6">
         <f t="shared" si="22"/>
         <v>256000000000245</v>
@@ -16938,7 +16969,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K247" s="15"/>
+      <c r="K247" s="24"/>
       <c r="M247" s="6">
         <f t="shared" si="22"/>
         <v>256000000000246</v>
@@ -16976,7 +17007,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K248" s="4"/>
+      <c r="K248" s="23"/>
       <c r="M248" s="6">
         <f t="shared" si="22"/>
         <v>256000000000247</v>
@@ -17014,7 +17045,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K249" s="4"/>
+      <c r="K249" s="23"/>
       <c r="M249" s="6">
         <f t="shared" si="22"/>
         <v>256000000000248</v>
@@ -17052,7 +17083,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K250" s="4"/>
+      <c r="K250" s="23"/>
       <c r="M250" s="6">
         <f t="shared" si="22"/>
         <v>256000000000249</v>
@@ -17090,7 +17121,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K251" s="15"/>
+      <c r="K251" s="24"/>
       <c r="M251" s="6">
         <f t="shared" si="22"/>
         <v>256000000000250</v>
@@ -17128,7 +17159,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K252" s="4"/>
+      <c r="K252" s="23"/>
       <c r="M252" s="6">
         <f t="shared" si="22"/>
         <v>256000000000251</v>
@@ -17166,7 +17197,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K253" s="4"/>
+      <c r="K253" s="23"/>
       <c r="M253" s="6">
         <f t="shared" si="22"/>
         <v>256000000000252</v>
@@ -17204,7 +17235,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K254" s="4"/>
+      <c r="K254" s="23"/>
       <c r="M254" s="6">
         <f t="shared" si="22"/>
         <v>256000000000253</v>
@@ -17242,7 +17273,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K255" s="15"/>
+      <c r="K255" s="24"/>
       <c r="M255" s="6">
         <f t="shared" si="22"/>
         <v>256000000000254</v>
@@ -17280,7 +17311,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K256" s="4"/>
+      <c r="K256" s="23"/>
       <c r="M256" s="6">
         <f t="shared" si="22"/>
         <v>256000000000255</v>
@@ -17318,7 +17349,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K257" s="4"/>
+      <c r="K257" s="23"/>
       <c r="M257" s="6">
         <f t="shared" si="22"/>
         <v>256000000000256</v>
@@ -17356,7 +17387,7 @@
         <f t="shared" si="20"/>
         <v>Execute</v>
       </c>
-      <c r="K258" s="4"/>
+      <c r="K258" s="23"/>
       <c r="M258" s="6">
         <f t="shared" si="22"/>
         <v>256000000000257</v>
@@ -17394,7 +17425,7 @@
         <f t="shared" ref="J259:J322" si="26">IF(EXACT(F259, ""), "", IF(EXACT(H259, ""), "Execute", SUBSTITUTE(H259, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K259" s="15"/>
+      <c r="K259" s="24"/>
       <c r="M259" s="6">
         <f t="shared" si="22"/>
         <v>256000000000258</v>
@@ -17432,7 +17463,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K260" s="4"/>
+      <c r="K260" s="23"/>
       <c r="M260" s="6">
         <f t="shared" ref="M260:M323" si="28">IF(ISNUMBER(M259), M259+1, 256000000000001)</f>
         <v>256000000000259</v>
@@ -17470,7 +17501,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K261" s="4"/>
+      <c r="K261" s="23"/>
       <c r="M261" s="6">
         <f t="shared" si="28"/>
         <v>256000000000260</v>
@@ -17508,7 +17539,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K262" s="4"/>
+      <c r="K262" s="23"/>
       <c r="M262" s="6">
         <f t="shared" si="28"/>
         <v>256000000000261</v>
@@ -17546,7 +17577,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K263" s="15"/>
+      <c r="K263" s="24"/>
       <c r="M263" s="6">
         <f t="shared" si="28"/>
         <v>256000000000262</v>
@@ -17584,7 +17615,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K264" s="4"/>
+      <c r="K264" s="23"/>
       <c r="M264" s="6">
         <f t="shared" si="28"/>
         <v>256000000000263</v>
@@ -17622,7 +17653,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K265" s="4"/>
+      <c r="K265" s="23"/>
       <c r="M265" s="6">
         <f t="shared" si="28"/>
         <v>256000000000264</v>
@@ -17660,7 +17691,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K266" s="4"/>
+      <c r="K266" s="23"/>
       <c r="M266" s="6">
         <f t="shared" si="28"/>
         <v>256000000000265</v>
@@ -17698,7 +17729,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K267" s="15"/>
+      <c r="K267" s="24"/>
       <c r="M267" s="6">
         <f t="shared" si="28"/>
         <v>256000000000266</v>
@@ -17736,7 +17767,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K268" s="4"/>
+      <c r="K268" s="23"/>
       <c r="M268" s="6">
         <f t="shared" si="28"/>
         <v>256000000000267</v>
@@ -17774,7 +17805,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K269" s="4"/>
+      <c r="K269" s="23"/>
       <c r="M269" s="6">
         <f t="shared" si="28"/>
         <v>256000000000268</v>
@@ -17812,7 +17843,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K270" s="4"/>
+      <c r="K270" s="23"/>
       <c r="M270" s="6">
         <f t="shared" si="28"/>
         <v>256000000000269</v>
@@ -17850,7 +17881,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K271" s="15"/>
+      <c r="K271" s="24"/>
       <c r="M271" s="6">
         <f t="shared" si="28"/>
         <v>256000000000270</v>
@@ -17888,7 +17919,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K272" s="4"/>
+      <c r="K272" s="23"/>
       <c r="M272" s="6">
         <f t="shared" si="28"/>
         <v>256000000000271</v>
@@ -17926,7 +17957,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K273" s="4"/>
+      <c r="K273" s="23"/>
       <c r="M273" s="6">
         <f t="shared" si="28"/>
         <v>256000000000272</v>
@@ -17964,7 +17995,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K274" s="4"/>
+      <c r="K274" s="23"/>
       <c r="M274" s="6">
         <f t="shared" si="28"/>
         <v>256000000000273</v>
@@ -18002,7 +18033,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K275" s="15"/>
+      <c r="K275" s="24"/>
       <c r="M275" s="6">
         <f t="shared" si="28"/>
         <v>256000000000274</v>
@@ -18040,7 +18071,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K276" s="4"/>
+      <c r="K276" s="23"/>
       <c r="M276" s="6">
         <f t="shared" si="28"/>
         <v>256000000000275</v>
@@ -18078,7 +18109,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K277" s="4"/>
+      <c r="K277" s="23"/>
       <c r="M277" s="6">
         <f t="shared" si="28"/>
         <v>256000000000276</v>
@@ -18116,7 +18147,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K278" s="4"/>
+      <c r="K278" s="23"/>
       <c r="M278" s="6">
         <f t="shared" si="28"/>
         <v>256000000000277</v>
@@ -18154,7 +18185,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K279" s="15"/>
+      <c r="K279" s="24"/>
       <c r="M279" s="6">
         <f t="shared" si="28"/>
         <v>256000000000278</v>
@@ -18192,7 +18223,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K280" s="4"/>
+      <c r="K280" s="23"/>
       <c r="M280" s="6">
         <f t="shared" si="28"/>
         <v>256000000000279</v>
@@ -18230,7 +18261,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K281" s="4"/>
+      <c r="K281" s="23"/>
       <c r="M281" s="6">
         <f t="shared" si="28"/>
         <v>256000000000280</v>
@@ -18268,7 +18299,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K282" s="4"/>
+      <c r="K282" s="23"/>
       <c r="M282" s="6">
         <f t="shared" si="28"/>
         <v>256000000000281</v>
@@ -18306,7 +18337,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K283" s="15"/>
+      <c r="K283" s="24"/>
       <c r="M283" s="6">
         <f t="shared" si="28"/>
         <v>256000000000282</v>
@@ -18344,7 +18375,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K284" s="21"/>
+      <c r="K284" s="25"/>
       <c r="M284" s="6">
         <f t="shared" si="28"/>
         <v>256000000000283</v>
@@ -18382,7 +18413,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K285" s="21"/>
+      <c r="K285" s="25"/>
       <c r="M285" s="6">
         <f t="shared" si="28"/>
         <v>256000000000284</v>
@@ -18422,7 +18453,7 @@
         <f t="shared" si="26"/>
         <v>GeneralLedger</v>
       </c>
-      <c r="K286" s="4"/>
+      <c r="K286" s="23"/>
       <c r="M286" s="6">
         <f t="shared" si="28"/>
         <v>256000000000285</v>
@@ -18447,7 +18478,7 @@
       </c>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="4"/>
+      <c r="K287" s="23"/>
       <c r="M287" s="6">
         <f t="shared" si="28"/>
         <v>256000000000286</v>
@@ -18472,7 +18503,7 @@
       </c>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="4"/>
+      <c r="K288" s="23"/>
       <c r="M288" s="6">
         <f t="shared" si="28"/>
         <v>256000000000287</v>
@@ -18497,7 +18528,7 @@
       </c>
       <c r="I289" s="11"/>
       <c r="J289" s="11"/>
-      <c r="K289" s="15"/>
+      <c r="K289" s="24"/>
       <c r="M289" s="6">
         <f t="shared" si="28"/>
         <v>256000000000288</v>
@@ -18535,7 +18566,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K290" s="4"/>
+      <c r="K290" s="23"/>
       <c r="M290" s="6">
         <f t="shared" si="28"/>
         <v>256000000000289</v>
@@ -18573,7 +18604,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K291" s="4"/>
+      <c r="K291" s="23"/>
       <c r="M291" s="6">
         <f t="shared" si="28"/>
         <v>256000000000290</v>
@@ -18611,7 +18642,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K292" s="4"/>
+      <c r="K292" s="23"/>
       <c r="M292" s="6">
         <f t="shared" si="28"/>
         <v>256000000000291</v>
@@ -18649,7 +18680,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K293" s="15"/>
+      <c r="K293" s="24"/>
       <c r="M293" s="6">
         <f t="shared" si="28"/>
         <v>256000000000292</v>
@@ -18687,7 +18718,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K294" s="4"/>
+      <c r="K294" s="23"/>
       <c r="M294" s="6">
         <f t="shared" si="28"/>
         <v>256000000000293</v>
@@ -18725,7 +18756,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K295" s="4"/>
+      <c r="K295" s="23"/>
       <c r="M295" s="6">
         <f t="shared" si="28"/>
         <v>256000000000294</v>
@@ -18763,7 +18794,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K296" s="4"/>
+      <c r="K296" s="23"/>
       <c r="M296" s="6">
         <f t="shared" si="28"/>
         <v>256000000000295</v>
@@ -18801,7 +18832,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K297" s="15"/>
+      <c r="K297" s="24"/>
       <c r="M297" s="6">
         <f t="shared" si="28"/>
         <v>256000000000296</v>
@@ -18839,7 +18870,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K298" s="4"/>
+      <c r="K298" s="23"/>
       <c r="M298" s="6">
         <f t="shared" si="28"/>
         <v>256000000000297</v>
@@ -18877,7 +18908,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K299" s="4"/>
+      <c r="K299" s="23"/>
       <c r="M299" s="6">
         <f t="shared" si="28"/>
         <v>256000000000298</v>
@@ -18915,7 +18946,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K300" s="4"/>
+      <c r="K300" s="23"/>
       <c r="M300" s="6">
         <f t="shared" si="28"/>
         <v>256000000000299</v>
@@ -18953,7 +18984,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K301" s="15"/>
+      <c r="K301" s="24"/>
       <c r="M301" s="6">
         <f t="shared" si="28"/>
         <v>256000000000300</v>
@@ -18991,7 +19022,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K302" s="4"/>
+      <c r="K302" s="23"/>
       <c r="M302" s="6">
         <f t="shared" si="28"/>
         <v>256000000000301</v>
@@ -19029,7 +19060,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K303" s="4"/>
+      <c r="K303" s="23"/>
       <c r="M303" s="6">
         <f t="shared" si="28"/>
         <v>256000000000302</v>
@@ -19067,7 +19098,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K304" s="4"/>
+      <c r="K304" s="23"/>
       <c r="M304" s="6">
         <f t="shared" si="28"/>
         <v>256000000000303</v>
@@ -19105,7 +19136,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K305" s="15"/>
+      <c r="K305" s="24"/>
       <c r="M305" s="6">
         <f t="shared" si="28"/>
         <v>256000000000304</v>
@@ -19143,7 +19174,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K306" s="4"/>
+      <c r="K306" s="23"/>
       <c r="M306" s="6">
         <f t="shared" si="28"/>
         <v>256000000000305</v>
@@ -19181,7 +19212,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K307" s="4"/>
+      <c r="K307" s="23"/>
       <c r="M307" s="6">
         <f t="shared" si="28"/>
         <v>256000000000306</v>
@@ -19219,7 +19250,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K308" s="4"/>
+      <c r="K308" s="23"/>
       <c r="M308" s="6">
         <f t="shared" si="28"/>
         <v>256000000000307</v>
@@ -19257,7 +19288,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K309" s="15"/>
+      <c r="K309" s="24"/>
       <c r="M309" s="6">
         <f t="shared" si="28"/>
         <v>256000000000308</v>
@@ -19295,7 +19326,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K310" s="4"/>
+      <c r="K310" s="23"/>
       <c r="M310" s="6">
         <f t="shared" si="28"/>
         <v>256000000000309</v>
@@ -19333,7 +19364,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K311" s="4"/>
+      <c r="K311" s="23"/>
       <c r="M311" s="6">
         <f t="shared" si="28"/>
         <v>256000000000310</v>
@@ -19371,7 +19402,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K312" s="4"/>
+      <c r="K312" s="23"/>
       <c r="M312" s="6">
         <f t="shared" si="28"/>
         <v>256000000000311</v>
@@ -19409,7 +19440,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K313" s="15"/>
+      <c r="K313" s="24"/>
       <c r="M313" s="6">
         <f t="shared" si="28"/>
         <v>256000000000312</v>
@@ -19447,7 +19478,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K314" s="4"/>
+      <c r="K314" s="23"/>
       <c r="M314" s="6">
         <f t="shared" si="28"/>
         <v>256000000000313</v>
@@ -19485,7 +19516,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K315" s="4"/>
+      <c r="K315" s="23"/>
       <c r="M315" s="6">
         <f t="shared" si="28"/>
         <v>256000000000314</v>
@@ -19523,7 +19554,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K316" s="4"/>
+      <c r="K316" s="23"/>
       <c r="M316" s="6">
         <f t="shared" si="28"/>
         <v>256000000000315</v>
@@ -19561,7 +19592,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K317" s="15"/>
+      <c r="K317" s="24"/>
       <c r="M317" s="6">
         <f t="shared" si="28"/>
         <v>256000000000316</v>
@@ -19599,7 +19630,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K318" s="4"/>
+      <c r="K318" s="23"/>
       <c r="M318" s="6">
         <f t="shared" si="28"/>
         <v>256000000000317</v>
@@ -19637,7 +19668,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K319" s="4"/>
+      <c r="K319" s="23"/>
       <c r="M319" s="6">
         <f t="shared" si="28"/>
         <v>256000000000318</v>
@@ -19675,7 +19706,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K320" s="4"/>
+      <c r="K320" s="23"/>
       <c r="M320" s="6">
         <f t="shared" si="28"/>
         <v>256000000000319</v>
@@ -19713,7 +19744,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K321" s="15"/>
+      <c r="K321" s="24"/>
       <c r="M321" s="6">
         <f t="shared" si="28"/>
         <v>256000000000320</v>
@@ -19751,7 +19782,7 @@
         <f t="shared" si="26"/>
         <v>Execute</v>
       </c>
-      <c r="K322" s="4"/>
+      <c r="K322" s="23"/>
       <c r="M322" s="6">
         <f t="shared" si="28"/>
         <v>256000000000321</v>
@@ -19789,7 +19820,7 @@
         <f t="shared" ref="J323:J386" si="32">IF(EXACT(F323, ""), "", IF(EXACT(H323, ""), "Execute", SUBSTITUTE(H323, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K323" s="4"/>
+      <c r="K323" s="23"/>
       <c r="M323" s="6">
         <f t="shared" si="28"/>
         <v>256000000000322</v>
@@ -19827,7 +19858,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K324" s="4"/>
+      <c r="K324" s="23"/>
       <c r="M324" s="6">
         <f t="shared" ref="M324:M387" si="34">IF(ISNUMBER(M323), M323+1, 256000000000001)</f>
         <v>256000000000323</v>
@@ -19865,7 +19896,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K325" s="15"/>
+      <c r="K325" s="24"/>
       <c r="M325" s="6">
         <f t="shared" si="34"/>
         <v>256000000000324</v>
@@ -19903,7 +19934,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K326" s="4"/>
+      <c r="K326" s="23"/>
       <c r="M326" s="6">
         <f t="shared" si="34"/>
         <v>256000000000325</v>
@@ -19941,7 +19972,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K327" s="4"/>
+      <c r="K327" s="23"/>
       <c r="M327" s="6">
         <f t="shared" si="34"/>
         <v>256000000000326</v>
@@ -19979,7 +20010,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K328" s="4"/>
+      <c r="K328" s="23"/>
       <c r="M328" s="6">
         <f t="shared" si="34"/>
         <v>256000000000327</v>
@@ -20017,7 +20048,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K329" s="15"/>
+      <c r="K329" s="24"/>
       <c r="M329" s="6">
         <f t="shared" si="34"/>
         <v>256000000000328</v>
@@ -20055,7 +20086,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K330" s="4"/>
+      <c r="K330" s="23"/>
       <c r="M330" s="6">
         <f t="shared" si="34"/>
         <v>256000000000329</v>
@@ -20093,7 +20124,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K331" s="4"/>
+      <c r="K331" s="23"/>
       <c r="M331" s="6">
         <f t="shared" si="34"/>
         <v>256000000000330</v>
@@ -20131,7 +20162,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K332" s="4"/>
+      <c r="K332" s="23"/>
       <c r="M332" s="6">
         <f t="shared" si="34"/>
         <v>256000000000331</v>
@@ -20169,7 +20200,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K333" s="15"/>
+      <c r="K333" s="24"/>
       <c r="M333" s="6">
         <f t="shared" si="34"/>
         <v>256000000000332</v>
@@ -20207,7 +20238,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K334" s="4"/>
+      <c r="K334" s="23"/>
       <c r="M334" s="6">
         <f t="shared" si="34"/>
         <v>256000000000333</v>
@@ -20245,7 +20276,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K335" s="4"/>
+      <c r="K335" s="23"/>
       <c r="M335" s="6">
         <f t="shared" si="34"/>
         <v>256000000000334</v>
@@ -20283,7 +20314,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K336" s="4"/>
+      <c r="K336" s="23"/>
       <c r="M336" s="6">
         <f t="shared" si="34"/>
         <v>256000000000335</v>
@@ -20321,7 +20352,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K337" s="15"/>
+      <c r="K337" s="24"/>
       <c r="M337" s="6">
         <f t="shared" si="34"/>
         <v>256000000000336</v>
@@ -20359,7 +20390,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K338" s="4" t="s">
+      <c r="K338" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M338" s="6">
@@ -20401,7 +20432,7 @@
         <f t="shared" si="32"/>
         <v>AdvanceReportDetail</v>
       </c>
-      <c r="K339" s="4" t="s">
+      <c r="K339" s="23" t="s">
         <v>11</v>
       </c>
       <c r="M339" s="6">
@@ -20443,7 +20474,7 @@
         <f t="shared" si="32"/>
         <v>AdvanceSummary</v>
       </c>
-      <c r="K340" s="4" t="s">
+      <c r="K340" s="23" t="s">
         <v>9</v>
       </c>
       <c r="M340" s="6">
@@ -20483,7 +20514,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K341" s="15"/>
+      <c r="K341" s="24"/>
       <c r="M341" s="6">
         <f t="shared" si="34"/>
         <v>256000000000340</v>
@@ -20521,7 +20552,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K342" s="4"/>
+      <c r="K342" s="23"/>
       <c r="M342" s="6">
         <f t="shared" si="34"/>
         <v>256000000000341</v>
@@ -20559,7 +20590,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K343" s="4"/>
+      <c r="K343" s="23"/>
       <c r="M343" s="6">
         <f t="shared" si="34"/>
         <v>256000000000342</v>
@@ -20597,7 +20628,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K344" s="4"/>
+      <c r="K344" s="23"/>
       <c r="M344" s="6">
         <f t="shared" si="34"/>
         <v>256000000000343</v>
@@ -20635,7 +20666,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K345" s="15"/>
+      <c r="K345" s="24"/>
       <c r="M345" s="6">
         <f t="shared" si="34"/>
         <v>256000000000344</v>
@@ -20673,7 +20704,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K346" s="4" t="s">
+      <c r="K346" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M346" s="6">
@@ -20713,7 +20744,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K347" s="4"/>
+      <c r="K347" s="23"/>
       <c r="M347" s="6">
         <f t="shared" si="34"/>
         <v>256000000000346</v>
@@ -20751,7 +20782,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K348" s="4"/>
+      <c r="K348" s="23"/>
       <c r="M348" s="6">
         <f t="shared" si="34"/>
         <v>256000000000347</v>
@@ -20789,7 +20820,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K349" s="15"/>
+      <c r="K349" s="24"/>
       <c r="M349" s="6">
         <f t="shared" si="34"/>
         <v>256000000000348</v>
@@ -20827,7 +20858,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K350" s="4"/>
+      <c r="K350" s="23"/>
       <c r="M350" s="6">
         <f t="shared" si="34"/>
         <v>256000000000349</v>
@@ -20865,7 +20896,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K351" s="4"/>
+      <c r="K351" s="23"/>
       <c r="M351" s="6">
         <f t="shared" si="34"/>
         <v>256000000000350</v>
@@ -20903,7 +20934,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K352" s="4"/>
+      <c r="K352" s="23"/>
       <c r="M352" s="6">
         <f t="shared" si="34"/>
         <v>256000000000351</v>
@@ -20941,7 +20972,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K353" s="15"/>
+      <c r="K353" s="24"/>
       <c r="M353" s="6">
         <f t="shared" si="34"/>
         <v>256000000000352</v>
@@ -20979,7 +21010,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K354" s="4"/>
+      <c r="K354" s="23"/>
       <c r="M354" s="6">
         <f t="shared" si="34"/>
         <v>256000000000353</v>
@@ -21017,7 +21048,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K355" s="4"/>
+      <c r="K355" s="23"/>
       <c r="M355" s="6">
         <f t="shared" si="34"/>
         <v>256000000000354</v>
@@ -21055,7 +21086,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K356" s="4"/>
+      <c r="K356" s="23"/>
       <c r="M356" s="6">
         <f t="shared" si="34"/>
         <v>256000000000355</v>
@@ -21093,7 +21124,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K357" s="15"/>
+      <c r="K357" s="24"/>
       <c r="M357" s="6">
         <f t="shared" si="34"/>
         <v>256000000000356</v>
@@ -21131,7 +21162,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K358" s="4"/>
+      <c r="K358" s="23"/>
       <c r="M358" s="6">
         <f t="shared" si="34"/>
         <v>256000000000357</v>
@@ -21169,7 +21200,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K359" s="4"/>
+      <c r="K359" s="23"/>
       <c r="M359" s="6">
         <f t="shared" si="34"/>
         <v>256000000000358</v>
@@ -21207,7 +21238,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K360" s="4"/>
+      <c r="K360" s="23"/>
       <c r="M360" s="6">
         <f t="shared" si="34"/>
         <v>256000000000359</v>
@@ -21245,7 +21276,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K361" s="15"/>
+      <c r="K361" s="24"/>
       <c r="M361" s="6">
         <f t="shared" si="34"/>
         <v>256000000000360</v>
@@ -21283,7 +21314,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K362" s="4"/>
+      <c r="K362" s="23"/>
       <c r="M362" s="6">
         <f t="shared" si="34"/>
         <v>256000000000361</v>
@@ -21321,7 +21352,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K363" s="4"/>
+      <c r="K363" s="23"/>
       <c r="M363" s="6">
         <f t="shared" si="34"/>
         <v>256000000000362</v>
@@ -21359,7 +21390,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K364" s="4"/>
+      <c r="K364" s="23"/>
       <c r="M364" s="6">
         <f t="shared" si="34"/>
         <v>256000000000363</v>
@@ -21397,7 +21428,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K365" s="15"/>
+      <c r="K365" s="24"/>
       <c r="M365" s="6">
         <f t="shared" si="34"/>
         <v>256000000000364</v>
@@ -21435,7 +21466,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K366" s="4"/>
+      <c r="K366" s="23"/>
       <c r="M366" s="6">
         <f t="shared" si="34"/>
         <v>256000000000365</v>
@@ -21473,7 +21504,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K367" s="4"/>
+      <c r="K367" s="23"/>
       <c r="M367" s="6">
         <f t="shared" si="34"/>
         <v>256000000000366</v>
@@ -21511,7 +21542,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K368" s="4"/>
+      <c r="K368" s="23"/>
       <c r="M368" s="6">
         <f t="shared" si="34"/>
         <v>256000000000367</v>
@@ -21549,7 +21580,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K369" s="15"/>
+      <c r="K369" s="24"/>
       <c r="M369" s="6">
         <f t="shared" si="34"/>
         <v>256000000000368</v>
@@ -21587,7 +21618,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K370" s="4"/>
+      <c r="K370" s="23"/>
       <c r="M370" s="6">
         <f t="shared" si="34"/>
         <v>256000000000369</v>
@@ -21625,7 +21656,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K371" s="4"/>
+      <c r="K371" s="23"/>
       <c r="M371" s="6">
         <f t="shared" si="34"/>
         <v>256000000000370</v>
@@ -21663,7 +21694,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K372" s="4"/>
+      <c r="K372" s="23"/>
       <c r="M372" s="6">
         <f t="shared" si="34"/>
         <v>256000000000371</v>
@@ -21701,7 +21732,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K373" s="15"/>
+      <c r="K373" s="24"/>
       <c r="M373" s="6">
         <f t="shared" si="34"/>
         <v>256000000000372</v>
@@ -21739,7 +21770,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K374" s="4"/>
+      <c r="K374" s="23"/>
       <c r="M374" s="6">
         <f t="shared" si="34"/>
         <v>256000000000373</v>
@@ -21777,7 +21808,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K375" s="4"/>
+      <c r="K375" s="23"/>
       <c r="M375" s="6">
         <f t="shared" si="34"/>
         <v>256000000000374</v>
@@ -21815,7 +21846,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K376" s="4"/>
+      <c r="K376" s="23"/>
       <c r="M376" s="6">
         <f t="shared" si="34"/>
         <v>256000000000375</v>
@@ -21853,7 +21884,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K377" s="15"/>
+      <c r="K377" s="24"/>
       <c r="M377" s="6">
         <f t="shared" si="34"/>
         <v>256000000000376</v>
@@ -21891,7 +21922,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K378" s="4"/>
+      <c r="K378" s="23"/>
       <c r="M378" s="6">
         <f t="shared" si="34"/>
         <v>256000000000377</v>
@@ -21929,7 +21960,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K379" s="4"/>
+      <c r="K379" s="23"/>
       <c r="M379" s="6">
         <f t="shared" si="34"/>
         <v>256000000000378</v>
@@ -21967,7 +21998,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K380" s="4"/>
+      <c r="K380" s="23"/>
       <c r="M380" s="6">
         <f t="shared" si="34"/>
         <v>256000000000379</v>
@@ -22005,7 +22036,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K381" s="15"/>
+      <c r="K381" s="24"/>
       <c r="M381" s="6">
         <f t="shared" si="34"/>
         <v>256000000000380</v>
@@ -22043,7 +22074,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K382" s="4"/>
+      <c r="K382" s="23"/>
       <c r="M382" s="6">
         <f t="shared" si="34"/>
         <v>256000000000381</v>
@@ -22081,7 +22112,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K383" s="4"/>
+      <c r="K383" s="23"/>
       <c r="M383" s="6">
         <f t="shared" si="34"/>
         <v>256000000000382</v>
@@ -22119,7 +22150,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K384" s="4"/>
+      <c r="K384" s="23"/>
       <c r="M384" s="6">
         <f t="shared" si="34"/>
         <v>256000000000383</v>
@@ -22157,7 +22188,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K385" s="15"/>
+      <c r="K385" s="24"/>
       <c r="M385" s="6">
         <f t="shared" si="34"/>
         <v>256000000000384</v>
@@ -22195,7 +22226,7 @@
         <f t="shared" si="32"/>
         <v>Execute</v>
       </c>
-      <c r="K386" s="4"/>
+      <c r="K386" s="23"/>
       <c r="M386" s="6">
         <f t="shared" si="34"/>
         <v>256000000000385</v>
@@ -22233,7 +22264,7 @@
         <f t="shared" ref="J387:J450" si="38">IF(EXACT(F387, ""), "", IF(EXACT(H387, ""), "Execute", SUBSTITUTE(H387, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K387" s="4"/>
+      <c r="K387" s="23"/>
       <c r="M387" s="6">
         <f t="shared" si="34"/>
         <v>256000000000386</v>
@@ -22271,7 +22302,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K388" s="4"/>
+      <c r="K388" s="23"/>
       <c r="M388" s="6">
         <f t="shared" ref="M388:M451" si="40">IF(ISNUMBER(M387), M387+1, 256000000000001)</f>
         <v>256000000000387</v>
@@ -22309,7 +22340,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K389" s="15"/>
+      <c r="K389" s="24"/>
       <c r="M389" s="6">
         <f t="shared" si="40"/>
         <v>256000000000388</v>
@@ -22347,7 +22378,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K390" s="4"/>
+      <c r="K390" s="23"/>
       <c r="M390" s="6">
         <f t="shared" si="40"/>
         <v>256000000000389</v>
@@ -22385,7 +22416,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K391" s="4"/>
+      <c r="K391" s="23"/>
       <c r="M391" s="6">
         <f t="shared" si="40"/>
         <v>256000000000390</v>
@@ -22423,7 +22454,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K392" s="4"/>
+      <c r="K392" s="23"/>
       <c r="M392" s="6">
         <f t="shared" si="40"/>
         <v>256000000000391</v>
@@ -22461,7 +22492,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K393" s="15"/>
+      <c r="K393" s="24"/>
       <c r="M393" s="6">
         <f t="shared" si="40"/>
         <v>256000000000392</v>
@@ -22499,7 +22530,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K394" s="4"/>
+      <c r="K394" s="23"/>
       <c r="M394" s="6">
         <f t="shared" si="40"/>
         <v>256000000000393</v>
@@ -22537,7 +22568,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K395" s="4"/>
+      <c r="K395" s="23"/>
       <c r="M395" s="6">
         <f t="shared" si="40"/>
         <v>256000000000394</v>
@@ -22575,7 +22606,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K396" s="4"/>
+      <c r="K396" s="23"/>
       <c r="M396" s="6">
         <f t="shared" si="40"/>
         <v>256000000000395</v>
@@ -22613,7 +22644,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K397" s="15"/>
+      <c r="K397" s="24"/>
       <c r="M397" s="6">
         <f t="shared" si="40"/>
         <v>256000000000396</v>
@@ -22651,7 +22682,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K398" s="4"/>
+      <c r="K398" s="23"/>
       <c r="M398" s="6">
         <f t="shared" si="40"/>
         <v>256000000000397</v>
@@ -22689,7 +22720,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K399" s="4"/>
+      <c r="K399" s="23"/>
       <c r="M399" s="6">
         <f t="shared" si="40"/>
         <v>256000000000398</v>
@@ -22727,7 +22758,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K400" s="4"/>
+      <c r="K400" s="23"/>
       <c r="M400" s="6">
         <f t="shared" si="40"/>
         <v>256000000000399</v>
@@ -22765,7 +22796,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K401" s="15"/>
+      <c r="K401" s="24"/>
       <c r="M401" s="6">
         <f t="shared" si="40"/>
         <v>256000000000400</v>
@@ -22803,7 +22834,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K402" s="4"/>
+      <c r="K402" s="23"/>
       <c r="M402" s="6">
         <f t="shared" si="40"/>
         <v>256000000000401</v>
@@ -22841,7 +22872,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K403" s="4"/>
+      <c r="K403" s="23"/>
       <c r="M403" s="6">
         <f t="shared" si="40"/>
         <v>256000000000402</v>
@@ -22879,7 +22910,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K404" s="4"/>
+      <c r="K404" s="23"/>
       <c r="M404" s="6">
         <f t="shared" si="40"/>
         <v>256000000000403</v>
@@ -22917,7 +22948,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K405" s="15"/>
+      <c r="K405" s="24"/>
       <c r="M405" s="6">
         <f t="shared" si="40"/>
         <v>256000000000404</v>
@@ -22955,7 +22986,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K406" s="4"/>
+      <c r="K406" s="23"/>
       <c r="M406" s="6">
         <f t="shared" si="40"/>
         <v>256000000000405</v>
@@ -22993,7 +23024,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K407" s="4"/>
+      <c r="K407" s="23"/>
       <c r="M407" s="6">
         <f t="shared" si="40"/>
         <v>256000000000406</v>
@@ -23031,7 +23062,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K408" s="4"/>
+      <c r="K408" s="23"/>
       <c r="M408" s="6">
         <f t="shared" si="40"/>
         <v>256000000000407</v>
@@ -23069,7 +23100,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K409" s="15"/>
+      <c r="K409" s="24"/>
       <c r="M409" s="6">
         <f t="shared" si="40"/>
         <v>256000000000408</v>
@@ -23107,7 +23138,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K410" s="4"/>
+      <c r="K410" s="23"/>
       <c r="M410" s="6">
         <f t="shared" si="40"/>
         <v>256000000000409</v>
@@ -23145,7 +23176,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K411" s="4"/>
+      <c r="K411" s="23"/>
       <c r="M411" s="6">
         <f t="shared" si="40"/>
         <v>256000000000410</v>
@@ -23183,7 +23214,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K412" s="4"/>
+      <c r="K412" s="23"/>
       <c r="M412" s="6">
         <f t="shared" si="40"/>
         <v>256000000000411</v>
@@ -23221,7 +23252,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K413" s="15"/>
+      <c r="K413" s="24"/>
       <c r="M413" s="6">
         <f t="shared" si="40"/>
         <v>256000000000412</v>
@@ -23259,7 +23290,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K414" s="4"/>
+      <c r="K414" s="23"/>
       <c r="M414" s="6">
         <f t="shared" si="40"/>
         <v>256000000000413</v>
@@ -23297,7 +23328,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K415" s="4"/>
+      <c r="K415" s="23"/>
       <c r="M415" s="6">
         <f t="shared" si="40"/>
         <v>256000000000414</v>
@@ -23335,7 +23366,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K416" s="4"/>
+      <c r="K416" s="23"/>
       <c r="M416" s="6">
         <f t="shared" si="40"/>
         <v>256000000000415</v>
@@ -23373,7 +23404,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K417" s="15"/>
+      <c r="K417" s="24"/>
       <c r="M417" s="6">
         <f t="shared" si="40"/>
         <v>256000000000416</v>
@@ -23411,7 +23442,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K418" s="4"/>
+      <c r="K418" s="23"/>
       <c r="M418" s="6">
         <f t="shared" si="40"/>
         <v>256000000000417</v>
@@ -23449,7 +23480,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K419" s="4"/>
+      <c r="K419" s="23"/>
       <c r="M419" s="6">
         <f t="shared" si="40"/>
         <v>256000000000418</v>
@@ -23487,7 +23518,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K420" s="4"/>
+      <c r="K420" s="23"/>
       <c r="M420" s="6">
         <f t="shared" si="40"/>
         <v>256000000000419</v>
@@ -23525,7 +23556,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K421" s="15"/>
+      <c r="K421" s="24"/>
       <c r="M421" s="6">
         <f t="shared" si="40"/>
         <v>256000000000420</v>
@@ -23563,7 +23594,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K422" s="4"/>
+      <c r="K422" s="23"/>
       <c r="M422" s="6">
         <f t="shared" si="40"/>
         <v>256000000000421</v>
@@ -23601,7 +23632,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K423" s="4"/>
+      <c r="K423" s="23"/>
       <c r="M423" s="6">
         <f t="shared" si="40"/>
         <v>256000000000422</v>
@@ -23639,7 +23670,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K424" s="4"/>
+      <c r="K424" s="23"/>
       <c r="M424" s="6">
         <f t="shared" si="40"/>
         <v>256000000000423</v>
@@ -23677,7 +23708,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K425" s="15"/>
+      <c r="K425" s="24"/>
       <c r="M425" s="6">
         <f t="shared" si="40"/>
         <v>256000000000424</v>
@@ -23715,7 +23746,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K426" s="4"/>
+      <c r="K426" s="23"/>
       <c r="M426" s="6">
         <f t="shared" si="40"/>
         <v>256000000000425</v>
@@ -23753,7 +23784,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K427" s="4"/>
+      <c r="K427" s="23"/>
       <c r="M427" s="6">
         <f t="shared" si="40"/>
         <v>256000000000426</v>
@@ -23791,7 +23822,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K428" s="4"/>
+      <c r="K428" s="23"/>
       <c r="M428" s="6">
         <f t="shared" si="40"/>
         <v>256000000000427</v>
@@ -23829,7 +23860,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K429" s="15"/>
+      <c r="K429" s="24"/>
       <c r="M429" s="6">
         <f t="shared" si="40"/>
         <v>256000000000428</v>
@@ -23867,7 +23898,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K430" s="4"/>
+      <c r="K430" s="23"/>
       <c r="M430" s="6">
         <f t="shared" si="40"/>
         <v>256000000000429</v>
@@ -23905,7 +23936,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K431" s="4"/>
+      <c r="K431" s="23"/>
       <c r="M431" s="6">
         <f t="shared" si="40"/>
         <v>256000000000430</v>
@@ -23943,7 +23974,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K432" s="4"/>
+      <c r="K432" s="23"/>
       <c r="M432" s="6">
         <f t="shared" si="40"/>
         <v>256000000000431</v>
@@ -23981,7 +24012,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K433" s="15"/>
+      <c r="K433" s="24"/>
       <c r="M433" s="6">
         <f t="shared" si="40"/>
         <v>256000000000432</v>
@@ -24019,7 +24050,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K434" s="4"/>
+      <c r="K434" s="23"/>
       <c r="M434" s="6">
         <f t="shared" si="40"/>
         <v>256000000000433</v>
@@ -24057,7 +24088,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K435" s="4"/>
+      <c r="K435" s="23"/>
       <c r="M435" s="6">
         <f t="shared" si="40"/>
         <v>256000000000434</v>
@@ -24095,7 +24126,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K436" s="4"/>
+      <c r="K436" s="23"/>
       <c r="M436" s="6">
         <f t="shared" si="40"/>
         <v>256000000000435</v>
@@ -24133,7 +24164,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K437" s="15"/>
+      <c r="K437" s="24"/>
       <c r="M437" s="6">
         <f t="shared" si="40"/>
         <v>256000000000436</v>
@@ -24171,7 +24202,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K438" s="4"/>
+      <c r="K438" s="23"/>
       <c r="M438" s="6">
         <f t="shared" si="40"/>
         <v>256000000000437</v>
@@ -24209,7 +24240,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K439" s="4"/>
+      <c r="K439" s="23"/>
       <c r="M439" s="6">
         <f t="shared" si="40"/>
         <v>256000000000438</v>
@@ -24247,7 +24278,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K440" s="4"/>
+      <c r="K440" s="23"/>
       <c r="M440" s="6">
         <f t="shared" si="40"/>
         <v>256000000000439</v>
@@ -24285,7 +24316,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K441" s="15"/>
+      <c r="K441" s="24"/>
       <c r="M441" s="6">
         <f t="shared" si="40"/>
         <v>256000000000440</v>
@@ -24323,7 +24354,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K442" s="4"/>
+      <c r="K442" s="23"/>
       <c r="M442" s="6">
         <f t="shared" si="40"/>
         <v>256000000000441</v>
@@ -24361,7 +24392,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K443" s="4"/>
+      <c r="K443" s="23"/>
       <c r="M443" s="6">
         <f t="shared" si="40"/>
         <v>256000000000442</v>
@@ -24399,7 +24430,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K444" s="4"/>
+      <c r="K444" s="23"/>
       <c r="M444" s="6">
         <f t="shared" si="40"/>
         <v>256000000000443</v>
@@ -24437,7 +24468,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K445" s="15"/>
+      <c r="K445" s="24"/>
       <c r="M445" s="6">
         <f t="shared" si="40"/>
         <v>256000000000444</v>
@@ -24475,7 +24506,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K446" s="4"/>
+      <c r="K446" s="23"/>
       <c r="M446" s="6">
         <f t="shared" si="40"/>
         <v>256000000000445</v>
@@ -24513,7 +24544,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K447" s="4"/>
+      <c r="K447" s="23"/>
       <c r="M447" s="6">
         <f t="shared" si="40"/>
         <v>256000000000446</v>
@@ -24551,7 +24582,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K448" s="4"/>
+      <c r="K448" s="23"/>
       <c r="M448" s="6">
         <f t="shared" si="40"/>
         <v>256000000000447</v>
@@ -24589,7 +24620,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K449" s="15"/>
+      <c r="K449" s="24"/>
       <c r="M449" s="6">
         <f t="shared" si="40"/>
         <v>256000000000448</v>
@@ -24627,7 +24658,7 @@
         <f t="shared" si="38"/>
         <v>Execute</v>
       </c>
-      <c r="K450" s="4"/>
+      <c r="K450" s="23"/>
       <c r="M450" s="6">
         <f t="shared" si="40"/>
         <v>256000000000449</v>
@@ -24665,7 +24696,7 @@
         <f t="shared" ref="J451:J514" si="44">IF(EXACT(F451, ""), "", IF(EXACT(H451, ""), "Execute", SUBSTITUTE(H451, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K451" s="4"/>
+      <c r="K451" s="23"/>
       <c r="M451" s="6">
         <f t="shared" si="40"/>
         <v>256000000000450</v>
@@ -24703,7 +24734,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K452" s="4"/>
+      <c r="K452" s="23"/>
       <c r="M452" s="6">
         <f t="shared" ref="M452:M515" si="46">IF(ISNUMBER(M451), M451+1, 256000000000001)</f>
         <v>256000000000451</v>
@@ -24741,7 +24772,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K453" s="15"/>
+      <c r="K453" s="24"/>
       <c r="M453" s="6">
         <f t="shared" si="46"/>
         <v>256000000000452</v>
@@ -24779,7 +24810,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K454" s="4"/>
+      <c r="K454" s="23"/>
       <c r="M454" s="6">
         <f t="shared" si="46"/>
         <v>256000000000453</v>
@@ -24817,7 +24848,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K455" s="4"/>
+      <c r="K455" s="23"/>
       <c r="M455" s="6">
         <f t="shared" si="46"/>
         <v>256000000000454</v>
@@ -24855,7 +24886,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K456" s="4"/>
+      <c r="K456" s="23"/>
       <c r="M456" s="6">
         <f t="shared" si="46"/>
         <v>256000000000455</v>
@@ -24893,7 +24924,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K457" s="15"/>
+      <c r="K457" s="24"/>
       <c r="M457" s="6">
         <f t="shared" si="46"/>
         <v>256000000000456</v>
@@ -24931,7 +24962,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K458" s="4"/>
+      <c r="K458" s="23"/>
       <c r="M458" s="6">
         <f t="shared" si="46"/>
         <v>256000000000457</v>
@@ -24969,7 +25000,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K459" s="4"/>
+      <c r="K459" s="23"/>
       <c r="M459" s="6">
         <f t="shared" si="46"/>
         <v>256000000000458</v>
@@ -25007,7 +25038,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K460" s="4"/>
+      <c r="K460" s="23"/>
       <c r="M460" s="6">
         <f t="shared" si="46"/>
         <v>256000000000459</v>
@@ -25045,7 +25076,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K461" s="15"/>
+      <c r="K461" s="24"/>
       <c r="M461" s="6">
         <f t="shared" si="46"/>
         <v>256000000000460</v>
@@ -25083,7 +25114,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K462" s="4"/>
+      <c r="K462" s="23"/>
       <c r="M462" s="6">
         <f t="shared" si="46"/>
         <v>256000000000461</v>
@@ -25121,7 +25152,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K463" s="4"/>
+      <c r="K463" s="23"/>
       <c r="M463" s="6">
         <f t="shared" si="46"/>
         <v>256000000000462</v>
@@ -25159,7 +25190,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K464" s="4"/>
+      <c r="K464" s="23"/>
       <c r="M464" s="6">
         <f t="shared" si="46"/>
         <v>256000000000463</v>
@@ -25197,7 +25228,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K465" s="15"/>
+      <c r="K465" s="24"/>
       <c r="M465" s="6">
         <f t="shared" si="46"/>
         <v>256000000000464</v>
@@ -25235,7 +25266,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K466" s="4"/>
+      <c r="K466" s="23"/>
       <c r="M466" s="6">
         <f t="shared" si="46"/>
         <v>256000000000465</v>
@@ -25273,7 +25304,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K467" s="4"/>
+      <c r="K467" s="23"/>
       <c r="M467" s="6">
         <f t="shared" si="46"/>
         <v>256000000000466</v>
@@ -25311,7 +25342,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K468" s="4"/>
+      <c r="K468" s="23"/>
       <c r="M468" s="6">
         <f t="shared" si="46"/>
         <v>256000000000467</v>
@@ -25349,7 +25380,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K469" s="15"/>
+      <c r="K469" s="24"/>
       <c r="M469" s="6">
         <f t="shared" si="46"/>
         <v>256000000000468</v>
@@ -25387,7 +25418,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K470" s="4" t="s">
+      <c r="K470" s="23" t="s">
         <v>14</v>
       </c>
       <c r="M470" s="6">
@@ -25427,7 +25458,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K471" s="4"/>
+      <c r="K471" s="23"/>
       <c r="M471" s="6">
         <f t="shared" si="46"/>
         <v>256000000000470</v>
@@ -25465,7 +25496,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K472" s="4"/>
+      <c r="K472" s="23"/>
       <c r="M472" s="6">
         <f t="shared" si="46"/>
         <v>256000000000471</v>
@@ -25503,7 +25534,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K473" s="15"/>
+      <c r="K473" s="24"/>
       <c r="M473" s="6">
         <f t="shared" si="46"/>
         <v>256000000000472</v>
@@ -25541,7 +25572,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K474" s="4"/>
+      <c r="K474" s="23"/>
       <c r="M474" s="6">
         <f t="shared" si="46"/>
         <v>256000000000473</v>
@@ -25579,7 +25610,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K475" s="4"/>
+      <c r="K475" s="23"/>
       <c r="M475" s="6">
         <f t="shared" si="46"/>
         <v>256000000000474</v>
@@ -25617,7 +25648,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K476" s="4"/>
+      <c r="K476" s="23"/>
       <c r="M476" s="6">
         <f t="shared" si="46"/>
         <v>256000000000475</v>
@@ -25655,7 +25686,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K477" s="15"/>
+      <c r="K477" s="24"/>
       <c r="M477" s="6">
         <f t="shared" si="46"/>
         <v>256000000000476</v>
@@ -25693,7 +25724,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K478" s="4" t="s">
+      <c r="K478" s="23" t="s">
         <v>15</v>
       </c>
       <c r="M478" s="6">
@@ -25733,7 +25764,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K479" s="4"/>
+      <c r="K479" s="23"/>
       <c r="M479" s="6">
         <f t="shared" si="46"/>
         <v>256000000000478</v>
@@ -25771,7 +25802,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K480" s="4"/>
+      <c r="K480" s="23"/>
       <c r="M480" s="6">
         <f t="shared" si="46"/>
         <v>256000000000479</v>
@@ -25809,7 +25840,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K481" s="15"/>
+      <c r="K481" s="24"/>
       <c r="M481" s="6">
         <f t="shared" si="46"/>
         <v>256000000000480</v>
@@ -25847,7 +25878,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K482" s="4"/>
+      <c r="K482" s="23"/>
       <c r="M482" s="6">
         <f t="shared" si="46"/>
         <v>256000000000481</v>
@@ -25885,7 +25916,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K483" s="4"/>
+      <c r="K483" s="23"/>
       <c r="M483" s="6">
         <f t="shared" si="46"/>
         <v>256000000000482</v>
@@ -25923,7 +25954,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K484" s="4"/>
+      <c r="K484" s="23"/>
       <c r="M484" s="6">
         <f t="shared" si="46"/>
         <v>256000000000483</v>
@@ -25961,7 +25992,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K485" s="15"/>
+      <c r="K485" s="24"/>
       <c r="M485" s="6">
         <f t="shared" si="46"/>
         <v>256000000000484</v>
@@ -25999,7 +26030,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K486" s="4"/>
+      <c r="K486" s="23"/>
       <c r="M486" s="6">
         <f t="shared" si="46"/>
         <v>256000000000485</v>
@@ -26037,7 +26068,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K487" s="4"/>
+      <c r="K487" s="23"/>
       <c r="M487" s="6">
         <f t="shared" si="46"/>
         <v>256000000000486</v>
@@ -26075,7 +26106,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K488" s="4"/>
+      <c r="K488" s="23"/>
       <c r="M488" s="6">
         <f t="shared" si="46"/>
         <v>256000000000487</v>
@@ -26113,7 +26144,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K489" s="15"/>
+      <c r="K489" s="24"/>
       <c r="M489" s="6">
         <f t="shared" si="46"/>
         <v>256000000000488</v>
@@ -26151,7 +26182,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K490" s="4"/>
+      <c r="K490" s="23"/>
       <c r="M490" s="6">
         <f t="shared" si="46"/>
         <v>256000000000489</v>
@@ -26189,7 +26220,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K491" s="4"/>
+      <c r="K491" s="23"/>
       <c r="M491" s="6">
         <f t="shared" si="46"/>
         <v>256000000000490</v>
@@ -26227,7 +26258,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K492" s="4"/>
+      <c r="K492" s="23"/>
       <c r="M492" s="6">
         <f t="shared" si="46"/>
         <v>256000000000491</v>
@@ -26265,7 +26296,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K493" s="15"/>
+      <c r="K493" s="24"/>
       <c r="M493" s="6">
         <f t="shared" si="46"/>
         <v>256000000000492</v>
@@ -26303,7 +26334,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K494" s="4"/>
+      <c r="K494" s="23"/>
       <c r="M494" s="6">
         <f t="shared" si="46"/>
         <v>256000000000493</v>
@@ -26341,7 +26372,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K495" s="4"/>
+      <c r="K495" s="23"/>
       <c r="M495" s="6">
         <f t="shared" si="46"/>
         <v>256000000000494</v>
@@ -26379,7 +26410,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K496" s="4"/>
+      <c r="K496" s="23"/>
       <c r="M496" s="6">
         <f t="shared" si="46"/>
         <v>256000000000495</v>
@@ -26417,7 +26448,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K497" s="15"/>
+      <c r="K497" s="24"/>
       <c r="M497" s="6">
         <f t="shared" si="46"/>
         <v>256000000000496</v>
@@ -26455,7 +26486,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K498" s="4"/>
+      <c r="K498" s="23"/>
       <c r="M498" s="6">
         <f t="shared" si="46"/>
         <v>256000000000497</v>
@@ -26493,7 +26524,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K499" s="4"/>
+      <c r="K499" s="23"/>
       <c r="M499" s="6">
         <f t="shared" si="46"/>
         <v>256000000000498</v>
@@ -26531,7 +26562,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K500" s="4"/>
+      <c r="K500" s="23"/>
       <c r="M500" s="6">
         <f t="shared" si="46"/>
         <v>256000000000499</v>
@@ -26569,7 +26600,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K501" s="15"/>
+      <c r="K501" s="24"/>
       <c r="M501" s="6">
         <f t="shared" si="46"/>
         <v>256000000000500</v>
@@ -26607,7 +26638,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K502" s="4"/>
+      <c r="K502" s="23"/>
       <c r="M502" s="6">
         <f t="shared" si="46"/>
         <v>256000000000501</v>
@@ -26645,7 +26676,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K503" s="4"/>
+      <c r="K503" s="23"/>
       <c r="M503" s="6">
         <f t="shared" si="46"/>
         <v>256000000000502</v>
@@ -26683,7 +26714,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K504" s="4"/>
+      <c r="K504" s="23"/>
       <c r="M504" s="6">
         <f t="shared" si="46"/>
         <v>256000000000503</v>
@@ -26721,7 +26752,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K505" s="15"/>
+      <c r="K505" s="24"/>
       <c r="M505" s="6">
         <f t="shared" si="46"/>
         <v>256000000000504</v>
@@ -26759,7 +26790,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K506" s="4"/>
+      <c r="K506" s="23"/>
       <c r="M506" s="6">
         <f t="shared" si="46"/>
         <v>256000000000505</v>
@@ -26797,7 +26828,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K507" s="4"/>
+      <c r="K507" s="23"/>
       <c r="M507" s="6">
         <f t="shared" si="46"/>
         <v>256000000000506</v>
@@ -26835,7 +26866,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K508" s="4"/>
+      <c r="K508" s="23"/>
       <c r="M508" s="6">
         <f t="shared" si="46"/>
         <v>256000000000507</v>
@@ -26873,7 +26904,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K509" s="15"/>
+      <c r="K509" s="24"/>
       <c r="M509" s="6">
         <f t="shared" si="46"/>
         <v>256000000000508</v>
@@ -26911,7 +26942,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K510" s="4"/>
+      <c r="K510" s="23"/>
       <c r="M510" s="6">
         <f t="shared" si="46"/>
         <v>256000000000509</v>
@@ -26949,7 +26980,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K511" s="4"/>
+      <c r="K511" s="23"/>
       <c r="M511" s="6">
         <f t="shared" si="46"/>
         <v>256000000000510</v>
@@ -26987,7 +27018,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K512" s="4"/>
+      <c r="K512" s="23"/>
       <c r="M512" s="6">
         <f t="shared" si="46"/>
         <v>256000000000511</v>
@@ -27025,7 +27056,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K513" s="15"/>
+      <c r="K513" s="24"/>
       <c r="M513" s="6">
         <f t="shared" si="46"/>
         <v>256000000000512</v>
@@ -27063,7 +27094,7 @@
         <f t="shared" si="44"/>
         <v>Execute</v>
       </c>
-      <c r="K514" s="4"/>
+      <c r="K514" s="23"/>
       <c r="M514" s="6">
         <f t="shared" si="46"/>
         <v>256000000000513</v>
@@ -27101,7 +27132,7 @@
         <f t="shared" ref="J515:J578" si="50">IF(EXACT(F515, ""), "", IF(EXACT(H515, ""), "Execute", SUBSTITUTE(H515, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K515" s="4"/>
+      <c r="K515" s="23"/>
       <c r="M515" s="6">
         <f t="shared" si="46"/>
         <v>256000000000514</v>
@@ -27139,7 +27170,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K516" s="4"/>
+      <c r="K516" s="23"/>
       <c r="M516" s="6">
         <f t="shared" ref="M516:M579" si="52">IF(ISNUMBER(M515), M515+1, 256000000000001)</f>
         <v>256000000000515</v>
@@ -27177,7 +27208,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K517" s="15"/>
+      <c r="K517" s="24"/>
       <c r="M517" s="6">
         <f t="shared" si="52"/>
         <v>256000000000516</v>
@@ -27215,7 +27246,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K518" s="4"/>
+      <c r="K518" s="23"/>
       <c r="M518" s="6">
         <f t="shared" si="52"/>
         <v>256000000000517</v>
@@ -27253,7 +27284,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K519" s="4"/>
+      <c r="K519" s="23"/>
       <c r="M519" s="6">
         <f t="shared" si="52"/>
         <v>256000000000518</v>
@@ -27291,7 +27322,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K520" s="4"/>
+      <c r="K520" s="23"/>
       <c r="M520" s="6">
         <f t="shared" si="52"/>
         <v>256000000000519</v>
@@ -27329,7 +27360,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K521" s="15"/>
+      <c r="K521" s="24"/>
       <c r="M521" s="6">
         <f t="shared" si="52"/>
         <v>256000000000520</v>
@@ -27367,7 +27398,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K522" s="4"/>
+      <c r="K522" s="23"/>
       <c r="M522" s="6">
         <f t="shared" si="52"/>
         <v>256000000000521</v>
@@ -27405,7 +27436,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K523" s="4"/>
+      <c r="K523" s="23"/>
       <c r="M523" s="6">
         <f t="shared" si="52"/>
         <v>256000000000522</v>
@@ -27443,7 +27474,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K524" s="4"/>
+      <c r="K524" s="23"/>
       <c r="M524" s="6">
         <f t="shared" si="52"/>
         <v>256000000000523</v>
@@ -27481,7 +27512,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K525" s="15"/>
+      <c r="K525" s="24"/>
       <c r="M525" s="6">
         <f t="shared" si="52"/>
         <v>256000000000524</v>
@@ -27519,7 +27550,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K526" s="4"/>
+      <c r="K526" s="23"/>
       <c r="M526" s="6">
         <f t="shared" si="52"/>
         <v>256000000000525</v>
@@ -27557,7 +27588,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K527" s="4"/>
+      <c r="K527" s="23"/>
       <c r="M527" s="6">
         <f t="shared" si="52"/>
         <v>256000000000526</v>
@@ -27595,7 +27626,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K528" s="4"/>
+      <c r="K528" s="23"/>
       <c r="M528" s="6">
         <f t="shared" si="52"/>
         <v>256000000000527</v>
@@ -27633,7 +27664,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K529" s="15"/>
+      <c r="K529" s="24"/>
       <c r="M529" s="6">
         <f t="shared" si="52"/>
         <v>256000000000528</v>
@@ -27671,7 +27702,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K530" s="4"/>
+      <c r="K530" s="23"/>
       <c r="M530" s="6">
         <f t="shared" si="52"/>
         <v>256000000000529</v>
@@ -27709,7 +27740,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K531" s="4"/>
+      <c r="K531" s="23"/>
       <c r="M531" s="6">
         <f t="shared" si="52"/>
         <v>256000000000530</v>
@@ -27747,7 +27778,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K532" s="4"/>
+      <c r="K532" s="23"/>
       <c r="M532" s="6">
         <f t="shared" si="52"/>
         <v>256000000000531</v>
@@ -27785,7 +27816,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K533" s="15"/>
+      <c r="K533" s="24"/>
       <c r="M533" s="6">
         <f t="shared" si="52"/>
         <v>256000000000532</v>
@@ -27823,7 +27854,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K534" s="4"/>
+      <c r="K534" s="23"/>
       <c r="M534" s="6">
         <f t="shared" si="52"/>
         <v>256000000000533</v>
@@ -27861,7 +27892,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K535" s="4"/>
+      <c r="K535" s="23"/>
       <c r="M535" s="6">
         <f t="shared" si="52"/>
         <v>256000000000534</v>
@@ -27899,7 +27930,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K536" s="4"/>
+      <c r="K536" s="23"/>
       <c r="M536" s="6">
         <f t="shared" si="52"/>
         <v>256000000000535</v>
@@ -27937,7 +27968,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K537" s="15"/>
+      <c r="K537" s="24"/>
       <c r="M537" s="6">
         <f t="shared" si="52"/>
         <v>256000000000536</v>
@@ -27975,7 +28006,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K538" s="4"/>
+      <c r="K538" s="23"/>
       <c r="M538" s="6">
         <f t="shared" si="52"/>
         <v>256000000000537</v>
@@ -28013,7 +28044,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K539" s="4"/>
+      <c r="K539" s="23"/>
       <c r="M539" s="6">
         <f t="shared" si="52"/>
         <v>256000000000538</v>
@@ -28051,7 +28082,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K540" s="4"/>
+      <c r="K540" s="23"/>
       <c r="M540" s="6">
         <f t="shared" si="52"/>
         <v>256000000000539</v>
@@ -28089,7 +28120,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K541" s="15"/>
+      <c r="K541" s="24"/>
       <c r="M541" s="6">
         <f t="shared" si="52"/>
         <v>256000000000540</v>
@@ -28127,7 +28158,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K542" s="4"/>
+      <c r="K542" s="23"/>
       <c r="M542" s="6">
         <f t="shared" si="52"/>
         <v>256000000000541</v>
@@ -28165,7 +28196,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K543" s="4"/>
+      <c r="K543" s="23"/>
       <c r="M543" s="6">
         <f t="shared" si="52"/>
         <v>256000000000542</v>
@@ -28203,7 +28234,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K544" s="4"/>
+      <c r="K544" s="23"/>
       <c r="M544" s="6">
         <f t="shared" si="52"/>
         <v>256000000000543</v>
@@ -28241,7 +28272,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K545" s="15"/>
+      <c r="K545" s="24"/>
       <c r="M545" s="6">
         <f t="shared" si="52"/>
         <v>256000000000544</v>
@@ -28279,7 +28310,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K546" s="4"/>
+      <c r="K546" s="23"/>
       <c r="M546" s="6">
         <f t="shared" si="52"/>
         <v>256000000000545</v>
@@ -28317,7 +28348,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K547" s="4"/>
+      <c r="K547" s="23"/>
       <c r="M547" s="6">
         <f t="shared" si="52"/>
         <v>256000000000546</v>
@@ -28355,7 +28386,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K548" s="4"/>
+      <c r="K548" s="23"/>
       <c r="M548" s="6">
         <f t="shared" si="52"/>
         <v>256000000000547</v>
@@ -28393,7 +28424,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K549" s="15"/>
+      <c r="K549" s="24"/>
       <c r="M549" s="6">
         <f t="shared" si="52"/>
         <v>256000000000548</v>
@@ -28431,7 +28462,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K550" s="4"/>
+      <c r="K550" s="23"/>
       <c r="M550" s="6">
         <f t="shared" si="52"/>
         <v>256000000000549</v>
@@ -28469,7 +28500,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K551" s="4"/>
+      <c r="K551" s="23"/>
       <c r="M551" s="6">
         <f t="shared" si="52"/>
         <v>256000000000550</v>
@@ -28507,7 +28538,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K552" s="4"/>
+      <c r="K552" s="23"/>
       <c r="M552" s="6">
         <f t="shared" si="52"/>
         <v>256000000000551</v>
@@ -28545,7 +28576,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K553" s="15"/>
+      <c r="K553" s="24"/>
       <c r="M553" s="6">
         <f t="shared" si="52"/>
         <v>256000000000552</v>
@@ -28583,7 +28614,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K554" s="4"/>
+      <c r="K554" s="23"/>
       <c r="M554" s="6">
         <f t="shared" si="52"/>
         <v>256000000000553</v>
@@ -28621,7 +28652,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K555" s="4"/>
+      <c r="K555" s="23"/>
       <c r="M555" s="6">
         <f t="shared" si="52"/>
         <v>256000000000554</v>
@@ -28659,7 +28690,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K556" s="4"/>
+      <c r="K556" s="23"/>
       <c r="M556" s="6">
         <f t="shared" si="52"/>
         <v>256000000000555</v>
@@ -28697,7 +28728,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K557" s="15"/>
+      <c r="K557" s="24"/>
       <c r="M557" s="6">
         <f t="shared" si="52"/>
         <v>256000000000556</v>
@@ -28735,7 +28766,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K558" s="4"/>
+      <c r="K558" s="23"/>
       <c r="M558" s="6">
         <f t="shared" si="52"/>
         <v>256000000000557</v>
@@ -28773,7 +28804,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K559" s="4"/>
+      <c r="K559" s="23"/>
       <c r="M559" s="6">
         <f t="shared" si="52"/>
         <v>256000000000558</v>
@@ -28811,7 +28842,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K560" s="4"/>
+      <c r="K560" s="23"/>
       <c r="M560" s="6">
         <f t="shared" si="52"/>
         <v>256000000000559</v>
@@ -28849,7 +28880,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K561" s="15"/>
+      <c r="K561" s="24"/>
       <c r="M561" s="6">
         <f t="shared" si="52"/>
         <v>256000000000560</v>
@@ -28887,7 +28918,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K562" s="4"/>
+      <c r="K562" s="23"/>
       <c r="M562" s="6">
         <f t="shared" si="52"/>
         <v>256000000000561</v>
@@ -28925,7 +28956,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K563" s="4"/>
+      <c r="K563" s="23"/>
       <c r="M563" s="6">
         <f t="shared" si="52"/>
         <v>256000000000562</v>
@@ -28963,7 +28994,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K564" s="4"/>
+      <c r="K564" s="23"/>
       <c r="M564" s="6">
         <f t="shared" si="52"/>
         <v>256000000000563</v>
@@ -29001,7 +29032,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K565" s="15"/>
+      <c r="K565" s="24"/>
       <c r="M565" s="6">
         <f t="shared" si="52"/>
         <v>256000000000564</v>
@@ -29039,7 +29070,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K566" s="4"/>
+      <c r="K566" s="23"/>
       <c r="M566" s="6">
         <f t="shared" si="52"/>
         <v>256000000000565</v>
@@ -29077,7 +29108,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K567" s="4"/>
+      <c r="K567" s="23"/>
       <c r="M567" s="6">
         <f t="shared" si="52"/>
         <v>256000000000566</v>
@@ -29115,7 +29146,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K568" s="4"/>
+      <c r="K568" s="23"/>
       <c r="M568" s="6">
         <f t="shared" si="52"/>
         <v>256000000000567</v>
@@ -29153,7 +29184,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K569" s="15"/>
+      <c r="K569" s="24"/>
       <c r="M569" s="6">
         <f t="shared" si="52"/>
         <v>256000000000568</v>
@@ -29191,7 +29222,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K570" s="4"/>
+      <c r="K570" s="23"/>
       <c r="M570" s="6">
         <f t="shared" si="52"/>
         <v>256000000000569</v>
@@ -29229,7 +29260,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K571" s="4"/>
+      <c r="K571" s="23"/>
       <c r="M571" s="6">
         <f t="shared" si="52"/>
         <v>256000000000570</v>
@@ -29267,7 +29298,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K572" s="4"/>
+      <c r="K572" s="23"/>
       <c r="M572" s="6">
         <f t="shared" si="52"/>
         <v>256000000000571</v>
@@ -29305,7 +29336,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K573" s="15"/>
+      <c r="K573" s="24"/>
       <c r="M573" s="6">
         <f t="shared" si="52"/>
         <v>256000000000572</v>
@@ -29343,7 +29374,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K574" s="4" t="s">
+      <c r="K574" s="23" t="s">
         <v>35</v>
       </c>
       <c r="M574" s="6">
@@ -29383,7 +29414,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K575" s="4"/>
+      <c r="K575" s="23"/>
       <c r="M575" s="6">
         <f t="shared" si="52"/>
         <v>256000000000574</v>
@@ -29421,7 +29452,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K576" s="4"/>
+      <c r="K576" s="23"/>
       <c r="M576" s="6">
         <f t="shared" si="52"/>
         <v>256000000000575</v>
@@ -29459,7 +29490,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K577" s="15"/>
+      <c r="K577" s="24"/>
       <c r="M577" s="6">
         <f t="shared" si="52"/>
         <v>256000000000576</v>
@@ -29497,7 +29528,7 @@
         <f t="shared" si="50"/>
         <v>Execute</v>
       </c>
-      <c r="K578" s="4"/>
+      <c r="K578" s="23"/>
       <c r="M578" s="6">
         <f t="shared" si="52"/>
         <v>256000000000577</v>
@@ -29535,7 +29566,7 @@
         <f t="shared" ref="J579:J597" si="56">IF(EXACT(F579, ""), "", IF(EXACT(H579, ""), "Execute", SUBSTITUTE(H579, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K579" s="4"/>
+      <c r="K579" s="23"/>
       <c r="M579" s="6">
         <f t="shared" si="52"/>
         <v>256000000000578</v>
@@ -29573,7 +29604,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K580" s="4"/>
+      <c r="K580" s="23"/>
       <c r="M580" s="6">
         <f t="shared" ref="M580:M629" si="58">IF(ISNUMBER(M579), M579+1, 256000000000001)</f>
         <v>256000000000579</v>
@@ -29611,7 +29642,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K581" s="15"/>
+      <c r="K581" s="24"/>
       <c r="M581" s="6">
         <f t="shared" si="58"/>
         <v>256000000000580</v>
@@ -29649,7 +29680,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K582" s="4" t="s">
+      <c r="K582" s="23" t="s">
         <v>30</v>
       </c>
       <c r="M582" s="6">
@@ -29689,7 +29720,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K583" s="4"/>
+      <c r="K583" s="23"/>
       <c r="M583" s="6">
         <f t="shared" si="58"/>
         <v>256000000000582</v>
@@ -29727,7 +29758,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K584" s="4"/>
+      <c r="K584" s="23"/>
       <c r="M584" s="6">
         <f t="shared" si="58"/>
         <v>256000000000583</v>
@@ -29765,7 +29796,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K585" s="15"/>
+      <c r="K585" s="24"/>
       <c r="M585" s="6">
         <f t="shared" si="58"/>
         <v>256000000000584</v>
@@ -29803,7 +29834,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K586" s="4" t="s">
+      <c r="K586" s="23" t="s">
         <v>29</v>
       </c>
       <c r="M586" s="6">
@@ -29843,7 +29874,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K587" s="4"/>
+      <c r="K587" s="23"/>
       <c r="M587" s="6">
         <f t="shared" si="58"/>
         <v>256000000000586</v>
@@ -29881,7 +29912,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K588" s="4"/>
+      <c r="K588" s="23"/>
       <c r="M588" s="6">
         <f t="shared" si="58"/>
         <v>256000000000587</v>
@@ -29919,7 +29950,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K589" s="15"/>
+      <c r="K589" s="24"/>
       <c r="M589" s="6">
         <f t="shared" si="58"/>
         <v>256000000000588</v>
@@ -29959,7 +29990,7 @@
         <f t="shared" si="56"/>
         <v>MaterialReturn</v>
       </c>
-      <c r="K590" s="4" t="s">
+      <c r="K590" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M590" s="6">
@@ -29999,7 +30030,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K591" s="4"/>
+      <c r="K591" s="23"/>
       <c r="M591" s="6">
         <f t="shared" si="58"/>
         <v>256000000000590</v>
@@ -30037,7 +30068,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K592" s="4"/>
+      <c r="K592" s="23"/>
       <c r="M592" s="6">
         <f t="shared" si="58"/>
         <v>256000000000591</v>
@@ -30075,7 +30106,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K593" s="15"/>
+      <c r="K593" s="24"/>
       <c r="M593" s="6">
         <f t="shared" si="58"/>
         <v>256000000000592</v>
@@ -30113,7 +30144,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K594" s="4" t="s">
+      <c r="K594" s="23" t="s">
         <v>28</v>
       </c>
       <c r="M594" s="6">
@@ -30153,7 +30184,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K595" s="4"/>
+      <c r="K595" s="23"/>
       <c r="M595" s="6">
         <f t="shared" si="58"/>
         <v>256000000000594</v>
@@ -30191,7 +30222,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K596" s="4"/>
+      <c r="K596" s="23"/>
       <c r="M596" s="6">
         <f t="shared" si="58"/>
         <v>256000000000595</v>
@@ -30229,7 +30260,7 @@
         <f t="shared" si="56"/>
         <v>Execute</v>
       </c>
-      <c r="K597" s="15"/>
+      <c r="K597" s="24"/>
       <c r="M597" s="6">
         <f t="shared" si="58"/>
         <v>256000000000596</v>
@@ -30267,7 +30298,7 @@
         <f t="shared" ref="J598:J625" si="61">IF(EXACT(F598, ""), "", IF(EXACT(H598, ""), "Execute", SUBSTITUTE(H598, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K598" s="4"/>
+      <c r="K598" s="23"/>
       <c r="M598" s="6">
         <f t="shared" si="58"/>
         <v>256000000000597</v>
@@ -30305,7 +30336,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K599" s="4"/>
+      <c r="K599" s="23"/>
       <c r="M599" s="6">
         <f t="shared" si="58"/>
         <v>256000000000598</v>
@@ -30343,7 +30374,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K600" s="4"/>
+      <c r="K600" s="23"/>
       <c r="M600" s="6">
         <f t="shared" si="58"/>
         <v>256000000000599</v>
@@ -30381,7 +30412,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K601" s="15"/>
+      <c r="K601" s="24"/>
       <c r="M601" s="6">
         <f t="shared" si="58"/>
         <v>256000000000600</v>
@@ -30419,7 +30450,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K602" s="4" t="s">
+      <c r="K602" s="23" t="s">
         <v>21</v>
       </c>
       <c r="M602" s="6">
@@ -30461,7 +30492,7 @@
         <f t="shared" si="61"/>
         <v>PurchaseOrderDetail</v>
       </c>
-      <c r="K603" s="4" t="s">
+      <c r="K603" s="23" t="s">
         <v>23</v>
       </c>
       <c r="M603" s="6">
@@ -30503,7 +30534,7 @@
         <f t="shared" si="61"/>
         <v>PurchaseOrderSummary</v>
       </c>
-      <c r="K604" s="4" t="s">
+      <c r="K604" s="23" t="s">
         <v>22</v>
       </c>
       <c r="M604" s="6">
@@ -30545,7 +30576,7 @@
         <f t="shared" si="61"/>
         <v>POtoAP</v>
       </c>
-      <c r="K605" s="15" t="s">
+      <c r="K605" s="24" t="s">
         <v>26</v>
       </c>
       <c r="M605" s="6">
@@ -30585,7 +30616,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K606" s="4" t="s">
+      <c r="K606" s="23" t="s">
         <v>16</v>
       </c>
       <c r="M606" s="6">
@@ -30627,7 +30658,7 @@
         <f t="shared" si="61"/>
         <v>MaterialServiceRequestDetail</v>
       </c>
-      <c r="K607" s="4" t="s">
+      <c r="K607" s="23" t="s">
         <v>18</v>
       </c>
       <c r="M607" s="6">
@@ -30669,7 +30700,7 @@
         <f t="shared" si="61"/>
         <v>MaterialServiceRequestSummary</v>
       </c>
-      <c r="K608" s="4" t="s">
+      <c r="K608" s="23" t="s">
         <v>17</v>
       </c>
       <c r="M608" s="6">
@@ -30709,7 +30740,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K609" s="15"/>
+      <c r="K609" s="24"/>
       <c r="M609" s="6">
         <f t="shared" si="58"/>
         <v>256000000000608</v>
@@ -30749,7 +30780,7 @@
         <f t="shared" si="61"/>
         <v>MaterialReceive</v>
       </c>
-      <c r="K610" s="4" t="s">
+      <c r="K610" s="23" t="s">
         <v>31</v>
       </c>
       <c r="M610" s="6">
@@ -30789,7 +30820,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K611" s="4"/>
+      <c r="K611" s="23"/>
       <c r="M611" s="6">
         <f t="shared" si="58"/>
         <v>256000000000610</v>
@@ -30827,7 +30858,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K612" s="4"/>
+      <c r="K612" s="23"/>
       <c r="M612" s="6">
         <f t="shared" si="58"/>
         <v>256000000000611</v>
@@ -30865,7 +30896,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K613" s="15"/>
+      <c r="K613" s="24"/>
       <c r="M613" s="6">
         <f t="shared" si="58"/>
         <v>256000000000612</v>
@@ -30903,7 +30934,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K614" s="4"/>
+      <c r="K614" s="23"/>
       <c r="M614" s="6">
         <f t="shared" si="58"/>
         <v>256000000000613</v>
@@ -30941,7 +30972,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K615" s="4"/>
+      <c r="K615" s="23"/>
       <c r="M615" s="6">
         <f t="shared" si="58"/>
         <v>256000000000614</v>
@@ -30979,7 +31010,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K616" s="4"/>
+      <c r="K616" s="23"/>
       <c r="M616" s="6">
         <f t="shared" si="58"/>
         <v>256000000000615</v>
@@ -31017,7 +31048,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K617" s="15"/>
+      <c r="K617" s="24"/>
       <c r="M617" s="6">
         <f t="shared" si="58"/>
         <v>256000000000616</v>
@@ -31055,7 +31086,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K618" s="4"/>
+      <c r="K618" s="23"/>
       <c r="M618" s="6">
         <f t="shared" si="58"/>
         <v>256000000000617</v>
@@ -31093,7 +31124,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K619" s="4"/>
+      <c r="K619" s="23"/>
       <c r="M619" s="6">
         <f t="shared" si="58"/>
         <v>256000000000618</v>
@@ -31131,7 +31162,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K620" s="4"/>
+      <c r="K620" s="23"/>
       <c r="M620" s="6">
         <f t="shared" si="58"/>
         <v>256000000000619</v>
@@ -31169,7 +31200,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K621" s="15"/>
+      <c r="K621" s="24"/>
       <c r="M621" s="6">
         <f t="shared" si="58"/>
         <v>256000000000620</v>
@@ -31207,7 +31238,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K622" s="4"/>
+      <c r="K622" s="23"/>
       <c r="M622" s="6">
         <f t="shared" si="58"/>
         <v>256000000000621</v>
@@ -31245,7 +31276,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K623" s="4"/>
+      <c r="K623" s="23"/>
       <c r="M623" s="6">
         <f t="shared" si="58"/>
         <v>256000000000622</v>
@@ -31283,7 +31314,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K624" s="4"/>
+      <c r="K624" s="23"/>
       <c r="M624" s="6">
         <f t="shared" si="58"/>
         <v>256000000000623</v>
@@ -31321,7 +31352,7 @@
         <f t="shared" si="61"/>
         <v>Execute</v>
       </c>
-      <c r="K625" s="15"/>
+      <c r="K625" s="24"/>
       <c r="M625" s="6">
         <f t="shared" si="58"/>
         <v>256000000000624</v>
@@ -31359,7 +31390,7 @@
         <f t="shared" ref="J626:J629" si="63">IF(EXACT(F626, ""), "", IF(EXACT(H626, ""), "Execute", SUBSTITUTE(H626, " ", "")))</f>
         <v>Execute</v>
       </c>
-      <c r="K626" s="4"/>
+      <c r="K626" s="23"/>
       <c r="M626" s="6">
         <f t="shared" si="58"/>
         <v>256000000000625</v>
@@ -31397,7 +31428,7 @@
         <f t="shared" si="63"/>
         <v>Execute</v>
       </c>
-      <c r="K627" s="4"/>
+      <c r="K627" s="23"/>
       <c r="M627" s="6">
         <f t="shared" si="58"/>
         <v>256000000000626</v>
@@ -31435,7 +31466,7 @@
         <f t="shared" si="63"/>
         <v>Execute</v>
       </c>
-      <c r="K628" s="4"/>
+      <c r="K628" s="23"/>
       <c r="M628" s="6">
         <f t="shared" si="58"/>
         <v>256000000000627</v>
@@ -31473,7 +31504,7 @@
         <f t="shared" si="63"/>
         <v>Execute</v>
       </c>
-      <c r="K629" s="15"/>
+      <c r="K629" s="24"/>
       <c r="M629" s="6">
         <f t="shared" si="58"/>
         <v>256000000000628</v>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuAction.xlsx
@@ -404,7 +404,7 @@
       <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="E2">
@@ -975,7 +975,7 @@
             <v>Module.Administration.WorkFlowPath.DataValidation</v>
           </cell>
           <cell r="G53" t="str">
-            <v>Workflow Data Validation</v>
+            <v>Workflow Path Data Validation</v>
           </cell>
         </row>
         <row r="54">
@@ -3689,10 +3689,10 @@
             <v>97000000000299</v>
           </cell>
           <cell r="F300" t="str">
-            <v>Module.Accounting.Data.Journal.Transaction</v>
+            <v>Module.Accounting.Data.JournalEntry.Transaction</v>
           </cell>
           <cell r="G300" t="str">
-            <v>Journal</v>
+            <v>Journal Entry</v>
           </cell>
         </row>
         <row r="301">
@@ -5097,7 +5097,7 @@
             <v>97000000000427</v>
           </cell>
           <cell r="F428" t="str">
-            <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataValidation</v>
+            <v>Module.HumanResource.MasterData.BusinessTripCostComponent.DataValidation</v>
           </cell>
           <cell r="G428" t="str">
             <v>Business Trip Cost Component Data Validation</v>
@@ -6505,7 +6505,7 @@
             <v>97000000000555</v>
           </cell>
           <cell r="F556" t="str">
-            <v>Module.Project.MasterData.ProjectSectionType.Report.DataValidation</v>
+            <v>Module.Project.MasterData.ProjectSectionType.DataValidation</v>
           </cell>
           <cell r="G556" t="str">
             <v>Project Section Type Data Validation</v>
@@ -7753,10 +7753,10 @@
   <dimension ref="B1:O650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D636" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J645" sqref="J645"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="D53" s="3" t="str">
         <f>VLOOKUP($B53, [1]Main!$E$2:$G$1086, 3, FALSE)</f>
-        <v>Workflow Data Validation</v>
+        <v>Workflow Path Data Validation</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="22">
@@ -19130,11 +19130,11 @@
       </c>
       <c r="C300" s="19" t="str">
         <f>VLOOKUP($B300, [1]Main!$E$2:$G$1086, 2, FALSE)</f>
-        <v>Module.Accounting.Data.Journal.Transaction</v>
+        <v>Module.Accounting.Data.JournalEntry.Transaction</v>
       </c>
       <c r="D300" s="20" t="str">
         <f>VLOOKUP($B300, [1]Main!$E$2:$G$1086, 3, FALSE)</f>
-        <v>Journal</v>
+        <v>Journal Entry</v>
       </c>
       <c r="E300" s="17"/>
       <c r="F300" s="22">
@@ -24130,7 +24130,7 @@
       </c>
       <c r="C432" s="2" t="str">
         <f>VLOOKUP($B432, [1]Main!$E$2:$G$1086, 2, FALSE)</f>
-        <v>Module.HumanResource.MasterData.BusinessTripCostComponent.Report.DataValidation</v>
+        <v>Module.HumanResource.MasterData.BusinessTripCostComponent.DataValidation</v>
       </c>
       <c r="D432" s="3" t="str">
         <f>VLOOKUP($B432, [1]Main!$E$2:$G$1086, 3, FALSE)</f>
@@ -28998,7 +28998,7 @@
       </c>
       <c r="C560" s="2" t="str">
         <f>VLOOKUP($B560, [1]Main!$E$2:$G$1086, 2, FALSE)</f>
-        <v>Module.Project.MasterData.ProjectSectionType.Report.DataValidation</v>
+        <v>Module.Project.MasterData.ProjectSectionType.DataValidation</v>
       </c>
       <c r="D560" s="3" t="str">
         <f>VLOOKUP($B560, [1]Main!$E$2:$G$1086, 3, FALSE)</f>
@@ -31180,7 +31180,7 @@
       </c>
       <c r="E617" s="17"/>
       <c r="F617" s="22">
-        <f t="shared" ref="F617:F649" si="62">IF(EXACT(B617, ""), F616, B617)</f>
+        <f t="shared" ref="F617:F641" si="62">IF(EXACT(B617, ""), F616, B617)</f>
         <v>97000000000612</v>
       </c>
       <c r="G617" s="17"/>
@@ -31507,7 +31507,7 @@
     </row>
     <row r="626" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B626" s="7">
-        <f t="shared" ref="B626:B628" si="63">IF(ISNUMBER(B625), B625+1, 97000000000001)</f>
+        <f t="shared" ref="B626" si="63">IF(ISNUMBER(B625), B625+1, 97000000000001)</f>
         <v>97000000000619</v>
       </c>
       <c r="C626" s="2" t="str">
@@ -31734,7 +31734,7 @@
     </row>
     <row r="632" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B632" s="7">
-        <f t="shared" ref="B632:B649" si="64">IF(ISNUMBER(B631), B631+1, 97000000000001)</f>
+        <f t="shared" ref="B632:B641" si="64">IF(ISNUMBER(B631), B631+1, 97000000000001)</f>
         <v>97000000000624</v>
       </c>
       <c r="C632" s="2" t="str">
@@ -32422,5 +32422,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F184" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>